--- a/data/genius_Bushido_Amyf.xlsx
+++ b/data/genius_Bushido_Amyf.xlsx
@@ -407,7 +407,36 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Part]Es fing alles an mit dem „King of Kingz“-TapeAls ich dachte, es wird Rap, wo mich mein Wille hinträgtDann kam Aggro und „CCN“ mit FrankDas erste Mal mit Mukke etwas Knete auf der BankUnd ich war auf den ersten drei AnsagenIhr merkt es schon, ich rappe bereits seit langen Jahren2003 das erste Mal in den Charts„Vom Bordstein zur Skyline“, ein wahrer KlassikerDann kam der Major-Deal und "Electro Ghetto"HipHop war zu weich, ich war seine letzte RettungDer Typ aus Tempelhof hatte endlich ein'n VertragMachte Rap wieder hart: „CCN 2“ mit SaadIch kam aus dem Knast, „Staatsfeind Nr. 1“Hatte mittlerweile Gold-Status erreichtDann ging es „Von der Skyline zum Bordstein zurück“Platin, dieses Wort reicht zum Glück„Nemesis“, „Vendetta“, „Alles Gute kommt von unten“Ersguterjunge und das seit der der ersten StundeJa, jetzt war ich für den Anfang zufriedenFür den Anfang, und dann kam die „7“Jeder hatte auf einmal Ghettorap im TapedeckAlle war'n jetzt auf „Heavy Metal Payback“Hightech, „CCN 2“ mit FrankUnd die ganze Szene wurd' in Echtzeit gebangtEs ist Zeit vergang'n, in der du Menschen triffstUnd dann denkt man sich „Zeiten ändern dich“Auch auf der Leinwand konntet ihr mich seh'n2010, „BMW“ dann mit KayDarauf folgte noch „Jenseits von Gut und Böse“Nur um euch zu sagen, ihr seid alle ...Letztes Jahr „23“ mit SiggiIch bin wer ich bin: Anis Ferchichi!</t>
+          <t>[Part]
+Es fing alles an mit dem „King of Kingz“-Tape
+Als ich dachte, es wird Rap, wo mich mein Wille hinträgt
+Dann kam Aggro und „CCN“ mit Frank
+Das erste Mal mit Mukke etwas Knete auf der Bank
+Und ich war auf den ersten drei Ansagen
+Ihr merkt es schon, ich rappe bereits seit langen Jahren
+2003 das erste Mal in den Charts„Vom Bordstein zur Skyline“, ein wahrer Klassiker
+Dann kam der Major-Deal und "Electro Ghetto"
+HipHop war zu weich, ich war seine letzte Rettung
+Der Typ aus Tempelhof hatte endlich ein'n Vertrag
+Machte Rap wieder hart: „CCN 2“ mit Saad
+Ich kam aus dem Knast, „Staatsfeind Nr. 1“
+Hatte mittlerweile Gold-Status erreicht
+Dann ging es „Von der Skyline zum Bordstein zurück“
+Platin, dieses Wort reicht zum Glück
+„Nemesis“, „Vendetta“, „Alles Gute kommt von unten“
+Ersguterjunge und das seit der der ersten Stunde
+Ja, jetzt war ich für den Anfang zufrieden
+Für den Anfang, und dann kam die „7“
+Jeder hatte auf einmal Ghettorap im TapedeckAlle war'n jetzt auf „Heavy Metal Payback“
+Hightech, „CCN 2“ mit Frank
+Und die ganze Szene wurd' in Echtzeit gebangt
+Es ist Zeit vergang'n, in der du Menschen triffst
+Und dann denkt man sich „Zeiten ändern dich“Auch auf der Leinwand konntet ihr mich seh'n
+2010, „BMW“ dann mit Kay
+Darauf folgte noch „Jenseits von Gut und Böse“
+Nur um euch zu sagen, ihr seid alle ...
+Letztes Jahr „23“ mit Siggi
+Ich bin wer ich bin: Anis Ferchichi!</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -461,9 +490,60 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Scratches]Ain’t a goddamn thing gon' changeBall till we fall, all of my lifeOne time for your motherfucking mindStay on my grind, I'm off way before the sunshineCan’t get caught slipping, they all wanna see me fallBall till we fall, till the judge let the hammer drop[Hook]Wir sind draußen auf der Straße, und es dauert ein paar Jahre, doch wir schaffen es. Selbst ist der MannJa wir sind noch weit davon entfernt, doch wir greifen nach den Sternen, und wir schaffen es, Selbst ist der MannDenn du musst dich endlich befreien. Es wird endgültig Zeit für Veränderungen. Selbst ist der MannWir Holen uns da drausen Respekt und du musst raus aus dem Dreck, und vergiss nicht. Selbst ist der Mann[Part 1]Politik kein Problem,i ch entwickle mich von Tag zu Tag kann ja nicht SchadenConnection bis zum VatikanIch wusste gestern schon was Freitag in der Bravo stehtEin Bürgermeister der weiß wie man mit Zahlen umgehtUnd wen es darum geht wie man aus Scheiße Gold macht, Vollgas, Dann kann ich Helfen, hallo Deutschland, der Name Bushido, Haarfarbe Schwarz, in diesem Land geboren da habt ihr den SalatYeahIch war von klein auf der beste KandidatHab ein paar TattoosMach ein Kinofilm und da ein BuchUnd ich hab sehr gute Gründe für das alles hierAlles hier droht zu entgleisen,Was sagt ihr, wir müssen heute noch versuchen was zu reißen, keiner macht sein Kreuz wen die Guten nicht dabei sindSuche nach dem Zeichen, die Welt macht dich KrankJugendlicher Leichtsinn, Selbst ist der Mann
-[Hook]Wir sind draußen auf der Straße, und es dauert ein paar Jahre, doch wir schaffen es. Selbst ist der MannJa wir sind noch weit davon entfernt, doch wir greifen nach den Sternen, und wir schaffen es, Selbst ist der MannDenn du musst dich endlich befreien. Es wird endgültig Zeit für Veränderungen. Selbst ist der MannWir Holen uns da drausen Respekt und du musst raus aus dem Dreck, und vergiss nicht. Selbst ist der Mann[Part 2]Selbst ist der MannIch nehm es selbst in die HandDu bist nicht mehr sicher wie dein Geld auf der BankJa ich sprech Wahrheit, Aus für MillionenSie wollten es Verhindern per AuftrittsverbotAuch wen die Gesellschaft mich nicht akzeptiertIch schreibe diesen Brief an dich adressiertAn dich und deine Freunde, an jeden den du kennstIch schreibe diesen Brief für jeden meiner FansBlicken wir nach vorn, heute gehts um dichZeig den ganzen Menschen jetzt da draußen wer du bistKeiner kann mir sagen, wohin die Wege führenDu musst dich nur wagen durch die nächste TürAuch wen du nicht ganz genau weißt ob alles StimmtManchmal ist das Leben wie ein LabyrinthSuche nach den Zeichen, die Welt macht dich KrankJugendlicher Leichtsinn, Selbst ist der MannYeah
-[Hook]Wir sind draußen auf der Straße, und es dauert ein paar Jahre, doch wir schaffen es. Selbst ist der MannJa wir sind noch weit davon entfernt, doch wir greifen nach den Sternen, und wir schaffen es, Selbst ist der MannDenn du musst dich endlich befreien. Es wird endgültig Zeit für Veränderungen. Selbst ist der MannWir Holen uns da drausen Respekt und du musst raus aus dem Dreck, und vergiss nicht. Selbst ist der Mann</t>
+          <t>[Scratches]
+Ain’t a goddamn thing gon' changeBall till we fall, all of my life
+One time for your motherfucking mind
+Stay on my grind, I'm off way before the sunshine
+Can’t get caught slipping, they all wanna see me fall
+Ball till we fall, till the judge let the hammer drop
+[Hook]
+Wir sind draußen auf der Straße, und es dauert ein paar Jahre, doch wir schaffen es. Selbst ist der Mann
+Ja wir sind noch weit davon entfernt, doch wir greifen nach den Sternen, und wir schaffen es, Selbst ist der Mann
+Denn du musst dich endlich befreien. Es wird endgültig Zeit für Veränderungen. Selbst ist der Mann
+Wir Holen uns da drausen Respekt und du musst raus aus dem Dreck, und vergiss nicht. Selbst ist der Mann
+[Part 1]
+Politik kein Problem,i ch entwickle mich von Tag zu Tag kann ja nicht Schaden
+Connection bis zum Vatikan
+Ich wusste gestern schon was Freitag in der Bravo steht
+Ein Bürgermeister der weiß wie man mit Zahlen umgeht
+Und wen es darum geht wie man aus Scheiße Gold macht, Vollgas, Dann kann ich Helfen, hallo Deutschland, der Name Bushido, Haarfarbe Schwarz, in diesem Land geboren da habt ihr den Salat
+Yeah
+Ich war von klein auf der beste Kandidat
+Hab ein paar Tattoos
+Mach ein Kinofilm und da ein Buch
+Und ich hab sehr gute Gründe für das alles hierAlles hier droht zu entgleisen,
+Was sagt ihr, wir müssen heute noch versuchen was zu reißen, keiner macht sein Kreuz wen die Guten nicht dabei sind
+Suche nach dem Zeichen, die Welt macht dich Krank
+Jugendlicher Leichtsinn, Selbst ist der Mann
+[Hook]
+Wir sind draußen auf der Straße, und es dauert ein paar Jahre, doch wir schaffen es. Selbst ist der Mann
+Ja wir sind noch weit davon entfernt, doch wir greifen nach den Sternen, und wir schaffen es, Selbst ist der Mann
+Denn du musst dich endlich befreien. Es wird endgültig Zeit für Veränderungen. Selbst ist der Mann
+Wir Holen uns da drausen Respekt und du musst raus aus dem Dreck, und vergiss nicht. Selbst ist der Mann
+[Part 2]
+Selbst ist der Mann
+Ich nehm es selbst in die Hand
+Du bist nicht mehr sicher wie dein Geld auf der Bank
+Ja ich sprech Wahrheit, Aus für Millionen
+Sie wollten es Verhindern per Auftrittsverbot
+Auch wen die Gesellschaft mich nicht akzeptiert
+Ich schreibe diesen Brief an dich adressiert
+An dich und deine Freunde, an jeden den du kennst
+Ich schreibe diesen Brief für jeden meiner Fans
+Blicken wir nach vorn, heute gehts um dich
+Zeig den ganzen Menschen jetzt da draußen wer du bist
+Keiner kann mir sagen, wohin die Wege führen
+Du musst dich nur wagen durch die nächste Tür
+Auch wen du nicht ganz genau weißt ob alles Stimmt
+Manchmal ist das Leben wie ein Labyrinth
+Suche nach den Zeichen, die Welt macht dich Krank
+Jugendlicher Leichtsinn, Selbst ist der Mann
+Yeah
+[Hook]
+Wir sind draußen auf der Straße, und es dauert ein paar Jahre, doch wir schaffen es. Selbst ist der Mann
+Ja wir sind noch weit davon entfernt, doch wir greifen nach den Sternen, und wir schaffen es, Selbst ist der Mann
+Denn du musst dich endlich befreien. Es wird endgültig Zeit für Veränderungen. Selbst ist der Mann
+Wir Holen uns da drausen Respekt und du musst raus aus dem Dreck, und vergiss nicht. Selbst ist der Mann</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,9 +597,82 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Part 1]Yeah - ein neuer König war geboren, es war 2001King of Kingz - habe ich eure ganze Aufmerksamkeit?Angefangen mit Demotracks, Orgi ist dran schuldHoch hinaus, ohne Plan, Kohle und GeduldDamals waren wir jung, hatten Hunger und keinen JobDenn in meinem Block stapelten sie Kiloweise Stoff. (Yeah)Jeder holt sich was er kann, jeder kämpft für sichWenn jemand will das du ein Schläger bist, denk an mich!Ich habe vom Bordstein zur Skyline gesehenDer erste der in Deutschland von Drive-Bys erzähltWir wollten einfach nur schnelles Geld um jeden PreisUnd wenn es Regeln gab, machten wir das GegenteilIch schere mich immer noch einen Dreck um euren RapshitUm Kontos voll zu kriegen brauchst du keine TechnikDu brauchst nur hier und da den richtigen InstinktVielleicht könnt ihr was reissen, wenn ich mal nicht mehr bin. (Yeah)[Hook]Wir haben Jahrelang gehofft das man uns endlich hörtKeiner konnte wissen wo die Reise enden wirdDas erste Mal wenn man sein Handtuch in die Menge wirftKeiner konnte wissen wo die Reise enden wirdGuck wo wir damals waren, guck wo wir heute sindKeiner konnte wissen wo die Reise enden wirdWenn man die Engel hört wird auch der Teufel singenKeiner konnte wissen wo die Reise enden wird
-[Part 2]Als ich dann eines Tages endlich unterschrieben habErzählte ich von einem Plan den ich geschmiedet habDoch irgendwie wollte keiner mich verstehenAlso ging ich meinen Weg und kaufte meinen ersten 7nerWer ist Independent, sie sagen eine Ära geht zu EndeSonny Black - Lebende LegendeDas wir Erfolg hatten passte damals gar keinemDie ersten Goldplatten machten mich zum Staatsfeind!Und darauf folgte eine Goldene ZeitIch lud die ganze Nation ein um Zeuge zu sein. (Yeah)Ich habe meinen Horizont von Wolken befreitUnd was bis heute nicht geschehen ist, sollte nicht seinAlles braucht wohl einen GrundLeute die mir sagen was ich machen soll brauche ich nichtPunkt!Ich bin schlau wie ein FuchsIch ziehe mich selber raus aus dem SumpfDie Affen um mich herum wirken Taub, Blind und Stumm[Hook]Wir haben Jahrelang gehofft das man uns endlich hörtKeiner konnte wissen wo die Reise enden wirdDas erste Mal wenn man sein Handtuch in die Menge wirftKeiner konnte wissen wo die Reise enden wirdGuck wo wir damals waren, guck wo wir heute sindKeiner konnte wissen wo die Reise enden wirdWenn man die Engel hört wird auch der Teufel singenKeiner konnte wissen wo die Reise enden wirdWir haben Jahrelang gehofft das man uns endlich hörtKeiner konnte wissen wo die Reise enden wirdDas erste Mal wenn man sein Handtuch in die Menge wirftKeiner konnte wissen wo die Reise enden wirdGuck wo wir damals waren, guck wo wir heute sindKeiner konnte wissen wo die Reise enden wirdWenn man die Engel hört wird auch der Teufel singenKeiner konnte wissen wo die Reise enden wird
-[Scratches]As I look up at the skyMy mind starts tripping, a tear drops my eyeIf you look up at the sun you'll see my face in the reflectionAs I look up at the skyAs I look up at the skyMy mind starts tripping, a tear drops my eyeLooking at my history and what the time giving meMy mind travels at the speed of concrete streets[Hook]Wir haben Jahrelang gehofft das man uns endlich hörtKeiner konnte wissen wo die Reise enden wirdDas erste Mal wenn man sein Handtuch in die Menge wirftKeiner konnte wissen wo die Reise enden wirdGuck wo wir damals waren, guck wo wir heute sindKeiner konnte wissen wo die Reise enden wirdWenn man die Engel hört wird auch der Teufel singenKeiner konnte wissen wo die Reise enden wird</t>
+          <t>[Part 1]
+Yeah - ein neuer König war geboren, es war 2001King of Kingz - habe ich eure ganze Aufmerksamkeit?
+Angefangen mit Demotracks, Orgi ist dran schuld
+Hoch hinaus, ohne Plan, Kohle und Geduld
+Damals waren wir jung, hatten Hunger und keinen Job
+Denn in meinem Block stapelten sie Kiloweise Stoff. (Yeah)
+Jeder holt sich was er kann, jeder kämpft für sich
+Wenn jemand will das du ein Schläger bist, denk an mich!
+Ich habe vom Bordstein zur Skyline gesehen
+Der erste der in Deutschland von Drive-Bys erzählt
+Wir wollten einfach nur schnelles Geld um jeden Preis
+Und wenn es Regeln gab, machten wir das Gegenteil
+Ich schere mich immer noch einen Dreck um euren Rapshit
+Um Kontos voll zu kriegen brauchst du keine Technik
+Du brauchst nur hier und da den richtigen Instinkt
+Vielleicht könnt ihr was reissen, wenn ich mal nicht mehr bin. (Yeah)
+[Hook]
+Wir haben Jahrelang gehofft das man uns endlich hört
+Keiner konnte wissen wo die Reise enden wird
+Das erste Mal wenn man sein Handtuch in die Menge wirft
+Keiner konnte wissen wo die Reise enden wird
+Guck wo wir damals waren, guck wo wir heute sind
+Keiner konnte wissen wo die Reise enden wird
+Wenn man die Engel hört wird auch der Teufel singen
+Keiner konnte wissen wo die Reise enden wird
+[Part 2]
+Als ich dann eines Tages endlich unterschrieben hab
+Erzählte ich von einem Plan den ich geschmiedet hab
+Doch irgendwie wollte keiner mich verstehen
+Also ging ich meinen Weg und kaufte meinen ersten 7ner
+Wer ist Independent, sie sagen eine Ära geht zu Ende
+Sonny Black - Lebende Legende
+Das wir Erfolg hatten passte damals gar keinem
+Die ersten Goldplatten machten mich zum Staatsfeind!
+Und darauf folgte eine Goldene Zeit
+Ich lud die ganze Nation ein um Zeuge zu sein. (Yeah)
+Ich habe meinen Horizont von Wolken befreit
+Und was bis heute nicht geschehen ist, sollte nicht sein
+Alles braucht wohl einen Grund
+Leute die mir sagen was ich machen soll brauche ich nicht
+Punkt!
+Ich bin schlau wie ein Fuchs
+Ich ziehe mich selber raus aus dem Sumpf
+Die Affen um mich herum wirken Taub, Blind und Stumm
+[Hook]
+Wir haben Jahrelang gehofft das man uns endlich hört
+Keiner konnte wissen wo die Reise enden wird
+Das erste Mal wenn man sein Handtuch in die Menge wirft
+Keiner konnte wissen wo die Reise enden wird
+Guck wo wir damals waren, guck wo wir heute sind
+Keiner konnte wissen wo die Reise enden wird
+Wenn man die Engel hört wird auch der Teufel singen
+Keiner konnte wissen wo die Reise enden wird
+Wir haben Jahrelang gehofft das man uns endlich hört
+Keiner konnte wissen wo die Reise enden wird
+Das erste Mal wenn man sein Handtuch in die Menge wirft
+Keiner konnte wissen wo die Reise enden wird
+Guck wo wir damals waren, guck wo wir heute sind
+Keiner konnte wissen wo die Reise enden wird
+Wenn man die Engel hört wird auch der Teufel singen
+Keiner konnte wissen wo die Reise enden wird
+[Scratches]
+As I look up at the skyMy mind starts tripping, a tear drops my eye
+If you look up at the sun you'll see my face in the reflection
+As I look up at the skyAs I look up at the skyMy mind starts tripping, a tear drops my eye
+Looking at my history and what the time giving me
+My mind travels at the speed of concrete streets
+[Hook]
+Wir haben Jahrelang gehofft das man uns endlich hört
+Keiner konnte wissen wo die Reise enden wird
+Das erste Mal wenn man sein Handtuch in die Menge wirft
+Keiner konnte wissen wo die Reise enden wird
+Guck wo wir damals waren, guck wo wir heute sind
+Keiner konnte wissen wo die Reise enden wird
+Wenn man die Engel hört wird auch der Teufel singen
+Keiner konnte wissen wo die Reise enden wird</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -573,9 +726,93 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[Part 1]Weißt du das hier ist mein bürgerlicher NameDen kennt kaum einer also hört zu was ich sageFerchichiWurd Jahre lang Bushido genanntBin den meisten Kids hier als Hero bekannt dochFerchichiIst der Name ganz in echt keine Marke und GeschäftWie mein Vater heiß ich jetzt nurFerchichiAuf Tour rund um die UhrMachte Fachabitur nicht als Kunstfigur sondernFerchichiIch wusste ich werd stinkreich doch bleibe immer gleichUnd auch mein Kind heißtFerchichiVom Rapper wirst du hören in BerlinDoch auf einem förmlichen Brief steht einfachFerchichiIch bin einer den man Tag und Nacht erkenntAber eigentlich ein ganz normaler MenschFerchichiVom Versteckspiel die Nase echt vollIch trage meinen Namen mit Stolz, ich heißeFerchichi
-[Hook]Weißt du wer ich bin? Anis FerchichiBekanntester Künstler aus Berlin CityMache meine Alben fertig, vertick sieUnd ich muss euch etwas wichtiges sagenWeißt du wer ich bin? Anis FerchichiIhr habts mitgekriegt als die Cam grad nicht mitliefDie Rapper sind nicht ehrlich vergiss sieIch sag euch meinen richtigen Namen: Ferchichi[Part 2]Ach wie Gut das niemand weißDass ich in Wirklichkeit nicht mal Bushido heiß sondernFerchichiManchmal will ich Ruhe vor dem KünstlernamenWill das meinen Namen meine Frau und Kinder tragenFerchichiDoch ich werf die Flinte nicht ins KornMit diesem Namen bin ich doch geborenFerchichiEin Pseudonym macht dich nicht hartIch unterschreibe meinen Plattenvertrag mitFerchichiBevor du deine Arschkarte kriegstErzähl ich dir noch kurz was mein Nachname istFerchichiBushido ist Japanisch und nicht ChinesischDoch mein echter Name tunesischFerchichiWie ich heiße habe ich euch gezeigtMeinen Fans weil ihr meine Freunde seidFerchichiVersprochen ich werd immer für euch da seinDoch irgendwann steht es auf dem GrabsteinFerchichi
-[Hook]Weißt du wer ich bin? Anis FerchichiBekanntester Künstler aus Berlin CityMache meine Alben fertig, vertick sieUnd ich muss euch etwas wichtiges sagenWeißt du wer ich bin? Anis FerchichiIhr habts mitgekriegt als die Cam grad nicht mitliefDie Rapper sind nicht ehrlich vergiss sieIch sag euch meinen richtigen Namen: Ferchichi[Part 3]Es ist nicht der Name der auf meiner Single stehtEs ist nur der Name der auf meiner Klingel stehtFerchichiGlaub mir manche Sachen spürst duIst Zuhause mal die Tür zu ist es Zeit fürFerchichiNein ich bin nicht Dennis the MenaceMeine Jungs nennen mich nur Anis NachnameFerchichiWieder fast mein Release Date verpasstAber ein Wort steht bei mir auf dem PassFerchichi[Hook]Weißt du wer ich bin? Anis FerchichiBekanntester Künstler aus Berlin CityMache meine Alben fertig, vertick sieUnd ich muss euch etwas wichtiges sagenWeißt du wer ich bin? Anis FerchichiIhr habts mitgekriegt als die Cam grad nicht mitliefDie Rapper sind nicht ehrlich vergiss sieIch sag euch meinen richtigen Namen: Ferchichi
+          <t>[Part 1]
+Weißt du das hier ist mein bürgerlicher Name
+Den kennt kaum einer also hört zu was ich sage
+Ferchichi
+Wurd Jahre lang Bushido genannt
+Bin den meisten Kids hier als Hero bekannt doch
+Ferchichi
+Ist der Name ganz in echt keine Marke und Geschäft
+Wie mein Vater heiß ich jetzt nur
+Ferchichi
+Auf Tour rund um die Uhr
+Machte Fachabitur nicht als Kunstfigur sondern
+Ferchichi
+Ich wusste ich werd stinkreich doch bleibe immer gleich
+Und auch mein Kind heißt
+Ferchichi
+Vom Rapper wirst du hören in Berlin
+Doch auf einem förmlichen Brief steht einfach
+Ferchichi
+Ich bin einer den man Tag und Nacht erkennt
+Aber eigentlich ein ganz normaler Mensch
+Ferchichi
+Vom Versteckspiel die Nase echt voll
+Ich trage meinen Namen mit Stolz, ich heiße
+Ferchichi
+[Hook]
+Weißt du wer ich bin? Anis Ferchichi
+Bekanntester Künstler aus Berlin City
+Mache meine Alben fertig, vertick sie
+Und ich muss euch etwas wichtiges sagen
+Weißt du wer ich bin? Anis Ferchichi
+Ihr habts mitgekriegt als die Cam grad nicht mitlief
+Die Rapper sind nicht ehrlich vergiss sie
+Ich sag euch meinen richtigen Namen: Ferchichi
+[Part 2]
+Ach wie Gut das niemand weißDass ich in Wirklichkeit nicht mal Bushido heiß sondernFerchichi
+Manchmal will ich Ruhe vor dem Künstlernamen
+Will das meinen Namen meine Frau und Kinder tragen
+Ferchichi
+Doch ich werf die Flinte nicht ins Korn
+Mit diesem Namen bin ich doch geboren
+Ferchichi
+Ein Pseudonym macht dich nicht hart
+Ich unterschreibe meinen Plattenvertrag mit
+Ferchichi
+Bevor du deine Arschkarte kriegst
+Erzähl ich dir noch kurz was mein Nachname ist
+Ferchichi
+Bushido ist Japanisch und nicht ChinesischDoch mein echter Name tunesisch
+Ferchichi
+Wie ich heiße habe ich euch gezeigt
+Meinen Fans weil ihr meine Freunde seid
+Ferchichi
+Versprochen ich werd immer für euch da sein
+Doch irgendwann steht es auf dem Grabstein
+Ferchichi
+[Hook]
+Weißt du wer ich bin? Anis Ferchichi
+Bekanntester Künstler aus Berlin City
+Mache meine Alben fertig, vertick sie
+Und ich muss euch etwas wichtiges sagen
+Weißt du wer ich bin? Anis Ferchichi
+Ihr habts mitgekriegt als die Cam grad nicht mitlief
+Die Rapper sind nicht ehrlich vergiss sie
+Ich sag euch meinen richtigen Namen: Ferchichi
+[Part 3]
+Es ist nicht der Name der auf meiner Single steht
+Es ist nur der Name der auf meiner Klingel steht
+Ferchichi
+Glaub mir manche Sachen spürst du
+Ist Zuhause mal die Tür zu ist es Zeit für
+Ferchichi
+Nein ich bin nicht Dennis the Menace
+Meine Jungs nennen mich nur Anis Nachname
+Ferchichi
+Wieder fast mein Release Date verpasst
+Aber ein Wort steht bei mir auf dem Pass
+Ferchichi
+[Hook]
+Weißt du wer ich bin? Anis Ferchichi
+Bekanntester Künstler aus Berlin City
+Mache meine Alben fertig, vertick sie
+Und ich muss euch etwas wichtiges sagen
+Weißt du wer ich bin? Anis Ferchichi
+Ihr habts mitgekriegt als die Cam grad nicht mitlief
+Die Rapper sind nicht ehrlich vergiss sie
+Ich sag euch meinen richtigen Namen: Ferchichi
 Ferchichi</t>
         </is>
       </c>
@@ -630,8 +867,69 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">[Part 1]Mach dein Ding was auch immer du für richtig hälstDu bist ehrlich, immer wenn du dich verstellstEs ging so schnell, leider hielt die Zeit nicht an, als wir am Abgrund standen, bist du zu weit gegang'Es fühlt sich Scheiße an, wenn Freunde dir den Rücken kehrn'Wir sind ein Tal, aber baun' keine Brücken mehrIch bin zurückgekehrt, wo ist dein Revier?Ich bin der King, doch hab mich nie für die Krone interessiert, yeahDu hast Kohle im Visier auch wenn du oben bist mit mir, darfst du den Kontakt zum Boden nicht verliern'Zeiten ändern Dich, doch es gibt Dinge die sich nie verändernStress - Mein Kopf ist voll wie mein TerminkalenderIch kann nicht Schlafen, kann nicht Essen hab den Magen leerDas ich dir irgendwas bedeutet hab ist Jahre herIch sage garnix mehr, alles nur Schein - Wenn ich begraben werd, ist alles vorbei[Hook]Ich hab gedacht das es passt mit uns ZweinBruder keiner sieht mich in der Nacht wenn ich wein', bitte lass mich alleinIch hab gesehen wer du bist, egal ob ich's versteh oder nichtIch hab gedacht das es passt mit uns ZweinBruder keiner sieht mich in der Nacht wenn ich wein', bitte lass mich alleinIch hätte jeden Fehler verziehn'Ich nenne keinen Grund, auch wenn es mehrere gibt[Part 2]Und ich merke wie die Tage nicht vergehnSpar dir deine Mails. Du brauchst garnicht erst zu fragen wie's mir gehtMeine Lage ist besch...Meine Lage ist okayIch mache halt das beste draus, und plane meinen WegDu hast anderes im Sinn - Alles kein ProblemEs kommt darauf an, das man Sachen nicht verdrehtUnd ehrlich zu sich selbst istDu hast Erfolg und siehst zufrieden ausAber wie kannst du heut' noch in den Spiegel schaun?Nimm deine Wertsachen - Lauf werd alleine glücklichIch hab dir Ernsthaft vertrautDu nahmst keine RücksichtWeißt du noch wo du geschlafen und gegessen hast?Es kann nicht sein das du alles schon vergessen hastAll der Luxus wo hast du deinen Wagen her?Wegen mir schwimmst du im Geld - Dagobert!Ich sage garnichts mehr alles nur Schein - Wenn ich begraben werd, ist alles vorbei
-[Hook]Ich hab gedacht das es passt mit uns ZweinBruder keiner sieht mich in der Nacht wenn ich wein', bitte lass mich alleinIch hab gesehen wer du bist, egal ob ich's versteh oder nichtIch hab gedacht das es passt mit uns ZweinBruder keiner sieht mich in der Nacht wenn ich wein', bitte lass mich alleinIch hätte jeden Fehler verziehn'Ich nenne keinen Grund, auch wenn es mehrere gibt[Part 3]Es ist wie es ist, die Wahrheit tut wehIch konnte nicht mal arbeiten gehenWährend ich da saß wollt der Tag nicht vergehenIch hätt' mit dir geredet - Gar kein ProblemJa ich hab gedacht - Ich könnte dir vertrauenDas Schlimme daran ist - Ich habe echt daran geglaubtIch wollte reden, doch leider warst du nicht vor OrtIch fühl mich so als hätt ich einen Bruder verlor'n![Hook]Ich hab gedacht das es passt mit uns ZweinBruder keiner sieht mich in der Nacht wenn ich wein', bitte lass mich alleinIch hab gesehen wer du bist, egal ob ich's versteh oder nichtIch hab gedacht das es passt mit uns ZweinBruder keiner sieht mich in der Nacht wenn ich wein', bitte lass mich alleinIch hätte jeden Fehler verziehn'Ich nenne keinen Grund, auch wenn es mehrere gibt
+          <t xml:space="preserve">[Part 1]
+Mach dein Ding was auch immer du für richtig hälst
+Du bist ehrlich, immer wenn du dich verstellst
+Es ging so schnell, leider hielt die Zeit nicht an, als wir am Abgrund standen, bist du zu weit gegang'
+Es fühlt sich Scheiße an, wenn Freunde dir den Rücken kehrn'
+Wir sind ein Tal, aber baun' keine Brücken mehr
+Ich bin zurückgekehrt, wo ist dein Revier?
+Ich bin der King, doch hab mich nie für die Krone interessiert, yeahDu hast Kohle im Visier auch wenn du oben bist mit mir, darfst du den Kontakt zum Boden nicht verliern'
+Zeiten ändern Dich, doch es gibt Dinge die sich nie verändern
+Stress - Mein Kopf ist voll wie mein Terminkalender
+Ich kann nicht Schlafen, kann nicht Essen hab den Magen leer
+Das ich dir irgendwas bedeutet hab ist Jahre her
+Ich sage garnix mehr, alles nur Schein - Wenn ich begraben werd, ist alles vorbei
+[Hook]
+Ich hab gedacht das es passt mit uns Zwein
+Bruderkeiner sieht mich in der Nacht wenn ich wein', bitte lass mich allein
+Ich hab gesehen wer du bist, egal ob ich's versteh oder nicht
+Ich hab gedacht das es passt mit uns Zwein
+Bruder keiner sieht mich in der Nacht wenn ich wein', bitte lass mich allein
+Ich hätte jeden Fehler verziehn'
+Ich nenne keinen Grund, auch wenn es mehrere gibt
+[Part 2]
+Und ich merke wie die Tage nicht vergehn
+Spar dir deine Mails. Du brauchst garnicht erst zu fragen wie's mir geht
+Meine Lage ist besch...Meine Lage ist okay
+Ich mache halt das beste draus, und plane meinen Weg
+Du hast anderes im Sinn - Alles kein Problem
+Es kommt darauf an, das man Sachen nicht verdreht
+Und ehrlich zu sich selbst ist
+Du hast Erfolg und siehst zufrieden aus
+Aber wie kannst du heut' noch in den Spiegel schaun?
+Nimm deine Wertsachen - Lauf werd alleine glücklich
+Ich hab dir Ernsthaft vertraut
+Du nahmst keine Rücksicht
+Weißt du noch wo du geschlafen und gegessen hast?
+Es kann nicht sein das du alles schon vergessen hast
+All der Luxus wo hast du deinen Wagen her?Wegen mir schwimmst du im Geld-Dagobert!
+Ich sage garnichts mehr alles nur Schein - Wenn ich begraben werd, ist alles vorbei
+[Hook]
+Ich hab gedacht das es passt mit uns Zwein
+Bruderkeiner sieht mich in der Nacht wenn ich wein', bitte lass mich allein
+Ich hab gesehen wer du bist, egal ob ich's versteh oder nicht
+Ich hab gedacht das es passt mit uns Zwein
+Bruder keiner sieht mich in der Nacht wenn ich wein', bitte lass mich allein
+Ich hätte jeden Fehler verziehn'
+Ich nenne keinen Grund, auch wenn es mehrere gibt
+[Part 3]
+Es ist wie es ist, die Wahrheit tut weh
+Ich konnte nicht mal arbeiten gehen
+Während ich da saß wollt der Tag nicht vergehen
+Ich hätt' mit dir geredet - Gar kein Problem
+Ja ich hab gedacht - Ich könnte dir vertrauen
+Das Schlimme daran ist - Ich habe echt daran geglaubt
+Ich wollte reden, doch leider warst du nicht vor Ort
+Ich fühl mich so als hätt ich einen Bruder verlor'n!
+[Hook]
+Ich hab gedacht das es passt mit uns Zwein
+Bruder keiner sieht mich in der Nacht wenn ich wein', bitte lass mich allein
+Ich hab gesehen wer du bist, egal ob ich's versteh oder nicht
+Ich hab gedacht das es passt mit uns Zwein
+Bruder keiner sieht mich in der Nacht wenn ich wein', bitte lass mich allein
+Ich hätte jeden Fehler verziehn'
+Ich nenne keinen Grund, auch wenn es mehrere gibt
 </t>
         </is>
       </c>
@@ -686,9 +984,81 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Part 1: Bushido]Halt' mir die Waffe ins GesichtIch hab' keine Angst, ichKomm' vorbei mit Sido - 23Neue Welt, wir halten zusamm'nWenn wir woll'n bring'n wir noch ein Album zusamm'nMit dem Kopf durch die Wand, umdreh'n ist outBevor ich so lebe wie ein Hund, geh' ich draufIch wusste schon als Kind: Es wird nicht besonders leichtWir hatten kein'n Computer oder Mikrofon im HeimDeine Probleme musst du regeln im AlleingangWir Zwei brachten unser Leben auf die LeinwandSetz dich hin, schnall dich an, sei dabeiNein - ich red' nicht weiter um den heißen BreiGenug Provokation, was ich mit dir mach wenn ich dich seh', wird keine PromoaktionDas echte Leben wart ihr so nicht gewohntEin Junge von der Straße schafft es hoch auf den ThronSie machen alles, um endlich den Erfolg zu seh'nDenkst du, es ist besser wenn du mit dem Teufel gehst?Warte lieber auf den Bus -Ich geh' den Weg eines Kriegers bis zum Schluss[Hook: Bushido]Was sie reden ist nicht relevantKeiner braucht mir recht zu gebenWeg des KriegersDas hier ist das echte LebenIch komm von ganz untenUnd bin jetzt ganz obenIch komponier' ein Lied mit den BanknotenWas sie reden ist nicht relevantKeiner braucht mir recht zu gebenWeg des KriegersDas hier ist das echte LebenIch komm von ganz untenUnd bin jetzt ganz obenIch komponier ein Lied mit den Banknoten
-[Part 2: Sido]Mit den ganz großen Gelb und LilaWir zerstör'n die heile Welt schon wiederDas, was uns stark macht ist eure AngstEs wird heiß werden, wenn du mit dem Teufel tanztDu kannst ja mal versuchen es zu ignorier'nDoch da kannst du noch so viel probier'nDu wirst dieses Spiel verlier'n!Denn wir sind überall im Stadion und im KuhkaffIm Fernseh'n auf der LeinwandIm Radio und im Buchfach-Handel, geb' mir diese Welt und ich bums sieRapper verdien'n ein bisschen Geld seitdem es uns gibtDoch keiner von den'n kommt hier ranWenn es mal einer von zehn probiertDann macht er sich nur peinlichIch mein', ich mach was ich tu aus'm Herz rausIhr macht was ihr tut, weil ihr mehr brauchtDeshalb sieht dein konto schon wieder so leer ausIch hoff' du lernst draus ernsthaftUnd noch ein guter Rat mein Freund: Sei frei!Und mach es wie wir beide schrei: 2 3!Du weißt schon, diese beiden Typen aus dem KinoDie vom Sägeblatt: Sido und Bushido!Heb die Hände hoch!
-[Hook: Sido]Was sie reden ist nicht relevantKeiner braucht mir recht zu gebenMasken runter!Das hier ist das echte LebenIch komm' von ganz untenUnd bin jetzt ganz obenIch komponier' ein Lied mit den BanknotenWas sie reden ist nicht relevantKeiner braucht mir recht zu gebenMasken runter!Das hier ist das echte LebenIch komm' von ganz untenUnd bin jetzt ganz obenIch komponier' ein Lied mit den Banknoten</t>
+          <t>[Part 1: Bushido]
+Halt' mir die Waffe ins Gesicht
+Ich hab' keine Angst, ich
+Komm' vorbei mit Sido - 23
+Neue Welt, wir halten zusamm'n
+Wenn wir woll'n bring'n wir noch ein Album zusamm'n
+Mit dem Kopf durch die Wand, umdreh'n ist out
+Bevor ich so lebe wie ein Hund, geh' ich drauf
+Ich wusste schon als Kind: Es wird nicht besonders leicht
+Wir hatten kein'n Computer oder Mikrofon im Heim
+Deine Probleme musst du regeln im Alleingang
+Wir Zwei brachten unser Leben auf die Leinwand
+Setz dich hin, schnall dich an, sei dabei
+Nein - ich red' nicht weiter um den heißen Brei
+Genug Provokation, was ich mit dir mach wenn ich dich seh', wird keine Promoaktion
+Das echte Leben wart ihr so nicht gewohnt
+Ein Junge von der Straße schafft es hoch auf den Thron
+Sie machen alles, um endlich den Erfolg zu seh'n
+Denkst du, es ist besser wenn du mit dem Teufel gehst?
+Warte lieber auf den Bus -
+Ich geh' den Weg eines Kriegers bis zum Schluss
+[Hook: Bushido]
+Was sie reden ist nicht relevant
+Keiner braucht mir recht zu geben
+Weg des Kriegers
+Das hier ist das echte Leben
+Ich komm von ganz unten
+Und bin jetzt ganz oben
+Ich komponier' ein Lied mit den Banknoten
+Was sie reden ist nicht relevant
+Keiner braucht mir recht zu geben
+Weg des Kriegers
+Das hier ist das echte Leben
+Ich komm von ganz untenUnd bin jetzt ganz oben
+Ich komponier ein Lied mit den Banknoten
+[Part 2: Sido]
+Mit den ganz großen Gelb und Lila
+Wir zerstör'n die heile Welt schon wieder
+Das, was uns stark macht ist eure Angst
+Es wird heiß werden, wenn du mit dem Teufel tanzt
+Du kannst ja mal versuchen es zu ignorier'n
+Doch da kannst du noch so viel probier'n
+Du wirst dieses Spiel verlier'n!
+Denn wir sind überall im Stadion und imKuhkaff
+Im Fernseh'n auf der Leinwand
+Im Radio und im Buchfach-
+Handel, geb' mir diese Welt und ich bums sie
+Rapper verdien'n ein bisschen Geld seitdem es uns gibt
+Doch keiner von den'n kommt hier ran
+Wenn es mal einer von zehn probiert
+Dann macht er sich nur peinlich
+Ich mein', ich mach was ich tu aus'm Herz raus
+Ihr macht was ihr tut, weil ihr mehr braucht
+Deshalb sieht dein konto schon wieder so leer aus
+Ich hoff' du lernst draus ernsthaft
+Und noch ein guter Rat mein Freund: Sei frei!
+Und mach es wie wir beide schrei: 2 3!
+Du weißt schon, diese beiden Typen aus dem Kino
+Die vom Sägeblatt: Sido und Bushido!
+Heb die Hände hoch!
+[Hook: Sido]
+Was sie reden ist nicht relevant
+Keiner braucht mir recht zu geben
+Masken runter!
+Das hier ist das echte Leben
+Ich komm' von ganz unten
+Und bin jetzt ganz oben
+Ich komponier' ein Lied mit den Banknoten
+Was sie reden ist nicht relevant
+Keiner braucht mir recht zu geben
+Masken runter!
+Das hier ist das echte Leben
+Ich komm' von ganz unten
+Und bin jetzt ganz oben
+Ich komponier' ein Lied mit den Banknoten</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -742,9 +1112,85 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Part 1]Ihr habt mich gemacht, ich bin so wie ihrJeder Richter, jeder Kommissar der mich kontrolliertJeder im Senat, die ganze KonkurrenzIch bin das Produkt von allem, das du denkstSchau doch in die Bild, schau auf RTLKaum bin ich berühmt möchte jeder SchmerzensgeldDie Autorität, eure PolitikUnd mit einem Trick hat der Euro uns geficktDie Provokation, sieh mal der ReporterAuftrittsverbot in irgendeiner OrtschaftGuck die ganzen Punks, sieh doch mal die NazisDie Bürokratie wo du nur noch ein Vertrag bistDie Linke und die Rechte, alle sind dabeiUnd ihr wählt aus Protest die PiratenparteiDie neue Weltordnung, das Unternehmen WeltmachtGuck, ich bin doch nur das Spiegelbild der Gesellschaft[Hook]Mach die Augen auf, schau mir ins GesichtFrag dich warum sind die Typen dauernd unter sich?Ich bin ein Produkt, die Welt hat mich gemachtDenn mich zu kontrollier'n haben Eltern nicht geschafftSieh den ganzen Hass, der die Menschen überkommtDenn sie haben das Gefühl, sie Kämpfen hier umsonstIch war nicht immer so, denkst du mir gefällt das?Guck ich bin doch nur das Spiegelbild der Gesellschaft
-[Part 2]Die Plattenindustrie vom Internet verdrängtWas ist mit Musik, jeder will sie nur geschenktGuck der Polizist, guck mal da der LehrerWollten doch nur helfen, aber haben's immer schwererIm Ghetto ist es kalt, alltägliche GewaltDie meisten dieser Kindern fehlt eben dieser HaltWas will nur die Bunte, was will explosiv?Das hier ist Berlin, meine Stadt ist explosivJeder hat ne MeinungSag dir, wer du bistAraber in Medien bedeutet SalafistGuck die ganzen Hater prasseln auf dich einDie Trittbrettfahrer, sie lassen dich alleinDie Pseudoliberal'n machen auf korrektSie woll'n nicht, dass du mitkriegst, was dahinter stecktDas Finanzamt will wissen, wie ich hier mein Geld mach'Guck ich bin doch nur das Spiegelbild der Gesellschaft[Hook]Mach die Augen auf, schau mir ins GesichtFrag dich warum sind die Typen dauernd unter sich?Ich bin ein Produkt, die Welt hat mich gemachtDenn mich zu kontrollier'n haben Eltern nicht geschafftSieh den ganzen Hass, der die Menschen überkommtDenn sie haben das Gefühl, sie Kämpfen hier umsonstIch war nicht immer so, denkst du mir gefällt das?Guck ich bin doch nur das Spiegelbild der Gesellschaft
-[Part 3]Siehst du, wie gegen mich so viele protestier'nOrganisation'n, die Bushido kritisier'nClubs und Vereine, dutzende BereicheWo sie mich blacklisten, meine Mucke bleibt die gleicheDie Staatsanwälte zieh'n vor GerichtTrotz ihrer Angebote verbiege ich mich nichtKein Geld für Bildung, zu viel IgnoranzSag mir liebe Angela, tust du was du kannst?So viele, die was woll'n, ich bin nicht Santa ClausMeine Mutter Deutsche, sieht so ein Fremder aus?Sieht so ein Gangster aus, was habt ihr denn erwartet?Würd' ich es nicht tun wär' ich trotzdem Feind des StatesJeder kommt jetzt an und möchte meinen FameFrüher habt ihr so getan, als könnt ihr mich nicht seh'nIch hoffe du hast gemerkt, das habt ihr aus mir gemachtGuck, ich bin doch nur das Spiegelbild der Gesellschaft[Hook]Mach die Augen auf, schau mir ins GesichtFrag dich warum sind die Typen dauernd unter sich?Ich bin ein Produkt, die Welt hat mich gemachtDenn mich zu kontrollier'n haben Eltern nicht geschafftSieh den ganzen Hass, der die Menschen überkommtDenn sie haben das Gefühl, sie Kämpfen hier umsonstIch war nicht immer so, denkst du mir gefällt das?Guck ich bin doch nur das Spiegelbild der Gesellschaft</t>
+          <t>[Part 1]
+Ihr habt mich gemacht, ich bin so wie ihr
+Jeder Richter, jeder Kommissar der mich kontrolliert
+Jeder im Senat, die ganze Konkurrenz
+Ich bin das Produkt von allem, das du denkst
+Schau doch in die Bild, schau auf RTL
+Kaum bin ich berühmt möchte jeder Schmerzensgeld
+Die Autorität, eure Politik
+Und mit einem Trick hat der Euro uns gefickt
+Die Provokation, sieh mal der Reporter
+Auftrittsverbot in irgendeiner Ortschaft
+Guck die ganzen Punks, sieh doch mal die Nazis
+Die Bürokratie wo du nur noch ein Vertrag bist
+Die Linke und die Rechte, alle sind dabei
+Und ihr wählt aus Protest die Piratenpartei
+Die neue Weltordnung, das Unternehmen Weltmacht
+Guck, ich bin doch nur das Spiegelbild der Gesellschaft
+[Hook]
+Mach die Augen auf, schau mir ins Gesicht
+Frag dich warum sind die Typen dauernd unter sich?
+Ich bin ein Produkt, die Welt hat mich gemacht
+Denn mich zu kontrollier'n haben Eltern nicht geschafft
+Sieh den ganzen Hass, der die Menschen überkommt
+Denn sie haben das Gefühl, sie Kämpfen hier umsonst
+Ich war nicht immer so, denkst du mir gefällt das?
+Guck ich bin doch nur das Spiegelbild der Gesellschaft
+[Part 2]
+Die Plattenindustrie vom Internet verdrängt
+Was ist mit Musik, jeder will sie nur geschenkt
+Guck der Polizist, guck mal da der Lehrer
+Wollten doch nur helfen, aber haben's immer schwerer
+Im Ghetto ist es kalt, alltägliche Gewalt
+Die meisten dieser Kindern fehlt eben dieser Halt
+Was will nur die Bunte, was will explosiv?
+Das hier ist Berlin, meine Stadt ist explosiv
+Jeder hat ne Meinung
+Sag dir, wer du bist
+Araber in Medien bedeutet Salafist
+Guck die ganzen Hater prasseln auf dich ein
+Die Trittbrettfahrer, sie lassen dich allein
+Die Pseudoliberal'n machen auf korrekt
+Sie woll'n nicht, dass du mitkriegst, was dahinter steckt
+Das Finanzamt will wissen, wie ich hier mein Geld mach'
+Guck ich bin doch nur das Spiegelbild der Gesellschaft
+[Hook]
+Mach die Augen auf, schau mir ins Gesicht
+Frag dich warum sind die Typen dauernd unter sich?
+Ich bin ein Produkt, die Welt hat mich gemacht
+Denn mich zu kontrollier'n haben Eltern nicht geschafft
+Sieh den ganzen Hass, der die Menschen überkommt
+Denn sie haben das Gefühl, sie Kämpfen hier umsonst
+Ich war nicht immer so, denkst du mir gefällt das?
+Guck ich bin doch nur das Spiegelbild der Gesellschaft
+[Part 3]
+Siehst du, wie gegen mich so viele protestier'n
+Organisation'n, die Bushido kritisier'n
+Clubs und Vereine, dutzende Bereiche
+Wo sie mich blacklisten, meine Mucke bleibt die gleiche
+Die Staatsanwälte zieh'n vor Gericht
+Trotz ihrer Angebote verbiege ich mich nicht
+Kein Geld für Bildung, zu viel Ignoranz
+Sag mir liebe Angela, tust du was du kannst?
+So viele, die was woll'n, ich bin nicht Santa Claus
+Meine Mutter Deutsche, sieht so ein Fremder aus?
+Sieht so ein Gangster aus, was habt ihr denn erwartet?
+Würd' ich es nicht tun wär' ich trotzdem Feind des States
+Jeder kommt jetzt an und möchte meinen Fame
+Früher habt ihr so getan, als könnt ihr mich nicht seh'n
+Ich hoffe du hast gemerkt, das habt ihr aus mir gemacht
+Guck, ich bin doch nur das Spiegelbild der Gesellschaft
+[Hook]
+Mach die Augen auf, schau mir ins Gesicht
+Frag dich warum sind die Typen dauernd unter sich?
+Ich bin ein Produkt, die Welt hat mich gemacht
+Denn mich zu kontrollier'n haben Eltern nicht geschafft
+Sieh den ganzen Hass, der die Menschen überkommt
+Denn sie haben das Gefühl, sie Kämpfen hier umsonst
+Ich war nicht immer so, denkst du mir gefällt das?
+Guck ich bin doch nur das Spiegelbild der Gesellschaft</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -798,9 +1244,55 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[Part 1]Ich bin das Original, ich hab damit angefang'nHeute wollen alle diese Wichser auf die HantelbankJeder macht jetzt ein auf KantenschnittIch setze ein Trend und das ganze Land geht mitJeder macht jetzt ein auf Lederjacke, Kragen hochAber ich war der allererste Star im HofJeder will auch vom Dealer zum ReichtumDas ist meine Story, ihr könnt's mir niemals gleich tunErster mit 'ner Alphajacke, erster mit 'ner Cordon SportErster mit dem Araber-Familie-SupportDu Kopie, (ich) trag Carlo ColucciAber gegen mich bleibst du harmlos, du PussyDu weißt genau, dein Idol ist mein FanFacebook ist out, folg mir auf InstagramJeder macht ein auf SolariumgängerIhr Anfänger, ich kenn nicht mal euren Namen, ihr[Hook]Ich guck aus dem Autofenster, kleine BushidosGeh ins Internet, da sind kleine BushidosMach den Fernseher an, kleine BushidosIch kam aus dem Ghetto auf die Leinwand ins KinoGeh ich auf die Straße, kleine BushidosDie ganze Rapszene sind kleine BushidosÜberall, wo ich bin, kleine BushidosDoch keiner von euch vertickte Weißes in Kilos
-[Part 2]Ich bin der Prototyp, hab's euch allen vorgemachtHeute willst du frech werden, gib auf deine Worte AchtDas ist mein echtes Leben, ihr wollt nur entertainenAlle, die wie Gangster reden, müssen mir Prozente gebenIch sag euch eins, so sieht es ausSie haben mir den Look und das Logo geklautIhr Nachmacher übertreibt, labert keinen ScheißJetzt hat jeder ein Möchtegern-Arafat dabeiWarum nimmst du nicht dein eigenes LebenAnstatt von meinem zu reden als wär'n es deine ProblemeJeder will mein Erfolg erreichen, jeder will Gold erreichenDoch in Wahrheit könnt ihr nicht mal Holz erreichenIch bin ein Vorbild, man macht meine Tattoos nachWas für ein Rap-Zirkus, jeder macht auf GhettostarAber ich hab das Patent auf den Scheiß(Willhelmschrei)Davon abgesehen, dass euer Talent nicht mal reicht[Hook]Ich guck aus dem Autofenster, kleine BushidosGeh ins Internet, da sind kleine BushidosMach den Fernseher an, kleine BushidosIch kam aus dem Ghetto auf die Leinwand ins KinoGeh ich auf die Straße, kleine BushidosDie ganze Rapszene sind kleine BushidosÜberall, wo ich bin, kleine BushidosDoch keiner von euch vertickte Weißes in Kilos
-[Part 3]Sagt mir ehrlich, deutschen Rap hab ich hart gemachtIch mein, Tag und Nacht habt ihr mich nur nachgemachtDu willst wie ich eine Breitling tragenDu bitest mich, jetzt muss ich dich Feigling schlagenIhr wollt es alle meinem Werdegang gleichtunDoch wisst ihr was, ihr werdet einen Scheiß tunSeht es ein, ihr werdet nie so lebenEs wird niemals einen anderen Bushido geben[Hook]Ich guck aus dem Autofenster, kleine BushidosGeh ins Internet, da sind kleine BushidosMach den Fernseher an, kleine BushidosIch kam aus dem Ghetto auf die Leinwand ins KinoGeh ich auf die Straße, kleine BushidosDie ganze Rapszene sind kleine BushidosÜberall, wo ich bin, kleine BushidosDoch keiner von euch vertickte Weißes in Kilos</t>
+          <t>[Part 1]
+Ich bin das Original, ich hab damit angefang'n
+Heute wollen alle diese Wichser auf die Hantelbank
+Jeder macht jetzt ein auf KantenschnittIch setze ein Trend und das ganze Land geht mit
+Jeder macht jetzt ein auf Lederjacke, Kragen hoch
+Aber ich war der allererste Star im Hof
+Jeder will auch vom Dealer zum Reichtum
+Das ist meine Story, ihr könnt's mir niemals gleich tun
+Erster mit 'ner Alphajacke,erster mit 'ner Cordon Sport
+Erster mit dem Araber-Familie-Support
+Du Kopie, (ich) trag Carlo Colucci
+Aber gegen mich bleibst du harmlos, du Pussy
+Du weißt genau, dein Idol ist mein Fan
+Facebook ist out,folg mir auf Instagram
+Jeder macht ein auf Solariumgänger
+Ihr Anfänger, ich kenn nicht mal euren Namen, ihr
+[Hook]
+Ich guck aus dem Autofenster,kleine Bushidos
+Geh ins Internet, da sind kleine BushidosMach den Fernseher an, kleine BushidosIch kam aus dem Ghetto auf die Leinwand ins KinoGeh ich auf die Straße, kleine BushidosDie ganze Rapszene sind kleine BushidosÜberall, wo ich bin, kleine BushidosDoch keiner von euch vertickte Weißes in Kilos
+[Part 2]
+Ich bin der Prototyp, hab's euch allen vorgemacht
+Heute willst du frech werden, gib auf deine Worte Acht
+Das ist mein echtes Leben, ihr wollt nur entertainen
+Alle, die wie Gangster reden, müssen mir Prozente geben
+Ich sag euch eins, so sieht es aus
+Sie haben mir den Look und das Logo geklaut
+Ihr Nachmacher übertreibt, labert keinen Scheiß
+Jetzt hat jeder ein Möchtegern-Arafat dabei
+Warum nimmst du nicht dein eigenes Leben
+Anstatt von meinem zu reden als wär'n es deine Probleme
+Jeder will mein Erfolg erreichen, jeder will Gold erreichenDoch in Wahrheit könnt ihr nicht mal Holz erreichen
+Ich bin ein Vorbild, man macht meine Tattoos nach
+Was für ein Rap-Zirkus, jeder macht auf Ghettostar
+Aber ich hab das Patent auf den Scheiß(Willhelmschrei)
+Davon abgesehen, dass euer Talent nicht mal reicht
+[Hook]
+Ich guck aus dem Autofenster, kleine Bushidos
+Geh ins Internet, da sind kleine BushidosMach den Fernseher an, kleine BushidosIch kam aus dem Ghetto auf die Leinwand ins KinoGeh ich auf die Straße, kleine BushidosDie ganze Rapszene sind kleine BushidosÜberall, wo ich bin, kleine BushidosDoch keiner von euch vertickte Weißes in Kilos
+[Part 3]
+Sagt mir ehrlich, deutschen Rap hab ich hart gemachtIch mein, Tag und Nacht habt ihr mich nur nachgemacht
+Du willst wie ich eine Breitling tragen
+Du bitest mich, jetzt muss ich dich Feigling schlagen
+Ihr wollt es alle meinem Werdegang gleichtun
+Doch wisst ihr was, ihr werdet einen Scheiß tun
+Seht es ein, ihr werdet nie so leben
+Es wird niemals einen anderen Bushido geben
+[Hook]
+Ich guck aus dem Autofenster, kleine Bushidos
+Geh ins Internet, da sind kleine BushidosMach den Fernseher an, kleine BushidosIch kam aus dem Ghetto auf die Leinwand ins KinoGeh ich auf die Straße, kleine BushidosDie ganze Rapszene sind kleine BushidosÜberall, wo ich bin, kleine BushidosDoch keiner von euch vertickte Weißes in Kilos</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -854,9 +1346,58 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Part 1: MoTrip]Frag nach mir, wenn du in Aachen bist, man kennt michSkrupellose Jugend, wir begraben dich lebendigDie Straße ist am brenn', ich bin immer noch der MeinungDass ihr Spinner nix erreicht, wenn ihr die Wahrheit nicht erkenntIch bin nicht Bruce Lee, doch rate dir, bedenkeWenn ich will, kann ich dich einfach schlagen ohne HändeKarate Tiger Champion, wenn ich da bin, geh'n sie badenWie 'ne Ente, ich bin Aachens King und warte nicht aufs BattleIch bin da, wenn es hier Stress gibt, deine freche ArtKannst du dir spar'n wie Komplimente, besser spar für deine RenteDenn bedenke, hast du all dein Bares verschwendetGeht es schnell und dreimal darfst du raten, wie das endetTrip, ich brate dich, danach mach ich ein Sandwich auf, setz dich draufMajo und Tomaten, ich muss sagen, das sieht köstlich ausAuch wenn ich kein Kannibale bin, ich fress dich aufSetz mich auf Toilette vor dem Badengeh'n und press dich rausDas war gut, ich hab seit Tagen nix gegessenIch bin unterwegs und regel auf den Straßen die GeschäfteDu bist da, um mich zu bremsen, doch wirst einfach überfahrenWie 'ne Grenze, MoTrip, Aachener Legende[Hook: Bushido]Das hier, das hier, das hier wird kein Spaß für euch KinderBevor ich kapitulier, begrab mich für immerDas hier, das hier, das hier wird kein Spaß für euch KinderBevor ich kapitulier, begrab mich für immerSnare Drum, ich rap, Snare Drum, ich rapDas hier, das hier, das hier wird kein Spaß für euch KinderSnare Drum, ich rap, Snare Drum, ich rapDas hier, das hier, das hier wird kein Spaß für euch Kinder
-[Part 2: Bushido]Wir hatten nichts, hier hatte früher keiner GlückManchmal musst du Mut beweisen für den ersten SchrittB-B-B-Bushido, Überfall mit TripWas mein Auto angeht, ich hab mein Führerschein zurückIch steig in den Benz ein und fahr, deine FreundeSteh'n den ganzen Tag am Block und machen Gangzeichen nachDie Endzeit ist da, wenn ich wollte, könnte ichDie Menschheit bewahr'n, doch ich kenn kein Erbarm'nJahrelang getrennt, jeder sorgt für sich selbstAn manchen Tagen brennt hier der Bordstein noch hellBedingungen extrem, jeder findet seinen WegIch fand die Musik und kam durch Worte zu GeldIrgendetwas machte mich für Labels interessantBraungebrannt, Sonnenbank-Flavour für das LandSagt mir, wer hatte so viel Paper in der HandRapper heutzutage sind nur Skater auf 'ner BankKing Bushido, was gibt es Besseres, yeahDu willst hoch hinaus, mach dich nicht lächerlich, yeahWir sind Araber, keiner ist so gut wie das DreamteamAnis Mohamed Youssef Ferchichi[Hook: Bushido]Das hier, das hier, das hier wird kein Spaß für euch KinderBevor ich kapitulier, begrab mich für immerDas hier, das hier, das hier wird kein Spaß für euch KinderBevor ich kapitulier, begrab mich für immerSnare Drum, ich rap, Snare Drum, ich rapDas hier, das hier, das hier wird kein Spaß für euch KinderSnare Drum, ich rap, Snare Drum, ich rapDas hier, das hier, das hier wird kein Spaß für euch Kinder
-[Part 3: Bushido &amp; (MoTrip)](Das Dreamteam, was wir machen, läuft in der Disko)Wir sind europaweit die Kings, (ist soReden fällt dir leicht, denken aber nichtDoch wenn du's nicht verstehst, halt die Fresse, wenn du mit mir sprichstDas, was du da machst, ist keine Kunst, das ist Plastik)Geh und wirf 'nen Blick auf deine Jungs, (LachkickReden fällt dir leicht, denken aber nichtDoch wenn du's nicht verstehst, halt die Fresse, wenn du mit mir sprichst)[Hook: Bushido]Das hier, das hier, das hier wird kein Spaß für euch KinderBevor ich kapitulier, begrab mich für immerDas hier, das hier, das hier wird kein Spaß für euch KinderBevor ich kapitulier, begrab mich für immerSnare Drum, ich rap, Snare Drum, ich rapDas hier, das hier, das hier wird kein Spaß für euch KinderSnare Drum, ich rap, Snare Drum, ich rapDas hier, das hier, das hier wird kein Spaß für euch Kinder</t>
+          <t>[Part 1: MoTrip]
+Frag nach mir, wenn du in Aachen bist, man kennt mich
+Skrupellose Jugend, wir begraben dich lebendig
+Die Straße ist am brenn', ich bin immer noch der Meinung
+Dass ihr Spinner nix erreicht, wenn ihr die Wahrheit nicht erkennt
+Ich bin nicht Bruce Lee, doch rate dir, bedenkeWenn ich will, kann ich dich einfach schlagen ohne Hände
+Karate Tiger Champion, wenn ich da bin, geh'n sie baden
+Wie 'ne Ente, ich bin Aachens King und warte nicht aufs Battle
+Ich bin da, wenn es hier Stress gibt, deine freche Art
+Kannst du dir spar'n wie Komplimente, besser spar für deine Rente
+Denn bedenke, hast du all dein Bares verschwendet
+Geht es schnell und dreimal darfst du raten, wie das endet
+Trip, ich brate dich, danach mach ich ein Sandwich auf, setz dich drauf
+Majo und Tomaten, ich muss sagen, das sieht köstlich aus
+Auch wenn ich kein Kannibale bin, ich fress dich auf
+Setz mich auf Toilette vor dem Badengeh'n und press dich raus
+Das war gut, ich hab seit Tagen nix gegessen
+Ich bin unterwegs und regel auf den Straßen die Geschäfte
+Du bist da, um mich zu bremsen, doch wirst einfach überfahren
+Wie 'ne Grenze, MoTrip, Aachener Legende
+[Hook: Bushido]Das hier, das hier, das hier wird kein Spaß für euch KinderBevor ich kapitulier, begrab mich für immerDas hier, das hier, das hier wird kein Spaß für euch KinderBevor ich kapitulier, begrab mich für immerSnare Drum, ich rap, Snare Drum, ich rapDas hier, das hier, das hier wird kein Spaß für euch KinderSnare Drum, ich rap, Snare Drum, ich rapDas hier, das hier, das hier wird kein Spaß für euch Kinder
+[Part 2: Bushido]
+Wir hatten nichts, hier hatte früher keiner Glück
+Manchmal musst du Mut beweisen für den ersten Schritt
+B-B-B-Bushido, Überfall mit Trip
+Was mein Auto angeht, ich hab mein Führerschein zurück
+Ich steig in den Benz ein und fahr, deine Freunde
+Steh'n den ganzen Tag am Block und machen Gangzeichen nach
+Die Endzeit ist da, wenn ich wollte, könnte ich
+Die Menschheit bewahr'n, doch ich kenn kein Erbarm'n
+Jahrelang getrennt, jeder sorgt für sich selbst
+An manchen Tagen brennt hier der Bordstein noch hell
+Bedingungen extrem, jeder findet seinen Weg
+Ich fand die Musik und kam durch Worte zu Geld
+Irgendetwas machte mich für Labels interessantBraungebrannt, Sonnenbank-Flavour für das Land
+Sagt mir, wer hatte so viel Paper in der Hand
+Rapper heutzutage sind nur Skater auf 'ner Bank
+King Bushido, was gibt es Besseres, yeah
+Du willst hoch hinaus, mach dich nicht lächerlich, yeah
+Wir sind Araber, keiner ist so gut wie das Dreamteam
+Anis Mohamed Youssef Ferchichi
+[Hook: Bushido]Das hier, das hier, das hier wird kein Spaß für euch KinderBevor ich kapitulier, begrab mich für immerDas hier, das hier, das hier wird kein Spaß für euch KinderBevor ich kapitulier, begrab mich für immerSnare Drum, ich rap, Snare Drum, ich rapDas hier, das hier, das hier wird kein Spaß für euch KinderSnare Drum, ich rap, Snare Drum, ich rapDas hier, das hier, das hier wird kein Spaß für euch Kinder
+[Part 3: Bushido &amp; (MoTrip)]
+(Das Dreamteam, was wir machen, läuft in der Disko)
+Wir sind europaweit die Kings, (ist so
+Reden fällt dir leicht, denken aber nicht
+Doch wenn du's nicht verstehst, halt die Fresse, wenn du mit mir sprichst
+Das, was du da machst, ist keine Kunst, das ist Plastik)
+Geh und wirf 'nen Blick auf deine Jungs, (Lachkick
+Reden fällt dir leicht, denken aber nicht
+Doch wenn du's nicht verstehst, halt die Fresse, wenn du mit mir sprichst)
+[Hook: Bushido]Das hier, das hier, das hier wird kein Spaß für euch KinderBevor ich kapitulier, begrab mich für immerDas hier, das hier, das hier wird kein Spaß für euch KinderBevor ich kapitulier, begrab mich für immerSnare Drum, ich rap, Snare Drum, ich rapDas hier, das hier, das hier wird kein Spaß für euch KinderSnare Drum, ich rap, Snare Drum, ich rapDas hier, das hier, das hier wird kein Spaß für euch Kinder</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -910,9 +1451,66 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Hook]Deutschland, sieh deine Familie im BrennpunktAm Rande des Abgrunds, sie dreh'n jeden Cent umVerdachtsfälle, ihre Zukunft wird schwerGlaub mir da hilft auch keine Supernanny mehr, yeahDie Gesellschaft kann sich kaum mehr geduldenSie suchen nur den schnellen Weg - Raus aus den SchuldenWas sie verlieren sind nur bittere TränenEs ist wie es ist, wir sind Mitten im Leben[Part 1]Es ist soweit, der Erste des Monats ist vorbeiFamilien warten auf das Arbeitslosengeld IIEs ist der Vater der im Internet surftEr hat das weinen seiner Kinder nicht gehörtEs ist Übergewicht. Sie ernähren sich nicht angemessenWeil sie den ganzen Tag nichts außer Junkfood essenEs ist der Opa der seit Jahren schon ein Messi istSeine Frau will aufräumen, doch er lässt sie nichtEs ist der Sohn, der leider keine Freundin hatDer nur 5'er und nie 1'er auf dem Zeugnis hatEs ist die Tochter, die wieder mal ne Nase ziehtTagelang feiern mit dem Freund ist ihr FachgebietEs ist der Freund, der die Drogen mit bringtNur damit sie in der Clique cool und hip sindUnd die Eltern tuen nichts außer redenEs ist wie es ist, wir sind Mitten im Leben
-[Hook]Deutschland, sieh deine Familie im BrennpunktAm Rande des Abgrunds, sie dreh'n jeden Cent umVerdachtsfälle, ihre Zukunft wird schwerGlaub mir da hilft auch keine Supernanny mehr, yeahDie Gesellschaft kann sich kaum mehr geduldenSie suchen nur den schnellen Weg - Raus aus den SchuldenWas sie verlieren sind nur bittere TränenEs ist wie es ist, wir sind Mitten im Leben[Part 2]Es ist der Fernseher der 24 Stunden läuftWeil das RTL Konzept sie im Ganzen überzeugtEs ist die Oma, die dahin vegetiertWas aber nicht mal ihr Kind interessiertEs ist das Jobcenter, dass sie nicht besuchenAlkohol am Míttag - das ist unsere JugendEs ist die Wohnung, die schon am verschimmeln istGuck wie es innerlich die Herzen dieser Kinder brichtEs ist das Jugendamt, dass wieder mal nicht handeltWie viele Kids werden in Familien misshandeltEs ist der Block, der keinen Ausweg lässtLehrer sind hilflos und verzichten auf den StressEs ist- schwer hier. Von der Gesellschaft vergessenUnd sie haben echt das Geld nie besessenDie meisten Leute hier sind sicher dagegenEs ist wie es ist, wir sind Mitten im LebenDeutschland, sieh deine Familie im BrennpunktAm Rande des Abgrunds, sie drehn jeden Cent umVerdachtsfälle, ihre Zukunft wird schwerGlaub mir da hilft auch keine Supernanny mehr.yeahDie Gesellschaft kann sich kaum noch geduldenSie suchen nur den schnellen Weg-Raus aus den SchuldenWas sie verlieren sind nur bittere TränenEs ist wie es ist, wie sind Mitten im Leben
-Stimmen im Hintergrund, Zitate aus Fernsehserien[Hook]Deutschland, sieh deine Familie im BrennpunktAm Rande des Abgrunds, sie dreh'n jeden Cent umVerdachtsfälle, ihre Zukunft wird schwerGlaub mir da hilft auch keine Supernanny mehr, yeahDie Gesellschaft kann sich kaum mehr geduldenSie suchen nur den schnellen Weg - Raus aus den SchuldenWas sie verlieren sind nur bittere TränenEs ist wie es ist, wir sind Mitten im Leben</t>
+          <t>[Hook]
+Deutschland, sieh deine Familie im Brennpunkt
+Am Rande des Abgrunds, sie dreh'n jeden Cent um
+Verdachtsfälle, ihre Zukunft wird schwer
+Glaub mir da hilft auch keine Supernanny mehr, yeah
+Die Gesellschaft kann sich kaum mehr geduldenSie suchen nur den schnellen Weg - Raus aus den Schulden
+Was sie verlieren sind nur bittere Tränen
+Es ist wie es ist, wir sindMitten im Leben
+[Part 1]
+Es ist soweit, der Erste des Monats ist vorbeiFamilien warten auf das Arbeitslosengeld II
+Es ist der Vater der im Internet surftEr hat das weinen seiner Kinder nicht gehört
+Es ist Übergewicht. Sie ernähren sich nicht angemessenWeil sie den ganzen Tag nichts außer Junkfood essen
+Es ist der Opa der seit Jahren schon ein Messi istSeine Frau will aufräumen, doch er lässt sie nicht
+Es ist der Sohn, der leider keine Freundin hat
+Der nur 5'er und nie 1'er auf dem Zeugnis hat
+Es ist die Tochter, die wieder malne Nase zieht
+Tagelang feiern mit dem Freund ist ihr Fachgebiet
+Es ist der Freund, der die Drogen mit bringtNur damit sie in der Clique cool und hip sind
+Und die Eltern tuen nichts außer reden
+Es ist wie es ist, wir sind Mitten im Leben
+[Hook]
+Deutschland, sieh deine Familie im Brennpunkt
+Am Rande des Abgrunds, sie dreh'n jeden Cent um
+Verdachtsfälle, ihre Zukunft wird schwer
+Glaub mir da hilft auch keine Supernanny mehr, yeah
+Die Gesellschaft kann sich kaum mehr geduldenSie suchen nur den schnellen Weg - Raus aus den Schulden
+Was sie verlieren sind nur bittere Tränen
+Es ist wie es ist, wir sind Mitten im Leben
+[Part 2]
+Es ist der Fernseher der 24 Stunden läuftWeil das RTL Konzept sie im Ganzen überzeugt
+Es ist die Oma, die dahin vegetiert
+Was aber nicht mal ihr Kind interessiert
+Es ist das Jobcenter, dass sie nicht besuchen
+Alkohol am Míttag - das ist unsere Jugend
+Es ist die Wohnung, die schon am verschimmeln ist
+Guck wie es innerlich die Herzen dieser Kinder bricht
+Es ist das Jugendamt, dass wieder mal nicht handelt
+Wie viele Kids werden in Familien misshandelt
+Es ist der Block, der keinen Ausweg lässtLehrer sind hilflos und verzichten auf den Stress
+Es ist- schwer hier. Von der Gesellschaft vergessen
+Und sie haben echt das Geld nie besessen
+Die meisten Leute hier sind sicher dagegen
+Es ist wie es ist, wir sind Mitten im Leben
+Deutschland, sieh deine Familie im Brennpunkt
+Am Rande des Abgrunds, sie drehn jeden Cent um
+Verdachtsfälle, ihre Zukunft wird schwer
+Glaub mir da hilft auch keine Supernanny mehr.yeah
+Die Gesellschaft kann sich kaum noch gedulden
+Sie suchen nur den schnellen Weg-Raus aus den Schulden
+Was sie verlieren sind nur bittere Tränen
+Es ist wie es ist, wie sind Mitten im Leben
+Stimmen im Hintergrund, Zitate aus Fernsehserien
+[Hook]
+Deutschland, sieh deine Familie im Brennpunkt
+Am Rande des Abgrunds, sie dreh'n jeden Cent um
+Verdachtsfälle, ihre Zukunft wird schwer
+Glaub mir da hilft auch keine Supernanny mehr, yeah
+Die Gesellschaft kann sich kaum mehr geduldenSie suchen nur den schnellen Weg - Raus aus den Schulden
+Was sie verlieren sind nur bittere Tränen
+Es ist wie es ist, wir sind Mitten im Leben</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -966,9 +1564,90 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Part 1: Bushido &amp; Eko Fresh]Ich bin Untergrund, du bist nur ein VollidiotScheiß auf Hollywood, guck wie dieser Promi wohntSonny es ist so, wer sagt EK ist totIst lediglich stoned oder lebt auf dem MondJetzt geht es los, immer wenn die Sonne aufgehtWird was besonderes geschehen, wie ich bekomme den CometDer Don ist auf der Stage in Dickies und StarterIch rap und die Rechnung kriegt der PsychiaterRichtig, ja klar eure Mucke geht soFrüher Untergrund, heute über PietroEko und warum ichs jetzt deutlich sageDer Adler über mir, ich küsse meine deutsche FahneNur weil ich Euros habe, findest du mich sexySonny Black, Ek Freez, Tag Team, Bad StreamIhr könnt wegziehen, doch irgendwann wird ungesundUnd wenn’s nicht klappt bin ich eben wieder Untergrund[Hook]Das ist der deutsche TraumIch bin ein guter JungeDas nennt sich Schicksal, das nennt sich Berufung, JungeEs ist nicht nur die Mucke, das ganze DrumherumUnd wenn’s nicht klappt sind wir eben wieder UntergrundIch bin ein guter JungeDas ist der deutsche TraumDie Fans sagen ja, denn wir können euch vertrauenIch und aufhören? gebt mir doch einen guten GrundUnd wenn’s nicht klappt sind wir eben wieder Untergrund
-[Part 2: Bushido &amp; Eko Fresh]Es ist Kanacken-Rap, scheiß auf deinen MainstreamUntergrund, ersguterjunge, German DreamDas ist mein Lebensstil, Diamant im SektglasGuck mal, außer mir ist niemand hier ein Rap-StarJetzt ist Ek da, wieder mit seinem alten FreundIch weiß ganz genau, dass ihr von solchen Alben träumtLegt euch halt ins Zeug um mal kurz zu glänzenDoch ihr kommt nicht an, gegen UntergrundlegendenDumme Menschen gibt es hier wie Sand am MeerIhr seid für mich so gefährlich wie ein PandabärAls ob es standard wäre, sehr ihr wie die Orsons ausNoch ein Wort du Clown, und ich hol die Cordon rausJetzt ist der Ofen aus, ihr macht auf integriertDoch im Endeffekt wollt ihr alle kling wie wirEy jo, die Kings sind hier, wir bleiben unter unsUnd wenn’s nicht klappt sind wir eben wieder Untergrund[Hook]Das ist der deutsche TraumIch bin ein guter JungeDas nennt sich Schicksal, das nennt sich Berufung, JungeEs ist nicht nur die Mucke, das ganze DrumherumUnd wenn’s nicht klappt sind wir eben wieder UntergrundIch bin ein guter JungeDas ist der deutsche TraumDie Fans sagen ja, denn wir können euch vertrauenIch und aufhören? gebt mir doch einen guten GrundUnd wenn’s nicht klappt sind wir eben wieder Untergrund
-[Part 3: Bushido &amp; Eko Fresh]Du krasser Rapper weißt, das sind Ekrem und AnisDein kleiner Bruder sagt vor der Webcam, die kenn ichEure Texte verdräng ich, will ich nicht beachtenDu bist billig am verkacken und ich kill dich mit paar TacktenChill doch mal du AffeKommst hier an in 2Pac-Look, willst du im Gesicht wirklich meinen Fußabdruck?Wir sind kein Fußballclub, doch wir haben AnhängerIhr seid nur Anfänger, wir machen das ganze längerWir sind die alten Gangster, wie die ExpendablesKomm wir gehen einfach Gold Ek, wenn du willstIch habe längst erfüllt was ich mal erreichen wollteDer Grund warum sich keiner mit uns zwei vergleichen sollteAls mir noch keiner folgte, feierte ich TwitterSehe die Paparazzi und ich zeige euch den FickerEs bleibt so wie immer, ihr seid unter unsUnd wenn’s nicht klappt, bin ich eben wieder Untergrund[Hook]Das ist der deutsche TraumIch bin ein guter JungeDas nennt sich Schicksal, das nennt sich Berufung, JungeEs ist nicht nur die Mucke, das ganze DrumherumUnd wenn’s nicht klappt sind wir eben wieder UntergrundIch bin ein guter JungeDas ist der deutsche TraumDie Fans sagen ja, denn wir können euch vertrauenIch und aufhören? gebt mir doch einen guten GrundUnd wenn’s nicht klappt sind wir eben wieder Untergrund</t>
+          <t>[Part 1: Bushido &amp; Eko Fresh]
+Ich bin Untergrund, du bist nur ein Vollidiot
+Scheiß auf Hollywood, guck wie dieser Promi wohnt
+Sonny es ist so, wer sagt EK ist tot
+Ist lediglich stoned oder lebt auf dem Mond
+Jetzt geht es los, immer wenn die Sonne aufgeht
+Wird was besonderes geschehen,wie ich bekomme den Comet
+Der Don ist auf der Stage in Dickies und Starter
+Ich rap und die Rechnung kriegt der Psychiater
+Richtig, ja klar eure Mucke geht so
+Früher Untergrund, heute über Pietro
+Eko und warum ichs jetzt deutlich sage
+Der Adler über mir, ich küsse meine deutsche Fahne
+Nur weil ich Euros habe, findest du mich sexy
+Sonny Black, Ek Freez, Tag Team, Bad Stream
+Ihr könnt wegziehen, doch irgendwann wird ungesund
+Und wenn’s nicht klappt bin ich eben wieder Untergrund
+[Hook]
+Das ist der deutsche Traum
+Ich bin ein guter Junge
+Das nennt sich Schicksal, das nennt sich Berufung, Junge
+Es ist nicht nur die Mucke, das ganze Drumherum
+Und wenn’s nicht klappt sind wir eben wieder Untergrund
+Ich bin ein guter Junge
+Das ist der deutsche Traum
+Die Fans sagen ja, denn wir können euch vertrauen
+Ich und aufhören? gebt mir doch einen guten Grund
+Und wenn’s nicht klappt sind wir eben wieder Untergrund
+[Part 2: Bushido &amp; Eko Fresh]
+Es ist Kanacken-Rap, scheiß auf deinen Mainstream
+Untergrund, ersguterjunge, German Dream
+Das ist mein Lebensstil, Diamant im Sektglas
+Guck mal, außer mir ist niemand hier ein Rap-Star
+Jetzt ist Ek da, wieder mit seinem alten Freund
+Ich weiß ganz genau, dass ihr von solchen Alben träumt
+Legt euch halt ins Zeug um mal kurz zu glänzen
+Doch ihr kommt nicht an, gegen Untergrundlegenden
+Dumme Menschen gibt es hier wie Sand am Meer
+Ihr seid für mich so gefährlich wie ein Pandabär
+Als ob es standard wäre, sehr ihr wie die Orsons aus
+Noch ein Wort du Clown, und ich hol die Cordon raus
+Jetzt ist der Ofen aus, ihr macht auf integriert
+Doch im Endeffekt wollt ihr alle kling wie wir
+Ey jo, die Kings sind hier, wir bleiben unter uns
+Und wenn’s nicht klappt sind wir eben wieder Untergrund
+[Hook]
+Das ist der deutsche Traum
+Ich bin ein guter Junge
+Das nennt sich Schicksal, das nennt sich Berufung, Junge
+Es ist nicht nur die Mucke, das ganze Drumherum
+Und wenn’s nicht klappt sind wir eben wieder Untergrund
+Ich bin ein guter Junge
+Das ist der deutsche Traum
+Die Fans sagen ja, denn wir können euch vertrauen
+Ich und aufhören? gebt mir doch einen guten Grund
+Und wenn’s nicht klappt sind wir eben wieder Untergrund
+[Part 3: Bushido &amp; Eko Fresh]
+Du krasser Rapper weißt, das sind Ekrem und Anis
+Dein kleiner Bruder sagt vor der Webcam, die kenn ich
+Eure Texte verdräng ich, will ich nicht beachten
+Du bist billig am verkacken und ich kill dich mit paar Tackten
+Chill doch mal du Affe
+Kommst hier an in 2Pac-Look, willst du im Gesicht wirklich meinen Fußabdruck?
+Wir sind kein Fußballclub, doch wir haben Anhänger
+Ihr seid nur Anfänger, wir machen das ganze länger
+Wir sind die alten Gangster, wie die Expendables
+Komm wir gehen einfach Gold Ek, wenn du willst
+Ich habe längst erfüllt was ich mal erreichen wollte
+Der Grund warum sich keiner mit uns zwei vergleichen sollte
+Als mir noch keiner folgte, feierte ich Twitter
+Sehe die Paparazzi und ich zeige euch den Ficker
+Es bleibt so wie immer, ihr seid unter uns
+Und wenn’s nicht klappt, bin ich eben wieder Untergrund
+[Hook]
+Das ist der deutsche Traum
+Ich bin ein guter Junge
+Das nennt sich Schicksal, das nennt sich Berufung, Junge
+Es ist nicht nur die Mucke, das ganze Drumherum
+Und wenn’s nicht klappt sind wir eben wieder Untergrund
+Ich bin ein guter Junge
+Das ist der deutsche Traum
+Die Fans sagen ja, denn wir können euch vertrauen
+Ich und aufhören? gebt mir doch einen guten Grund
+Und wenn’s nicht klappt sind wir eben wieder Untergrund</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1022,8 +1701,53 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[Part 1]Lange ist es her, der Anfang meiner ReiseKeiner hat geahnt, was ich alles mal erreicheMama hat gesagt: "Geh alleine deinen Weg!"Ich wollt euch was erklären, auch wenn keiner mich verstehtSie haben mich Jahre lang verflucht, Jahre lang gehatetDoch kriegen nicht genug, das hier ist mein StatementMenschen sind nicht klug, wir sind neidisch und beschweren unsSag mir nochmal wer hier wem irgendwas erklären mussIhr könnt die Wahrheit nicht erkennen, auch nicht wenn ihr's müsstetFragt nicht wer ich bin, ihr denkt, dass ihr es wüsstetNennt mich Sonny Black, die anderen sind untreuIch lade nach und schieß auf alles was hier rumläuft. (2 Schüsse)Ich schieß auf alles was auf drei nicht auf den Bäumen istRichte deine Augen nur auf mich und dann versäumst du nichtsWir machen deutsche Hits, Stift und PapierErsguterjunge, wir sind nicht so wie ihr[Hook]Ich bin nicht so wie ihr, ich hab keine Angst vor dem Untergang, denn ich hab nichts zu verlierenDie ganze Republik hat sich auf mich konzentriert. Sehr schwer mich all die Jahre nicht zu kopierenIch bin nicht so wie ihr, ich hab keine Angst vor dem Untergang, denn ich hab nichts zu verlierenIch mach mein Business, du sitzt in der Spielo, ich bin Bushido[Part 2]Yeah, du bist nicht wie ich, da bin ich ganz deiner MeinungWarum kriegst du Penner nur mit Blunts deine Zeit rum?Meinetwegen waren sie eine lange Zeit am StartDoch die meisten wurden alles andere als StarsWo sind die Rapper hin? Sie drehen sich im KreisHip-Hop ist nicht tot, ich bin der lebende BeweisBevor ich übernahm, warst du jeden Tag im BlitzlichtSuch dir einen Job, geh und mach dich nützlichWenn du dich rumtreibst und deine Zeit verschwendest, sollte dir bewusst sein, dass deine Zeit begrenzt istFehler sind normal, scheitern das ist menschlichDoch für das was du machst hab ich leider kein VerständnisIch hatte lang mit dieser Szene nichts zu tunIch bin nicht wie ihr, deswegen geht es mir so gutDas ist EGJ, sie rufen mich:Mein Wort ist GesetzAuf meiner Tour besuche ich dein Dorf in dem Jet
-[Hook]Ich bin nicht so wie ihr, ich hab keine Angst vor dem Untergang, denn ich hab nichts zu verlierenDie ganze Republik hat sich auf mich konzentriert. Sehr schwer mich all die Jahre nicht zu kopierenIch bin nicht so wie ihr, ich hab keine Angst vor dem Untergang, denn ich hab nichts zu verlierenIch mach mein Business, du sitzt in der Spielo, ich bin BushidoIch bin nicht so wie ihr, ich hab keine Angst vor dem Untergang, denn ich hab nichts zu verlierenDie ganze Republik hat sich auf mich konzentriert. Sehr schwer mich all die Jahre nicht zu kopierenIch bin nicht so wie ihr, ich hab keine Angst vor dem Untergang, denn ich hab nichts zu verlierenIch mach mein Business, du sitzt in der Spielo, ich bin Bushido</t>
+          <t>[Part 1]
+Lange ist es her, der Anfang meiner ReiseKeiner hat geahnt, was ich alles mal erreiche
+Mama hat gesagt: "Geh alleine deinen Weg!"
+Ich wollt euch was erklären, auch wenn keiner mich versteht
+Sie haben mich Jahre lang verflucht, Jahre lang gehatet
+Doch kriegen nicht genug, das hier ist mein Statement
+Menschen sind nicht klug, wir sind neidisch und beschweren uns
+Sag mir nochmal wer hier wem irgendwas erklären muss
+Ihr könnt die Wahrheit nicht erkennen, auch nicht wenn ihr's müsstet
+Fragt nicht wer ich bin, ihr denkt, dass ihr es wüsstet
+Nennt mich Sonny Black, die anderen sind untreu
+Ich lade nach und schieß auf alles was hier rumläuft. (2 Schüsse)
+Ich schieß auf alles was auf drei nicht auf den Bäumen ist
+Richte deine Augen nur auf mich und dann versäumst du nichts
+Wir machen deutsche Hits, Stift und Papier
+Ersguterjunge, wir sind nicht so wie ihr
+[Hook]
+Ich bin nicht so wie ihr, ich hab keine Angst vor dem Untergang, denn ich hab nichts zu verlieren
+Die ganze Republik hat sich auf mich konzentriert. Sehr schwer mich all die Jahre nicht zu kopieren
+Ich bin nicht so wie ihr, ich hab keine Angst vor dem Untergang, denn ich hab nichts zu verlieren
+Ich mach mein Business, du sitzt in der Spielo, ich bin Bushido
+[Part 2]
+Yeah, du bist nicht wie ich, da bin ich ganz deiner Meinung
+Warum kriegst du Penner nur mit Blunts deine Zeit rum?
+Meinetwegen waren sie eine lange Zeit am Start
+Doch die meisten wurden alles andere als Stars
+Wo sind die Rapper hin? Sie drehen sich im Kreis
+Hip-Hop ist nicht tot, ich bin der lebende Beweis
+Bevor ich übernahm, warst du jeden Tag im Blitzlicht
+Such dir einen Job, geh und mach dich nützlich
+Wenn du dich rumtreibst und deine Zeit verschwendest, sollte dir bewusst sein, dass deine Zeit begrenzt ist
+Fehler sind normal, scheitern das ist menschlich
+Doch für das was du machst hab ich leider kein Verständnis
+Ich hatte lang mit dieser Szene nichts zu tun
+Ich bin nicht wie ihr, deswegen geht es mir so gut
+Das ist EGJ, sie rufen mich:
+Mein Wort ist Gesetz
+Auf meiner Tour besuche ich dein Dorf in dem Jet
+[Hook]
+Ich bin nicht so wie ihr, ich hab keine Angst vor dem Untergang, denn ich hab nichts zu verlieren
+Die ganze Republik hat sich auf mich konzentriert. Sehr schwer mich all die Jahre nicht zu kopieren
+Ich bin nicht so wie ihr, ich hab keine Angst vor dem Untergang, denn ich hab nichts zu verlieren
+Ich mach mein Business, du sitzt in der Spielo, ich bin Bushido
+Ich bin nicht so wie ihr, ich hab keine Angst vor dem Untergang, denn ich hab nichts zu verlieren
+Die ganze Republik hat sich auf mich konzentriert. Sehr schwer mich all die Jahre nicht zu kopieren
+Ich bin nicht so wie ihr, ich hab keine Angst vor dem Untergang, denn ich hab nichts zu verlieren
+Ich mach mein Business, du sitzt in der Spielo, ich bin Bushido</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1077,9 +1801,79 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Part 1: JokA]Vieles hätte anders laufen können, doch das ist TheorieIn Wirklichkeit sind wir Figuren - PlaymobilWas für Tour? Ohne Rap wird vielleicht mehr aus ihmDenn viele scheitern auf der Suche nach 'nem Major DealIch würde theoretisch auch lieber 'en 6er habenDoch muss am Montag mein Corsa in die Werkstatt fahrenIch könnt' mich theoretisch einfach besser absichernDoch wozu, alter? Risiko ist praktischerIch müsste theoretisch mein Album einfach raus hauenDoch koche auch nur mit Wasser, wie alte HausfrauenStatt den ganzen Tag im Studio zu hängenHab' ich kurioserweise mein Studium beendetHörst du?Ich müsste theoretisch umziehen aus BremenDoch hab Mama ma' versprochen, dass ich ohne sie nicht geh'Außerdem hab' ich theoretisch so viel erlebtAber praktisch gibt's noch so viel zu sehen[Refrain: JokA &amp; (Bushido)]Das sind alles nur Ideen, die für jeden hier gemacht sindWir müssen unterscheiden zwischen Theorie und PraxisIn der Theorie(Willst du was verändern, aber wie?)(In der Praxis geht meistens alles schief)Das sind alles nur Ideen, die für jeden hier gemacht sindWir müssen unterscheiden zwischen Theorie und PraxisIn der Theorie(Wollen wir zu viel, aber geben viel zu wenig)(Das ist kein fairer Deal)
-[Part 2: Bushido]Vieles hätte anders laufen können, doch das ist TheorieIch tu', was ich tu' in Namen der MusikIch bin jung, gefragt, umstritten und berühmtDoch kann die einfachsten Dinge inzwischen nicht mehr fühlenIch bin eigentlich kein Fan von GeschäftsterminenDoch kann mir praktisch nicht erlauben, einfach weg zu ziehenTheoretisch bräuchte ich kein Album mehr habenDoch praktisch hab' ich so viel zu sagenIch könnte locker auf den Luxus verzichtenAuf Autos und Uhren, auf Schmuck und auf BitchesIhr wolltet mich doch so, alles andere passt nichtDoch praktisch mach' ich all das mit AbsichtEigentlich kann ich tun, was ich willAber schau, praktisch geh' ich dafür in den BauTheoretisch scheiß ich auf alles, doch das geht nichtDenn praktisch erlaub' ich mir kein Fehltritt[Hook: JokA &amp; (Bushido)]Das sind alles nur Ideen, die für jeden hier gemacht sindWir müssen unterscheiden zwischen Theorie und PraxisIn der Theorie(Willst du was verändern, aber wie?)(In der Praxis geht meistens alles schief)Das sind alles nur Ideen, die für jeden hier gemacht sindWir müssen unterscheiden zwischen Theorie und PraxisIn der Theorie(Wollen wir zu viel, aber geben viel zu wenig)(Das ist kein fairer Deal)
-[Part 3: Bushido &amp; (JokA)]Du hättest gern mehr von dein Leben, doch musst jeden Tag zur Nachtschicht(Manchmal liegen Welten zwischen Theorie und Praxis)Wir würden alle gern' die Fäden ziehen, doch Fakt ist(Manchmal liegen Welten zwischen Theorie und Praxis)(Es ist ein auf und ab, fast wie die Melodie)Es liegen Welten zwischen Praxis und Theorie(Wir warten auf ein Wunder, doch es klappt in der Regel nie)Praxis und Theorie, Theorie[Hook: JokA &amp; (Bushido)]Das sind alles nur Ideen, die für jeden hier gemacht sindWir müssen unterscheiden zwischen Theorie und PraxisIn der Theorie(Willst du was verändern, aber wie?)(In der Praxis geht meistens alles schief)Das sind alles nur Ideen, die für jeden hier gemacht sindWir müssen unterscheiden zwischen Theorie und PraxisIn der Theorie(Wollen wir zu viel, aber geben viel zu wenig)(Das ist kein fairer Deal)</t>
+          <t>[Part 1: JokA]
+Vieles hätte anders laufen können, doch das ist Theorie
+In Wirklichkeit sind wir Figuren - Playmobil
+Was für Tour? Ohne Rap wird vielleicht mehr aus ihmDenn viele scheitern auf der Suche nach 'nem Major Deal
+Ich würde theoretisch auch lieber 'en 6er haben
+Doch muss am Montag mein Corsa in die Werkstatt fahren
+Ich könnt' mich theoretisch einfach besser absichernDoch wozu, alter? Risiko ist praktischer
+Ich müsste theoretisch mein Album einfach raus hauenDoch koche auch nur mit Wasser, wie alte Hausfrauen
+Statt den ganzen Tag im Studio zu hängen
+Hab' ich kurioserweise mein Studium beendet
+Hörst du?
+Ich müsste theoretisch umziehen aus Bremen
+Doch hab Mama ma' versprochen, dass ich ohne sie nicht geh'
+Außerdem hab' ich theoretisch so viel erlebt
+Aber praktisch gibt's noch so viel zu sehen
+[Refrain: JokA &amp; (Bushido)]
+Das sind alles nur Ideen, die für jeden hier gemacht sind
+Wir müssen unterscheiden zwischen Theorie und Praxis
+In der Theorie
+(Willst du was verändern, aber wie?)
+(In der Praxis geht meistens alles schief)
+Das sind alles nur Ideen, die für jeden hier gemacht sind
+Wir müssen unterscheiden zwischen Theorie und Praxis
+In der Theorie
+(Wollen wir zu viel, aber geben viel zu wenig)
+(Das ist kein fairer Deal)
+[Part 2: Bushido]
+Vieles hätte anders laufen können, doch das ist Theorie
+Ich tu', was ich tu' in Namen der Musik
+Ich bin jung, gefragt, umstritten und berühmt
+Doch kann die einfachsten Dinge inzwischen nicht mehr fühlen
+Ich bin eigentlich kein Fan von Geschäftsterminen
+Doch kann mir praktisch nicht erlauben, einfach weg zu ziehen
+Theoretisch bräuchte ich kein Album mehr habenDoch praktisch hab' ich so viel zu sagen
+Ich könnte locker auf den Luxus verzichten
+Auf Autos und Uhren, auf Schmuck und auf Bitches
+Ihr wolltet mich doch so, alles andere passt nicht
+Doch praktisch mach' ich all das mit Absicht
+Eigentlich kann ich tun, was ich will
+Aber schau, praktisch geh' ich dafür in den Bau
+Theoretisch scheiß ich auf alles, doch das geht nicht
+Denn praktisch erlaub' ich mir kein Fehltritt
+[Hook: JokA &amp; (Bushido)]
+Das sind alles nur Ideen, die für jeden hier gemacht sind
+Wir müssen unterscheiden zwischen Theorie und Praxis
+In der Theorie
+(Willst du was verändern, aber wie?)
+(In der Praxis geht meistens alles schief)
+Das sind alles nur Ideen, die für jeden hier gemacht sind
+Wir müssen unterscheiden zwischen Theorie und Praxis
+In der Theorie
+(Wollen wir zu viel, aber geben viel zu wenig)
+(Das ist kein fairer Deal)
+[Part 3: Bushido &amp; (JokA)]
+Du hättest gern mehr von dein Leben, doch musst jeden Tag zur Nachtschicht
+(Manchmal liegen Welten zwischen Theorie und Praxis)
+Wir würden alle gern' die Fäden ziehen, doch Fakt ist
+(Manchmal liegen Welten zwischen Theorie und Praxis)
+(Es ist ein auf und ab, fast wie die Melodie)
+Es liegen Welten zwischen Praxis und Theorie
+(Wir warten auf ein Wunder, doch es klappt in der Regel nie)
+Praxis und Theorie, Theorie
+[Hook: JokA &amp; (Bushido)]
+Das sind alles nur Ideen, die für jeden hier gemacht sind
+Wir müssen unterscheiden zwischen Theorie und Praxis
+In der Theorie
+(Willst du was verändern, aber wie?)
+(In der Praxis geht meistens alles schief)
+Das sind alles nur Ideen, die für jeden hier gemacht sind
+Wir müssen unterscheiden zwischen Theorie und Praxis
+In der Theorie
+(Wollen wir zu viel, aber geben viel zu wenig)
+(Das ist kein fairer Deal)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1133,9 +1927,85 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Part 1]Wir wissen deine Kindheit war schwerIn dir ist es leerDu jagst immer nur alten Träumen hinterherDer Alltag, du hättest gern dass etwas passiertDein Vater hat sich nur für den Fernseher InteressiertMan sieht im Beruf hast du auch keinen ErfolgWeißt nicht so genau auf wen du sauer sein sollstIrgendwer muss an allem schuld seinDer Puls steigt, der Geduldsfaden reißtVon der Gesellschaft nicht akzeptiertHast du dir deine ganzen Haare abrasiertBei deinen neuen Freunden findest du BestätigungUnd denkst sie haben Rechtv, verdammt Mann, in jedem PunktDas gibt deinem Leben einen SinnEgal was, Hauptsache dass wir gegen etwas sindJedes Kind merkt, dein Hass sitzt in der TiefeUnd du schnürst sie zu, deine Springerstiefel[Hook]Es ist der HassDieser ganze HassEr begleitet dich, was immer du auch machstAus der Gesellschafft hast du dich entferntAus der Geschichte hast du nichts gelerntEs ist der HassImmer dieser HassEr überkommt dich, mitten in der NachtUnd wir fragen uns, wo kommt er herUnd wir fragen uns, wo bleibt dein Herz
-[Part 2]Neues Leben ist, dass du auf Versammlungen gehstUnd man sieht es dir nun äußerlich an wo du stehstEndlich Zusammenhalt, endlich etwas FeedbackBei dir im Supermarkt wirst du auch gesiezt jetztDu kriegst Respekt doch bist eigentlich nur blindWeil sie nur von deinem Auftreten eingeschüchtert sindImmer in der Gruppe, immer auf die SchwachenMerkst nicht, dass die Leute hinter deinem Rücken lachen?Kannst dich nicht richtig ausdrückenAber jetzt hast du es geschafftDu bist endlich jemand Wichtiges in deinem VirtelEigentlich hat dich deine Ex nur verlassenUnd du suchst jetzt den Halt unterm Deckmantel des HassesDie Ausländer eignen sich als ZielpersonObwohl in deiner Stadt nicht mal viele von den wohn'Ihr wollt es wissen, ich sag' euch was passiertDann hat er sich das Hakenkreuz tätowiert[Hook]Es ist der HassDieser ganze HassEr begleitet dich, was immer du auch machstAus der Gesellschafft hast du dich entferntAus der Geschichte hast du nichts gelerntEs ist der HassImmer dieser HassEr überkommt dich, mitten in der NachtUnd wir fragen uns, wo kommt er herUnd wir fragen uns, wo bleibt dein Herz
-[Part 3]Auf einmal bist du viel zu weit um zurück zu rudernDu warst doch nur einer von denen die ihr Glück gesucht habenDu hast gemerkt das ja doch nur alle Menschen sindEs sind Vater, Mutter, Sohn, Tochter, MenschenskindDas Gewissen kommtUnd du denkst was los istErinnerst dich das du selber mal gehänselt wurdestEs sind die ganzen Farben die du in Gesichtern siehstUnd all das was du ihnen gibst haben sie nicht verdient[Hook]Es ist der HassDieser ganze HassEr begleitet dich, was immer du auch machstAus der Gesellschafft hast du dich entferntAus der Geschichte hast du nichts gelerntEs ist der HassImmer dieser HassEr überkommt dich, mitten in der NachtUnd wir fragen uns, wo kommt er herUnd wir fragen uns, wo bleibt dein Herz</t>
+          <t>[Part 1]
+Wir wissen deine Kindheit war schwer
+In dir ist es leer
+Du jagst immer nur alten Träumen hinterher
+Der Alltag, du hättest gern dass etwas passiert
+Dein Vater hat sich nur für den Fernseher Interessiert
+Man sieht im Beruf hast du auch keinen Erfolg
+Weißt nicht so genau auf wen du sauer sein sollst
+Irgendwer muss an allem schuld sein
+Der Puls steigt, der Geduldsfaden reißt
+Von der Gesellschaft nicht akzeptiert
+Hast du dir deine ganzen Haare abrasiert
+Bei deinen neuen Freunden findest du Bestätigung
+Und denkst sie haben Rechtv, verdammt Mann, in jedem Punkt
+Das gibt deinem Leben einen Sinn
+Egal was, Hauptsache dass wir gegen etwas sind
+Jedes Kind merkt, dein Hass sitzt in der Tiefe
+Und du schnürst sie zu, deine Springerstiefel
+[Hook]
+Es ist der Hass
+Dieser ganze Hass
+Er begleitet dich, was immer du auch machst
+Aus der Gesellschafft hast du dich entfernt
+Aus der Geschichte hast du nichts gelernt
+Es ist der Hass
+Immer dieser Hass
+Er überkommt dich, mitten in der Nacht
+Und wir fragen uns, wo kommt er her
+Und wir fragen uns, wo bleibt dein Herz
+[Part 2]
+Neues Leben ist, dass du auf Versammlungen gehst
+Und man sieht es dir nun äußerlich an wo du stehst
+Endlich Zusammenhalt, endlich etwas Feedback
+Bei dir im Supermarkt wirst du auch gesiezt jetzt
+Du kriegst Respekt doch bist eigentlich nur blind
+Weil sie nur von deinem Auftreten eingeschüchtert sind
+Immer in der Gruppe, immer auf die Schwachen
+Merkst nicht, dass die Leute hinter deinem Rücken lachen?
+Kannst dich nicht richtig ausdrücken
+Aber jetzt hast du es geschafft
+Du bist endlich jemand Wichtiges in deinem Virtel
+Eigentlich hat dich deine Ex nur verlassen
+Und du suchst jetzt den Halt unterm Deckmantel des Hasses
+Die Ausländer eignen sich als Zielperson
+Obwohl in deiner Stadt nicht mal viele von den wohn'
+Ihr wollt es wissen, ich sag' euch was passiert
+Dann hat er sich das Hakenkreuz tätowiert
+[Hook]
+Es ist der Hass
+Dieser ganze Hass
+Er begleitet dich, was immer du auch machst
+Aus der Gesellschafft hast du dich entfernt
+Aus der Geschichte hast du nichts gelernt
+Es ist der Hass
+Immer dieser Hass
+Er überkommt dich, mitten in der Nacht
+Und wir fragen uns, wo kommt er her
+Und wir fragen uns, wo bleibt dein Herz
+[Part 3]
+Auf einmal bist du viel zu weit um zurück zu rudern
+Du warst doch nur einer von denen die ihr Glück gesucht haben
+Du hast gemerkt das ja doch nur alle Menschen sind
+Es sind Vater, Mutter, Sohn, Tochter, Menschenskind
+Das Gewissen kommt
+Und du denkst was los ist
+Erinnerst dich das du selber mal gehänselt wurdest
+Es sind die ganzen Farben die du in Gesichtern siehst
+Und all das was du ihnen gibst haben sie nicht verdient
+[Hook]
+Es ist der Hass
+Dieser ganze Hass
+Er begleitet dich, was immer du auch machst
+Aus der Gesellschafft hast du dich entfernt
+Aus der Geschichte hast du nichts gelernt
+Es ist der Hass
+Immer dieser Hass
+Er überkommt dich, mitten in der Nacht
+Und wir fragen uns, wo kommt er her
+Und wir fragen uns, wo bleibt dein Herz</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1189,9 +2059,83 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Part 1]Seit du das erste mal die Augen aufgemacht hastKrieg' ich kein Auge zu und liege nachts wachIch komm' zu dir ans Bett und trockne deine Trän'nDanke dass du da bist meine Tochter, meine FeeIch konnte lang nichts sehenIrgendwann kamst du mein SternIch habe nie geliebt doch ich versuch es GernIch kann dich sehen von hier, meine Seele lebt in dirUnd wenn Probleme auf dich zukomm'n, red mit mirIch werd' immer für dich da sein mein EngelNie mehr verbring' ich einen Tag in der ZelleNie wieder Partys oder Stress mit den JungsFür dich komm ich jetzt zur VernunftAlles was ich will ist nur, dass dir nichts fehltIch bin für dich und Mama da auch wenn ihr mich nicht sehtFür mich gibt es keine Zukunft ohne dichIch bin so wie du und du bist so wie ich[Hook]Es ist noch immer wie ein Traum für michIch sehe dich an doch ich glaub es nichtDu bist mein Sonnenschein , mein AugenlichtIch geb mein ganzes Leben nur für DichIch bin Du - Und Du Bist IchEs ist noch immer wie ein Traum für michIch sehe dich an doch ich glaub es nichtDu bist mein Sonnenschein , mein AugenlichtIch geb mein ganzes Leben nur für DichIch bin Du - Und Du Bist Ich
-[Part 2]Ich schau dich jeden Abend an, bis du die Augen schließtUnd du weißt ich bin da, auch wenn du kaum was siehstDu kannst meine nähe spüren, wie in Mamas BauchDu brauchst sie nicht mal zu berühren, sie kann das auchSeit dem ersten Herzschlag, sind wir stolz auf dichMehr als Gold für mich, mein Erfolg ist nichtsEndlich hab' ich wieder etwas, was mich atmen lässtWie schön du dich mit Oma in den Garten setztZum ersten Mal spür' ich so etwas wie ZuversichtIch bin ganz genau wie du, und du wie ichEinfach jemand der dich Lieb hat und bei dir bleibtIn deinem Leben wirst du niemals alleine seinDeine Augen sagen 'Nehm mich mit auf all deinen Wegen 'Ich kann es kaum erwarten, bis wir miteinander redenAaliyah, so lange zähle ich die TageIrgendwann verstehst du, was ich sage[Hook]Es ist noch immer wie ein Traum für michIch sehe dich an doch ich glaub es nichtDu bist mein Sonnenschein , mein AugenlichtIch geb mein ganzes Leben nur für DichIch bin Du - Und Du Bist IchEs ist noch immer wie ein Traum für michIch sehe dich an doch ich glaub es nichtDu bist mein Sonnenschein , mein AugenlichtIch geb mein ganzes leben nur für DichIch bin Du - Und Du Bist Ich
-[Part 3]Eine Familie, wir haben unser Blut gemischtIch bin Du und Du bist IchAlles was dir Hilft ist auch Gut für michDenn Ich bin Du und Du bist IchWas auch kommt ich möchte nicht das vergisstIch bin Du und Du bist IchAlles was dir Hilft ist auch Gut für michDenn Ich bin Du und Du bist Ich[Hook]Es ist noch immer wie ein Traum für michIch sehe dich an doch ich glaub es nichtDu bist mein Sonnenschein , mein AugenlichtIch geb mein ganzes Leben nur für DichIch bin Du - Und Du Bist IchEs ist noch immer wie ein Traum für michIch sehe dich an doch ich glaub es nichtDu bist mein Sonnenschein , mein AugenlichtIch geb mein ganzes leben nur für DichIch bin Du - Und Du Bist Ich</t>
+          <t>[Part 1]
+Seit du das erste mal die Augen aufgemacht hast
+Krieg' ich kein Auge zu und liege nachts wach
+Ich komm' zu dir ans Bett und trockne deine Trän'n
+Danke dass du da bist meine Tochter, meine Fee
+Ich konnte lang nichts sehen
+Irgendwann kamst du mein Stern
+Ich habe nie geliebt doch ich versuch es Gern
+Ich kann dich sehen von hier, meine Seele lebt in dir
+Und wenn Probleme auf dich zukomm'n, red mit mir
+Ich werd' immer für dich da sein mein Engel
+Nie mehr verbring' ich einen Tag in der Zelle
+Nie wieder Partys oder Stress mit den Jungs
+Für dich komm ich jetzt zur Vernunft
+Alles was ich will ist nur, dass dir nichts fehlt
+Ich bin für dich und Mama da auch wenn ihr mich nicht seht
+Für mich gibt es keine Zukunft ohne dich
+Ich bin so wie du und du bist so wie ich
+[Hook]
+Es ist noch immer wie ein Traum für mich
+Ich sehe dich an doch ich glaub es nicht
+Du bist mein Sonnenschein , mein Augenlicht
+Ich geb mein ganzes Leben nur für Dich
+Ich bin Du - Und Du Bist Ich
+Es ist noch immer wie ein Traum für mich
+Ich sehe dich an doch ich glaub es nicht
+Du bist mein Sonnenschein , mein Augenlicht
+Ich geb mein ganzes Leben nur für Dich
+Ich bin Du - Und Du Bist Ich
+[Part 2]
+Ich schau dich jeden Abend an, bis du die Augen schließt
+Und du weißt ich bin da, auch wenn du kaum was siehst
+Du kannst meine nähe spüren, wie in Mamas Bauch
+Du brauchst sie nicht mal zu berühren, sie kann das auch
+Seit dem ersten Herzschlag, sind wir stolz auf dich
+Mehr als Gold für mich, mein Erfolg ist nichts
+Endlich hab' ich wieder etwas, was mich atmen lässt
+Wie schön du dich mit Oma in den Garten setzt
+Zum ersten Mal spür' ich so etwas wie Zuversicht
+Ich bin ganz genau wie du, und du wie ich
+Einfach jemand der dich Lieb hat und bei dir bleibt
+In deinem Leben wirst du niemals alleine sein
+Deine Augen sagen 'Nehm mich mit auf all deinen Wegen '
+Ich kann es kaum erwarten, bis wir miteinander reden
+Aaliyah, so lange zähle ich die Tage
+Irgendwann verstehst du, was ich sage
+[Hook]
+Es ist noch immer wie ein Traum für mich
+Ich sehe dich an doch ich glaub es nicht
+Du bist mein Sonnenschein , mein Augenlicht
+Ich geb mein ganzes Leben nur für Dich
+Ich bin Du - Und Du Bist Ich
+Es ist noch immer wie ein Traum für mich
+Ich sehe dich an doch ich glaub es nicht
+Du bist mein Sonnenschein , mein Augenlicht
+Ich geb mein ganzes leben nur für Dich
+Ich bin Du - Und Du Bist Ich
+[Part 3]
+Eine Familie, wir haben unser Blut gemischt
+Ich bin Du und Du bist Ich
+Alles was dir Hilft ist auch Gut für mich
+Denn Ich bin Du und Du bist Ich
+Was auch kommt ich möchte nicht das vergisst
+Ich bin Du und Du bist Ich
+Alles was dir Hilft ist auch Gut für mich
+Denn Ich bin Du und Du bist Ich
+[Hook]
+Es ist noch immer wie ein Traum für mich
+Ich sehe dich an doch ich glaub es nicht
+Du bist mein Sonnenschein , mein Augenlicht
+Ich geb mein ganzes Leben nur für Dich
+Ich bin Du - Und Du Bist Ich
+Es ist noch immer wie ein Traum für mich
+Ich sehe dich an doch ich glaub es nicht
+Du bist mein Sonnenschein , mein Augenlicht
+Ich geb mein ganzes leben nur für Dich
+Ich bin Du - Und Du Bist Ich</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1245,8 +2189,44 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[Julian WIlliams]Wie Ebbe und Flut, wir gehör'n zusammenWie Mond und Sterne, wie Sonne und ErdeBergauf und bergab, durch Feuer wie GlutWill ich mit dir gehn, denn du machst mich ganzUnd ich halt deine HandFür immer und ewig, für immer und ewig[Refrain]Du bist der Mensch, für den sich mein Leben lohntMeine Liebe für dich ist grenzenlosKein Griff nach den Sternen gibt mir je zurück, wie viel du mir gibstDu bist der Mensch, für den sich's zu leben lohnt[Bushido]Ich halt um deine Hand an, trage diesen RingIch bleibe bei dir bis ich eines Tages nicht mehr binEgal wolang du gehst, ich frage nicht wohinIch folge dir und seh jetz all die Farben, ich war blindWir zwei am Strand, der Abend geht dahinIch nehm dich in dem Arm, damit dir warm ist nach dem SchwimmenDie Sonne schimmert rot, dein Nagellack ist pinkAuf diesen Abend habe ich gewartet schon als KindVergessen all die Jahre, Jahre ohne SinnOhne dich stand ich da wie eine Fahne ohne WindBist du ganz allein, schickt dir Gott einen MenschDieses Lied ist sowas wie ein HochzeitsgeschenkDer Ring besteht aus Weißgold mit rundem Stein, zeichen der VerbundenheitWochen werden nur so wie ein paar Sekunden seinVergiss den Rest, es gibt bloß uns beideBis dass der Tod uns scheidet
-[Refrain]Du bist der Mensch, für den sich mein Leben lohntMeine Liebe für dich ist grenzenlosKein Griff nach den Sternen gibt mir je zurück, wie viel du mir gibstDu bist der Mensch, für den sich's zu leben lohntDu bist der Mensch, für den sich mein Leben lohntMeine Liebe für dich ist grenzenlosKein Griff nach den Sternen gibt mir je zurück, wie viel du mir gibstDu bist der Mensch, für den sich's zu leben lohnt</t>
+          <t>[Intro: J-Luv]
+Wie Ebbe und Flut, wir gehör'n zusammen
+Wie Mond und Sterne, wie Sonne und Erde
+Bergauf und bergab, durch Feuer wie Glut
+Will ich mit dir gehn, denn du machst mich ganz
+Und ich halt deine Hand
+Für immer und ewig, für immer und ewig
+[Hook: J-Luv]
+Du bist der Mensch, für den sich mein Leben lohnt
+Meine Liebe für dich ist grenzenlos
+Kein Griff nach den Sternen gibt mir je zurück, wie viel du mir gibst
+Du bist der Mensch, für den sich's zu leben lohnt
+[Part: Bushido]
+Ich halt um deine Hand an, trage diesen Ring
+Ich bleibe bei dir, bis ich eines Tages nicht mehr bin
+Egal wo lang du gehst, ich frage nicht wohin
+Ich folge dir und seh jetzt all die Farben, ich war blind
+Wir zwei am Strand, der Abend geht dahin
+Ich nehm' dich in dem Arm, damit dir warm ist nach dem Schwimm'n
+Die Sonne schimmert rot, dein Nagellack ist pink
+Auf diesen Abend habe ich gewartet schon als Kind
+Vergessen all die Jahre, Jahre ohne Sinn
+Ohne dich stand ich da, wie eine Fahne ohne Wind
+Bist du ganz allein, schickt dir Gott einen Mensch
+Dieses Lied ist sowas wie ein Hochzeitsgeschenk
+Der Ring besteht aus Weißgold mit rundem Stein, Zeichen der Verbundenheit
+Wochen werden nur so wie ein paar Sekunden sein
+Vergiss den Rest, es gibt bloß uns beide
+Bis dass der Tod uns scheidet
+[Hook: J-Luv]
+Du bist der Mensch, für den sich mein Leben lohnt
+Meine Liebe für dich ist grenzenlos
+Kein Griff nach den Sternen gibt mir je zurück, wie viel du mir gibst
+Du bist der Mensch, für den sich's zu leben lohnt
+Du bist der Mensch, für den sich mein Leben lohnt
+Meine Liebe für dich ist grenzenlos
+Kein Griff nach den Sternen gibt mir je zurück, wie viel du mir gibst
+Du bist der Mensch, für den sich's zu leben lohnt</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,8 +2280,54 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Hook]AMYF, 13 Jahre Rap und ich fick das GeschäftAMYF, bereit zum serviern, der Tisch ist gedecktAMYF, 13 Jahre Rap und ich fick das GeschäftAMYF, bereit zum serviern, der Tisch ist gedeckt[Part 1]Black, Sonny, Album Nummer 11Das Team ist komplett, ich bezahl mich nurnoch selbstIch steig in den Flieger und bereise die WeltDu bleibst ein Verlierer, was ist Style ohne Geld ?!Ich hab ich hab eine riesen Villa und ein Haus mit GartenDu musst draußen schlafen, wer hat dich ausgegraben ?!Es ist an der Zeit die Scheiße wieder auszubadenKing Bushido! Die Antwort auf 1000 FragenMach nicht auf Lehrer, mach erstmal deine Hausaufgaben !Ich hab nach langer Zeit meinen Akku wieder aufgeladenUnd hier ist kein Wort gelogenDu bist zur Skyline geflogen und am Bordstein wieder aufgeschlagenIch muss mir keine Sorgen machen, ich bin selbstständigMit allem was du machst belügst du dich selbst ständigIch hab es selbst gesagt, hast du was bist du wasGeld ist nicht alles denn im Herzen vermisst du was[Hook]AMYF, 13 Jahre Rap und ich fick das GeschäftAMYF, bereit zum serviern, der Tisch ist gedecktAMYF, 13 Jahre Rap und ich fick das GeschäftAMYF, bereit zum serviern, der Tisch ist gedeckt
-[Part 2]Ich scheiß auf die Leute die mir Irgendwas erzählen wollenDie nach dem Bambi sagen, das ich mich benehmen sollIch seh zufrieden aus, wenn ich in Den Spiegel schauUnd bei Spiegel TV schalt ich lieber ausWas du im Jahr verdienst, kommt bei mir pro Woche reinDu bist nicht flüssig, du musst besoffen seinFür einen Doppelreim fickst du deinen KopfKing hin oder her, guck ich sitze hier im SchlossIch bin kein Koch doch kenn mich aus mit GerichtenKeine Lust mehr vor dem Blaulicht zu flüchtenIch wollte raus doch sie brauchen GeschichtenUm jede ihrer Kameras auf mich zu richtenFrüher brachte ich die Kilos mit Händen wegHeute schreien sie "Bushido for President!"Ich hab es selbst gesagt, hast du was bist du wasGeld ist nicht alles denn im Herzen vermisst du was[Hook]AMYF, 13 Jahre Rap und ich fick das GeschäftAMYF, bereit zum serviern, der Tisch ist gedecktAMYF, 13 Jahre Rap und ich fick das GeschäftAMYF, bereit zum serviern, der Tisch ist gedeckt</t>
+          <t>[Hook]
+AMYF, 13 Jahre Rap und ich fick das Geschäft
+AMYF, bereit zum serviern, der Tisch ist gedeckt
+AMYF, 13 Jahre Rap und ich fick das Geschäft
+AMYF, bereit zum serviern, der Tisch ist gedeckt
+[Part 1]
+Black, Sonny, Album Nummer 11
+Das Team ist komplett, ich bezahl mich nurnoch selbst
+Ich steig in den Flieger und bereise die Welt
+Du bleibst ein Verlierer, was ist Style ohne Geld ?!
+Ich hab ich hab eine riesen Villa und ein Haus mit Garten
+Du musst draußen schlafen, wer hat dich ausgegraben ?!
+Es ist an der Zeit die Scheiße wieder auszubaden
+King Bushido! Die Antwort auf 1000 Fragen
+Mach nicht auf Lehrer, mach erstmal deine Hausaufgaben !
+Ich hab nach langer Zeit meinen Akku wieder aufgeladen
+Und hier ist kein Wort gelogen
+Du bist zur Skyline geflogen und am Bordstein wieder aufgeschlagen
+Ich muss mir keine Sorgen machen, ich bin selbstständig
+Mit allem was du machst belügst du dich selbst ständig
+Ich hab es selbst gesagt, hast du was bist du was
+Geld ist nicht alles denn im Herzen vermisst du was
+[Hook]
+AMYF, 13 Jahre Rap und ich fick das Geschäft
+AMYF, bereit zum serviern, der Tisch ist gedeckt
+AMYF, 13 Jahre Rap und ich fick das Geschäft
+AMYF, bereit zum serviern, der Tisch ist gedeckt
+[Part 2]
+Ich scheiß auf die Leute die mir Irgendwas erzählen wollen
+Die nach dem Bambi sagen, das ich mich benehmen soll
+Ich seh zufrieden aus, wenn ich in Den Spiegel schauUnd bei Spiegel TV schalt ich lieber aus
+Was du im Jahr verdienst, kommt bei mir pro Woche rein
+Du bist nicht flüssig, du musst besoffen sein
+Für einen Doppelreim fickst du deinen Kopf
+King hin oder her, guck ich sitze hier im Schloss
+Ich bin kein Koch doch kenn mich aus mit Gerichten
+Keine Lust mehr vor dem Blaulicht zu flüchten
+Ich wollte raus doch sie brauchen Geschichten
+Um jede ihrer Kameras auf mich zu richten
+Früher brachte ich die Kilos mit Händen weg
+Heute schreien sie "Bushido for President!"
+Ich hab es selbst gesagt, hast du was bist du was
+Geld ist nicht alles denn im Herzen vermisst du was
+[Hook]
+AMYF, 13 Jahre Rap und ich fick das Geschäft
+AMYF, bereit zum serviern, der Tisch ist gedeckt
+AMYF, 13 Jahre Rap und ich fick das Geschäft
+AMYF, bereit zum serviern, der Tisch ist gedeckt</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1355,9 +2381,82 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Songtext zu "Euer bester Feind"][Part 1]Da ist er wieder, euer bester FeindÜber den bei jeder Kleinigkeit die BILD-Zeitung schreibtAngeblich Schwulenhasser, angeblich FrauenfeindZumindest ist es das, was man im TV zeigtDas Meiste ist ja eh erstunken und erlogenDeutschland, ich hab nur deine Kinder dir erzogenBitte sehr, heute willst du mit dem Finger auf mich zeigenUnd mir die Schuld geben für was immer sie auch treibenKein Ding, ich hab mich nie vor Verantwortung gedrücktStand pünktlich vor Gericht, mit Anzug und SchlipsIch seh das Wort zu oft, wenn ich die Zeitung aufschlageDass ich denke, "Rüpelrapper" ist mein zweiter NameWarum zeigen sie ständig mit dem Finger bloß auf michDas habt ihr nun davon, ich geh in die PolitikAus den Slums in die Villa, ich bin Bambi-GewinnerDoch sie reagieren auf mich anti, wie immer[Hook]Da ist er wieder, ich bin euer bester FeindHabe mich verändert, auch wenn 's so wie gestern scheintIch weiß ganz genau, dass ihr nur am Lästern seidIhr denkt in Schubladen, stellt mich mit Verbrechern gleich!Da ist er wieder, ich bin euer bester FeindSeh euch in die Augen, ich seh nur echten NeidIst das eure Vorstellung von Gerechtigkeit?Was ihr über mich erzählt, ist der letzte Scheiß!
-[Part 2]Da ist er wieder, euer bester FeindIn letzter Zeit gleicht es einer HetzereiDie Medien ignorieren, dass ich mich verändert habUnd stempeln mich leider immer als den Gangster abEs ist ein Mädchen, ich bin jetzt FamilienvaterAn dieser Stelle schöne Grüße an Alice SchwarzerVielleicht schon bald Bürgermeister von BerlinAlso wer hatte jetzt Vorurteile - ich oder sie?Deutschland, das ist bestimmt mein JobIch bin der Kinderschreck, ich bin der SündenbockIch bin der Bad Boy für alle, kein ProblemIch kann das aushalten, denn ich bin gemein wie 10Allesamt wollen sich hier einmischenMir an den Karren fahren und mir ans Bein pissenIst ok, wisst ihr auch mal nicht weiterSchreibt über mich, wenns die Auflage steigert[Hook]Da ist er wieder, ich bin euer bester FeindHabe mich verändert, auch wenn 's so wie gestern scheintIch weiß ganz genau, dass ihr nur am Lästern seidIhr denkt in Schubladen, stellt mich mit Verbrechern gleich!Da ist er wieder, ich bin euer bester FeindSeh euch in die Augen, ich seh nur echten NeidIst das eure Vorstellung von Gerechtigkeit?Was ihr über mich erzählt, ist der letzte Scheiß!
-[Part 3]Da ist er wieder, euer bester FeindDer angeblich nichtmal seine Texte schreibtUnd alle Blogger häng'n wieder am iPhoneBevor ich's noch vergess - ein "Peace" geht an HeinoHätt ich nen Euro für jede Lüge, die sie sprechenWär ich so reich wie jetzt, ohne überhaupt zu rappenAngeblich hätt' ich meine Beats geklautAngeblich könnte man mir nie vertrauenAlles klar, ihr macht mich zum BuhmannDoch ich bin Bu, Mann, ich lass das nicht zu, MannMeine Ex-Künstler wollen heute auspackenOhne mich würd euch keiner kennen, ich kann drauf kackenDenn wenn ich nicht wär, hättet ihr nen Dreck getanBohlen ist der Pop-, aber ich der Rap-TitanDas ist das letzte Mal, dass ich mich verarschen lassWeil's euch in den Kram passt, dass mir mal der Kragen platzt[Hook]Da ist er wieder, ich bin euer bester FeindHabe mich verändert, auch wenn 's so wie gestern scheintIch weiß ganz genau, dass ihr nur am Lästern seidIhr denkt in Schubladen, stellt mich mit Verbrechern gleich!Da ist er wieder, ich bin euer bester FeindSeh euch in die Augen, ich seh nur echten NeidIst das eure Vorstellung von Gerechtigkeit?Was ihr über mich erzählt, ist der letzte Scheiß!</t>
+          <t>[Songtext zu "Euer bester Feind"]
+[Part 1]
+Da ist er wieder, euer bester Feind
+Über den bei jeder Kleinigkeit die BILD-Zeitung schreibt
+Angeblich Schwulenhasser, angeblich Frauenfeind
+Zumindest ist es das, was man im TV zeigt
+Das Meiste ist ja eh erstunken und erlogen
+Deutschland, ich hab nur deine Kinder dir erzogen
+Bitte sehr, heute willst du mit dem Finger auf mich zeigen
+Und mir die Schuld geben für was immer sie auch treiben
+Kein Ding, ich hab mich nie vor Verantwortung gedrückt
+Stand pünktlich vor Gericht, mit Anzug und Schlips
+Ich seh das Wort zu oft, wenn ich die Zeitung aufschlage
+Dass ich denke, "Rüpelrapper" ist mein zweiter Name
+Warum zeigen sie ständig mit dem Finger bloß auf mich
+Das habt ihr nun davon, ich geh in die Politik
+Aus den Slums in die Villa,ich bin Bambi-Gewinner
+Doch sie reagieren auf mich anti, wie immer
+[Hook]
+Da ist er wieder, ich bin euer bester Feind
+Habe mich verändert, auch wenn 's so wie gestern scheint
+Ich weiß ganz genau, dass ihr nur am Lästern seid
+Ihr denkt in Schubladen, stellt mich mit Verbrechern gleich!
+Da ist er wieder, ich bin euer bester Feind
+Seh euch in die Augen, ich seh nur echten Neid
+Ist das eure Vorstellung von Gerechtigkeit?
+Was ihr über mich erzählt, ist der letzte Scheiß!
+[Part 2]
+Da ist er wieder, euer bester Feind
+In letzter Zeit gleicht es einer Hetzerei
+Die Medien ignorieren, dass ich mich verändert habUnd stempeln mich leider immer als den Gangster ab
+Es ist ein Mädchen, ich bin jetzt Familienvater
+An dieser Stelle schöne Grüße an Alice Schwarzer
+Vielleicht schon bald Bürgermeister von Berlin
+Also wer hatte jetzt Vorurteile - ich odersie?
+Deutschland, das ist bestimmt mein Job
+Ich bin der Kinderschreck, ich bin der Sündenbock
+Ich bin der Bad Boy für alle, kein Problem
+Ich kann das aushalten, denn ich bingemein wie 10
+Allesamt wollen sich hier einmischen
+Mir an den Karren fahren und mir ans Bein pissen
+Ist ok, wisst ihr auch mal nicht weiterSchreibt über mich, wenns die Auflage steigert
+[Hook]
+Da ist er wieder, ich bin euer bester Feind
+Habe mich verändert, auch wenn 's so wie gestern scheint
+Ich weiß ganz genau, dass ihr nur am Lästern seid
+Ihr denkt in Schubladen, stellt mich mit Verbrechern gleich!
+Da ist er wieder, ich bin euer bester Feind
+Seh euch in die Augen, ich seh nur echten Neid
+Ist das eure Vorstellung von Gerechtigkeit?
+Was ihr über mich erzählt, ist der letzte Scheiß!
+[Part 3]
+Da ist er wieder, euer bester Feind
+Der angeblich nichtmal seine Texte schreibt
+Und alle Blogger häng'n wieder am iPhone
+Bevor ich's noch vergess - ein "Peace" geht an Heino
+Hätt ich nen Euro für jede Lüge, die sie sprechenWär ich so reich wie jetzt, ohne überhaupt zu rappen
+Angeblich hätt' ich meine Beats geklaut
+Angeblich könnte man mir nie vertrauen
+Alles klar, ihr macht mich zum Buhmann
+Doch ich bin Bu, Mann, ich lass das nicht zu, Mann
+Meine Ex-Künstler wollen heute auspacken
+Ohne mich würd euch keiner kennen, ich kann drauf kacken
+Denn wenn ich nicht wär, hättet ihr nen Dreck getan
+Bohlen ist der Pop-, aber ich der Rap-Titan
+Das ist das letzte Mal, dass ich mich verarschen lass
+Weil's euch in den Kram passt, dass mir mal der Kragen platzt
+[Hook]
+Da ist er wieder, ich bin euer bester Feind
+Habe mich verändert, auch wenn 's so wie gestern scheint
+Ich weiß ganz genau, dass ihr nur am Lästern seid
+Ihr denkt in Schubladen, stellt mich mit Verbrechern gleich!
+Da ist er wieder, ich bin euer bester Feind
+Seh euch in die Augen, ich seh nur echten Neid
+Ist das eure Vorstellung von Gerechtigkeit?
+Was ihr über mich erzählt, ist der letzte Scheiß!</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1411,9 +2510,73 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Part 1]Yeah, erst kommt der Hochmut, dann der FallDie Welt ist nicht genug, ich erobere das AllYeah, es ist Sonny Black, guck jetzt ist der Promi backFür deutschen Rap bin ich der Papst - PontifexSag was hättest du schon ohne mich geschafft?Warum machst du auf König, wenn die Krone dir nicht passtWas ist passiert, dass zwei Freunde sich trennenAlles was dich interessiert ist ob die Leute dich kennenDu bist kein A, B, C, du bist ein Z - PromiIn meinen Augen bist du nur ein Depp - JohnnyDein Leben ist hart, weil du täglich nur Parts schreibstGeh such dir Arbeit, Rap - HobbyWarum alles öffentlich, lese deine Kommentare wöchentlichKönnte vieles sagen, doch ich möchte nichtEnde ohne Krieg, denn wie hoch du fliegstMerkst du selbst wenn du am Boden liegst[Hook]Erst kommt der Hochmut, dann kommt der FallErst kommt die Ruhe vor dem Sturm, dann der KnallEs ist nur ein schmaler Grat zwischen Frieden und GewaltDu bleibst entweder hart oder liegst auf dem AsphaltErst kommt der Hochmut, dann kommt der FallErst kommt die Ruhe vor dem Sturm, dann der KnallEs ist nur ein schmaler Grat zwischen Frieden und GewaltDu bleibst entweder hart oder liegst auf dem Asphalt
-[Part 2]Ich hab nichts mit euch zu tun, doch die Szene im GriffUnd du willst dich anbieten, warum schämst du dich nicht?Ich regel mein Biz - Und mache deine Träume zu StaubAuf einmal sagen alle ich hätte meine Freunde verkauftIch räume nur auf - Ich muss es, denn das Leben ist hartIch war mehr als fair, komm mir nicht mit KnebelvertragIch seh dich im Park - Mit Flaschen in der Hand für PfandUnd deine Lügen, du verbreitest sie im ganzen LandVon Mann zu Mann - Regelt man die Sachen bei mirDu bist wie Britney Spears und hast dir eine Glatze rasiertWas ist passiert? - Du bist überall, doch nicht mehr in BerlinEgal wo man dich sieht, man wird dich ficken aus PrinzipNachdem ich dich ernähre, merkst du wie mein Kragen platzt?Komm mir noch mal in die Quere - ZahnersatzWegen mir musst du verschwinden aus der StadtIch bin immer noch der King und das ist Fakt[Hook]Erst kommt der Hochmut, dann kommt der FallErst kommt die Ruhe vor dem Sturm, dann der KnallEs ist nur ein schmaler Grat zwischen Frieden und GewaltDu bleibst entweder hart oder liegst auf dem AsphaltErst kommt der Hochmut, dann kommt der FallErst kommt die Ruhe vor dem Sturm, dann der KnallEs ist nur ein schmaler Grat zwischen Frieden und GewaltDu bleibst entweder hart oder liegst auf dem Asphalt
-[Bridge]YeahDu bist kein Mann, auch wenn du angibst bei allenIrgendwann wirst du fallenDie Landung wird hart, du hebst ab bis zum AllDoch irgendwann wirst du fallenNein du wirst nicht zum Mann, auch wenn du angibst bei allenIrgendwann wirst du fallenDie Landung wird hart, du hebst ab bis zum AllDoch irgendwann wirst du fallen[Hook]Erst kommt der Hochmut, dann kommt der FallErst kommt die Ruhe vor dem Sturm, dann der KnallEs ist nur ein schmaler Grat zwischen Frieden und GewaltDu bleibst entweder hart oder liegst auf dem AsphaltErst kommt der Hochmut, dann kommt der FallErst kommt die Ruhe vor dem Sturm, dann der KnallEs ist nur ein schmaler Grat zwischen Frieden und GewaltDu bleibst entweder hart oder liegst auf dem Asphalt</t>
+          <t xml:space="preserve">[Part 1]
+Yeah, erst kommt der Hochmut, dann der Fall
+Die Welt ist nicht genug, ich erobere das All
+Yeah, es ist Sonny Black, guck jetzt ist der Promi back
+Für deutschen Rap bin ich der Papst - Pontifex
+Sag was hättest du schon ohne mich geschafft?Warum machst du auf König, wenn die Krone dir nicht passt
+Was ist passiert, dass zwei Freunde sich trennenAlles was dich interessiert ist ob die Leute dich kennen
+Du bist kein A, B, C, du bist ein Z - Promi
+In meinen Augen bist du nur ein Depp - Johnny
+Dein Leben ist hart, weil du täglich nur Parts schreibstGeh such dir Arbeit, Rap - Hobby
+Warum alles öffentlich, lese deine Kommentare wöchentlich
+Könnte vieles sagen, doch ich möchte nichtEnde ohne Krieg, denn wie hoch du fliegstMerkst du selbst wenn du am Boden liegst
+[Hook]
+Erst kommt der Hochmut, dann kommt der Fall
+Erst kommt die Ruhe vor dem Sturm, dann der Knall
+Es ist nur ein schmaler Grat zwischen Frieden und Gewalt
+Du bleibst entweder hart oder liegst auf dem Asphalt
+Erst kommt der Hochmut, dann kommt der Fall
+Erst kommt die Ruhe vor dem Sturm, dann der Knall
+Es ist nur ein schmaler Grat zwischen Frieden und Gewalt
+Du bleibst entweder hart oder liegst auf dem Asphalt
+[Part 2]
+Ich hab nichts mit euch zu tun, doch die Szene im Griff
+Und du willst dich anbieten, warum schämst du dich nicht?
+Ich regel mein Biz - Und mache deine Träume zu Staub
+Auf einmal sagen alle ich hätte meine Freunde verkauft
+Ich räume nur auf - Ich muss es, denn das Leben ist hart
+Ich war mehr als fair, komm mir nicht mit Knebelvertrag
+Ich seh dich im Park - Mit Flaschen in der Hand für Pfand
+Und deine Lügen, du verbreitest sie im ganzen Land
+Von Mann zu Mann - Regelt man die Sachen bei mir
+Du bist wie Britney Spears und hast dir eine Glatze rasiert
+Was ist passiert? - Du bist überall, doch nicht mehr in Berlin
+Egal wo man dich sieht, man wird dich ficken aus Prinzip
+Nachdem ich dich ernähre, merkst du wie mein Kragen platzt?
+Komm mir noch mal in die Quere - Zahnersatz
+Wegen mir musst du verschwinden aus der Stadt
+Ich bin immer noch der King und das ist Fakt
+[Hook]
+Erst kommt der Hochmut, dann kommt der Fall
+Erst kommt die Ruhe vor dem Sturm, dann der Knall
+Es ist nur ein schmaler Grat zwischen Frieden und Gewalt
+Du bleibst entweder hart oder liegst auf dem Asphalt
+Erst kommt der Hochmut, dann kommt der Fall
+Erst kommt die Ruhe vor dem Sturm, dann der Knall
+Es ist nur ein schmaler Grat zwischen Frieden und Gewalt
+Du bleibst entweder hart oder liegst auf dem Asphalt
+[Bridge]
+Yeah
+Du bist kein Mann, auch wenn du angibst bei allen
+Irgendwann wirst du fallen
+Die Landung wird hart, du hebst ab bis zum All
+Doch irgendwann wirst du fallen
+Nein du wirst nicht zum Mann, auch wenn du angibst bei allen
+Irgendwann wirst du fallen
+Die Landung wird hart, du hebst ab bis zum All
+Doch irgendwann wirst du fallen
+[Hook]
+Erst kommt der Hochmut, dann kommt der Fall
+Erst kommt die Ruhe vor dem Sturm, dann der Knall
+Es ist nur ein schmaler Grat zwischen Frieden und Gewalt
+Du bleibst entweder hart oder liegst auf dem Asphalt
+Erst kommt der Hochmut, dann kommt der Fall
+Erst kommt die Ruhe vor dem Sturm, dann der Knall
+Es ist nur ein schmaler Grat zwischen Frieden und Gewalt
+Du bleibst entweder hart oder liegst auf dem Asphalt
+</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1467,8 +2630,59 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Part 1: Bushido]Yeah ahWir sind immer noch die Stimme der NationHeute ist der King auf seinem ThronPlatin an der Wand, Villen für MillionenIch mach das hier schon länger, deshalb bin ich es gewohntB-B-B-B-Business rund um die UhrWisst ihr noch früher mit den Kumpels auf TourEinfach auf der Straße hängen, Straßengangs, Tempelhofer DammBlaues Licht, das bedeutet Hände an die Wand yeahSo wie es ein Gangster tut, Palästinenser TuchDa wo ich herkomm, haben Menschen an den Händen BlutWir haben rebelliert, wir haben rumgepöbeltAuf der Jagd nach dem Fleisch wie ein DschungellöweDenk daran wir sind Berliner wir bleiben hartWir sind uns treu geblieben, jeder auf seine ArtViele Leute häng'n bis heute in der WarteschleifeKing Bushido, Erfolg ist mein Markenzeichen![Hook: Bushido]Ich erinner mich, damals als ich nichts hatteAls mir der Teufel jeden Abend ins Gesicht lachteIch war verlor'n doch mit dir fand ich ZuversichtDenn es gibt niemanden, niemanden den du vergisstIch war ein ganz normaler Junge aus der NachbarschaftIch bin stolz, wenn ich seh', was mein Nachbar schafftYeah ich denke nicht, dass es ein Zufall istDenn es gibt niemanden, niemanden den du vergisst
-[Part 2: El Moussaoui]Wir sind immer noch die Stimme der NationDie Jugend hier braucht dringend ein IdolIch wusste nicht wohin, also ging ich einfach losMan ich musste mich besinnen und bin mitlerweile GroßMit Sonny Black auf Tour, ohne Album auf dem MarktUnd vielleicht siehst du bald mein erstes Album in den ChartsAll die Medien haben Zweifel aber langsam wird es klarDie Familie El Moussaoui hat noch and're SuperstarsIch hatte einen Traum, wachte auf mit 'nem ZielUnd ich weiss ganz genau, dass ich mich niemals verkauf für ein DealIch bin Araber was man an der Hautfarbe siehtHol die Kamera und mach' ein paar Aufnahmen - CheeseAus dem Exil wieder da wo ich zu Taten schreiteGeh zum Schneider leider passt dir meine KragenweiteNicht einmal im Ansatz, Hände hoch für Aachens finestElmoWestside, kein Image ist mein Markenzeichen![Hook: Bushido]Ich erinner mich, damals als ich nichts hatteAls mir der Teufel jeden Abend ins Gesicht lachteIch war verlor'n doch mit dir fand ich ZuversichtDenn es gibt niemanden, niemanden den du vergisstIch war ein ganz normaler Junge aus der NachbarschaftIch bin stolz, wenn ich seh', was mein Nachbar schafftYeah ich denke nicht, dass es ein Zufall istDenn es gibt niemanden, niemanden den du vergisst</t>
+          <t>[Part 1: Bushido]
+Yeah ah
+Wir sind immer nochdie Stimme der Nation
+Heute ist der King auf seinem Thron
+Platin an der Wand,Villen für Millionen
+Ich mach das hier schon länger, deshalb bin ich es gewohnt
+B-B-B-B-Business rund um die Uhr
+Wisst ihr noch früher mit den Kumpels auf Tour
+Einfach auf der Straße hängen, Straßengangs,Tempelhofer Damm
+Blaues Licht, das bedeutet Hände an die Wand yeah
+So wie es ein Gangster tut, Palästinenser Tuch
+Da wo ich herkomm, haben Menschen an den Händen Blut
+Wir haben rebelliert, wir haben rumgepöbelt
+Auf der Jagd nach dem Fleisch wie ein Dschungellöwe
+Denk daran wir sind Berliner wir bleiben hart
+Wir sind uns treu geblieben, jeder auf seine Art
+Viele Leute häng'n bis heute in der Warteschleife
+King Bushido,Erfolg ist mein Markenzeichen!
+[Hook: Bushido]
+Ich erinner mich, damals als ich nichts hatte
+Als mir der Teufel jeden Abend ins Gesicht lachte
+Ich war verlor'n doch mit dir fand ich Zuversicht
+Denn es gibt niemanden, niemanden den du vergisst
+Ich war ein ganz normaler Junge aus der Nachbarschaft
+Ich bin stolz, wenn ich seh', was mein Nachbar schafft
+Yeah ich denke nicht, dass es ein Zufall ist
+Denn es gibt niemanden, niemanden den du vergisst
+[Part 2: El Moussaoui]
+Wir sind immer noch die Stimme der Nation
+Die Jugend hier braucht dringend ein Idol
+Ich wusste nicht wohin, also ging ich einfach los
+Man ich musste mich besinnen und bin mitlerweile Groß
+Mit Sonny Black auf Tour, ohne Album auf dem Markt
+Und vielleicht siehst du bald mein erstes Album in den Charts
+All die Medien haben Zweifel aber langsam wird es klar
+Die Familie El Moussaoui hat noch and're Superstars
+Ich hatte einen Traum, wachte auf mit 'nem Ziel
+Und ich weiss ganz genau, dass ich mich niemals verkauf für ein Deal
+Ich bin Araber was man an der Hautfarbe sieht
+Hol die Kamera und mach' ein paar Aufnahmen - Cheese
+Aus dem Exil wieder da wo ich zu Taten schreite
+Geh zum Schneider leider passt dir meine Kragenweite
+Nicht einmal im Ansatz, Hände hoch für Aachens finest
+ElmoWestside, kein Image ist mein Markenzeichen!
+[Hook: Bushido]
+Ich erinner mich, damals als ich nichts hatte
+Als mir der Teufel jeden Abend ins Gesicht lachte
+Ich war verlor'n doch mit dir fand ich Zuversicht
+Denn es gibt niemanden, niemanden den du vergisst
+Ich war ein ganz normaler Junge aus der Nachbarschaft
+Ich bin stolz, wenn ich seh', was mein Nachbar schafft
+Yeah ich denke nicht, dass es ein Zufall ist
+Denn es gibt niemanden, niemanden den du vergisst</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1522,9 +2736,84 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Yeah![Part 1: Bushido]Ich denke mit dem Mic, schreib es auf ein BlattDu willst sein wie ich aber bleibst nicht mal im TaktKomm vorbei in deiner Stadt, sie rufen schon die FeuerwehrDoch sie können sich nicht gegen mein Feuer wehr´nAls ob ich Feuer wär, brenn ich deinen Dreck wegSonny Black du Keck, wenn ich komme kriegst du JetlagWahrscheinlich bringt mich dieses Album vor den RichterKomm auf den Campingplatz und sag ihr seid alle WichserDu denkst kein Problem, da halte ich doch mitIch geb dir einen ganz kleinen Tipp: mach es nicht!Heavy Metal, Rap Electro TechnoMeine Stimme ist so wie Crack für das GhettoEs ist nur Landwirt, was du auf dem Land wirstDoch ich kann dir zeigen wie du zu nem Mann wirstJetzt hau ab nimm dein lächerlichen Shit mitS-O-N-N-Y es ist Business[Hook]Meinst du ernst was du tust? Sag was bringt dir die Karriere?Hättest du´s geschafft auch wenn ich vielleicht nicht wäre?Liegt es immer an den andern oder an der Qualität?Dass ich es genieße und du nicht mal davon lebstMann, das kann doch nicht so laufen, sag was willst du von Musik?Lass sie doch in Frieden mit der Welle die du schiebstSuch die Schuld bei dir selbst und nicht immer nur bei mirDarum bist du weg und ich immer noch hier
-[Part 2]Ich bin Gangsterrapikone, Chromfelgen-BoxenstoppRap will Tysonschnitt und kein Max-Herre-LockenkopfIch muss jeden Tag das Blitzlicht ertragenDu willst etwas werden doch musst mich vorher fragenReady to rumble! Ich geh angeln mit MacheteBesauf dich an der Tanke und komm dann auf eine FeteIch mach den Sound für den Hof im KnastUnd weiß auch nicht warum du dein Vorbild hasstEs ist Rapelectroschock, du hängst nur mit AffenDein bester Track ist gar nichts wenn die Gangster auf dich kackenDu bist nicht rough, warum freust du dich zu leben?Jeder deiner Gang ist Toy und will freundlich mit mir redenWarum soll ich auf irgendwelchen Partys mit dir labern?Damals war ein Treffen doch ihr wart die die nicht da war´nIhr habt Freunde mit Computer, ich hab Freunde mit BazookaRap nicht gegen uns wenn du glaubst du bist ein Loser![Hook]Meinst du ernst was du tust? Sag was bringt dir die Karriere?Hättest du´s geschafft auch wenn ich vielleicht nicht wäre?Liegt es immer an den andern oder an der Qualität?Dass ich es genieße und du nicht mal davon lebstMann, das kann doch nicht so laufen, sag was willst du von Musik?Lass sie doch in Frieden mit der Welle die du schiebstSuch die Schuld bei dir selbst und nicht immer nur bei mirDarum bist du weg und ich immer noch hier
-[Part 3]Warum guckt ihr mich so an? Habt ihr Angst vor einem Mann?Leg die Hand auf meine Schulter und ich box dich durch die Wand. Ich mach Enemys kaputt, Gangster schießen in die LuftMit deinem krassen Hype läufts nicht länger als im Puff, yeah!Was Musik? Dein Beat ist Antik!Du bist deep? Dann sei stolz doch bei Rap gehts um KriegDu fauler Sack fragst dein Vater nach nem Hunni dOch ich komm bei dir vorbei und ich warte vor der UniEs ist wahr, schau mich an, ich bin es wirklichRap hat rote Augen und ich bang noch mit vierzig wegVersucht es lieber mal im ComedybereichIch komm erst aus meiner Höhle wenn die Sonne nicht mehr scheint.Du bist cool und zauberst Hasen aus dem Hintern?Und glaubst Hip Hop heißt bei dir im Garten überwintern?Du hast für den Job leider nicht mal ein Gespür!Du willst ne heile Welt? Dann schau nicht vor meine Tür![Hook]Meinst du ernst was du tust? Sag was bringt dir die Karriere?Hättest du´s geschafft auch wenn ich vielleicht nicht wäre?Liegt es immer an den andern oder an der Qualität?Dass ich es genieße und du nicht mal davon lebstMann, das kann doch nicht so laufen, sag was willst du von Musik?Lass sie doch in Frieden mit der Welle die du schiebstSuch die Schuld bei dir selbst und nicht immer nur bei mirDarum bist du weg und ich immer noch hier</t>
+          <t>Yeah!
+[Part 1: Bushido]
+Ich denke mit dem Mic, schreib es auf ein Blatt
+Du willst sein wie ich aber bleibst nicht mal im Takt
+Komm vorbei in deiner Stadt, sie rufen schon die Feuerwehr
+Doch sie können sich nicht gegen mein Feuer wehr´n
+Als ob ich Feuer wär, brenn ich deinen Dreck weg
+Sonny Black du Keck, wenn ich komme kriegst du Jetlag
+Wahrscheinlich bringt mich dieses Album vor den Richter
+Komm auf den Campingplatz und sag ihr seid alle Wichser
+Du denkst kein Problem, da halte ich doch mit
+Ich geb dir einen ganz kleinen Tipp: mach es nicht!
+Heavy Metal, Rap Electro Techno
+Meine Stimme ist so wie Crack für das Ghetto
+Es ist nur Landwirt, was du auf dem Land wirst
+Doch ich kann dir zeigen wie du zu nem Mann wirst
+Jetzt hau ab nimm dein lächerlichen Shit mit
+S-O-N-N-Y es ist Business
+[Hook]
+Meinst du ernst was du tust? Sag was bringt dir die Karriere?
+Hättest du´s geschafft auch wenn ich vielleicht nicht wäre?
+Liegt es immer an den andern oder an der Qualität?
+Dass ich es genieße und du nicht mal davon lebst
+Mann, das kann doch nicht so laufen, sag was willst du von Musik?
+Lass sie doch in Frieden mit der Welle die du schiebst
+Such die Schuld bei dir selbst und nicht immer nur bei mir
+Darum bist du weg und ich immer noch hier
+[Part 2]
+Ich bin Gangsterrapikone, Chromfelgen-Boxenstopp
+Rap will Tysonschnitt und kein Max-Herre-Lockenkopf
+Ich muss jeden Tag das Blitzlicht ertragen
+Du willst etwas werden doch musst mich vorher fragen
+Ready to rumble! Ich geh angeln mit Machete
+Besauf dich an der Tanke und komm dann auf eine Fete
+Ich mach den Sound für den Hof im Knast
+Und weiß auch nicht warum du dein Vorbild hasst
+Es ist Rapelectroschock, du hängst nur mit Affen
+Dein bester Track ist gar nichts wenn die Gangster auf dich kacken
+Du bist nicht rough, warum freust du dich zu leben?
+Jeder deiner Gang ist Toy und will freundlich mit mir reden
+Warum soll ich auf irgendwelchen Partys mit dir labern?
+Damals war ein Treffen doch ihr wart die die nicht da war´n
+Ihr habt Freunde mit Computer, ich hab Freunde mit Bazooka
+Rap nicht gegen uns wenn du glaubst du bist ein Loser!
+[Hook]
+Meinst du ernst was du tust? Sag was bringt dir die Karriere?
+Hättest du´s geschafft auch wenn ich vielleicht nicht wäre?
+Liegt es immer an den andern oder an der Qualität?
+Dass ich es genieße und du nicht mal davon lebst
+Mann, das kann doch nicht so laufen, sag was willst du von Musik?
+Lass sie doch in Frieden mit der Welle die du schiebst
+Such die Schuld bei dir selbst und nicht immer nur bei mir
+Darum bist du weg und ich immer noch hier
+[Part 3]
+Warum guckt ihr mich so an? Habt ihr Angst vor einem Mann?
+Leg die Hand auf meine Schulter und ich box dich durch die Wand. Ich mach Enemys kaputt, Gangster schießen in die Luft
+Mit deinem krassen Hype läufts nicht länger als im Puff, yeah!
+Was Musik? Dein Beat ist Antik!
+Du bist deep? Dann sei stolz doch bei Rap gehts um Krieg
+Du fauler Sack fragst dein Vater nach nem Hunni d
+Och ich komm bei dir vorbei und ich warte vor der Uni
+Es ist wahr, schau mich an, ich bin es wirklich
+Rap hat rote Augen und ich bang noch mit vierzig weg
+Versucht es lieber mal im Comedybereich
+Ich komm erst aus meiner Höhle wenn die Sonne nicht mehr scheint.
+Du bist cool und zauberst Hasen aus dem Hintern?
+Und glaubst Hip Hop heißt bei dir im Garten überwintern?
+Du hast für den Job leider nicht mal ein Gespür!
+Du willst ne heile Welt? Dann schau nicht vor meine Tür!
+[Hook]
+Meinst du ernst was du tust? Sag was bringt dir die Karriere?
+Hättest du´s geschafft auch wenn ich vielleicht nicht wäre?
+Liegt es immer an den andern oder an der Qualität?
+Dass ich es genieße und du nicht mal davon lebst
+Mann, das kann doch nicht so laufen, sag was willst du von Musik?
+Lass sie doch in Frieden mit der Welle die du schiebst
+Such die Schuld bei dir selbst und nicht immer nur bei mir
+Darum bist du weg und ich immer noch hier</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1578,9 +2867,83 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[Part 1]Wenn ich sag spring, fragst du nur wie hochBegrab dich am Friedhof, mein Name BushidoWas Millionär, ihr wisst, dass ich so wärWie ich bin, wären meine Taschen noch leerLak khallas, früher gegenüber von PallasHeute wach ich auf, übertrieben der PalastJeder von euch, will ein Profi, wie ich seinDoch ihr holt mich leider sowieso nicht einIch dacht, sie sagen zu nem Ex-Drogendealer neinDoch ich schaffte es in die obere Liga reinTempelhof, Neukölln, Jungs, die kein Deutsch könnenMan sieht nur Junkies, die hinter dem Zeug rennenHier scheißt jeder auf deinen VideoblogDoch ich war immer der, immer dieser Dealer vom BlockUnd vom Horizont, bis zum AsphaltIch war nie der selbe, seitdem Knastaufenthalt[Hook]Eine Sache könnt ihr Rapper nicht bestreitenIch bin der erfolgreichste Rapper aller ZeitenIhr geht drauf, ein Wort von mir reichtIch bin Skyline und Bordstein zugleichWelcher Typ ist so lange überlegenNein, man muss nicht lange überlegenAlle wissen es, die zeit ist jetzt reifIch bin Bordstein und Skyline zugleich
-[Part 2]Ich hab einen Freund dabei, du hast keinen Freund dabeiUnd glaub mir, ich hab nicht Moritz Bleibtreu dabeiIch komm aus dieser einen StadtMit dem Pokerraub, Lanz macht auf oberschlau,Doch hängt sich mein Poster aufIch bin Tunis, macht nicht auf LunizKing Bushido, keiner sagt mir, was zu tun istDamals war ich noch der Jüngste im ParkTickte unbesprühtes Gras, halbes Gramm 5 MarkHeute nehm ich fünf Stars unter KünstlervertragKommt mir einer dumm lebt dann künftig vom StaatSchöneberg, Mitte, scheiß auf dein GespitteSchwarzkopf im Benz, hinterher fährt die SitteIch überroll euch, ähnlich wie ein LkwSie kriegen einen Schock, wenn mich deine Eltern sehenUnd vom Bordstein, bis zur Skyline,Schafft ich es von Downstairs,Bis hin zur Primetime[Hook]Eine Sache könnt ihr Rapper nicht bestreitenIch bin der erfolgreichste Rapper aller ZeitenIhr geht drauf, ein Wort von mir reichtIch bin Skyline und Bordstein zugleichWelcher Typ ist so lange überlegenNein, man muss nicht lange überlegenAlle wissen es, die Zeit ist jetzt reifIch bin Bordstein und Skyline zugleich
-[Part 3]Ich treffe deine Shit clique, beim PicknickUnd mach Hattrick, wenn ich deine Tupperdose wegkickWas Bambi? ich bin nicht GhandiImmer noch Kanacke, wenn du mich richtig ansiehst, yeahJa mein Leben läuft jetzt voll perfektUnd an dieser Stelle schönen Gruß an Volker BeckJunger Mann, ich bin zurück wie ein BoomerangLaber nicht den Gangster voll, zieh dir doch ne Nummer manIch fing ganz unten an, denn ich war nie ein RapperMeine Welt ist grau, das ist das Berliner WetterWedding, Kreuzberg, wo keiner Deutsch lerntAber trotzdem jeder nen Mercedes in neu fährtAlles klar, Ghetto-Star, V.I.PMorgen schon im Bundestag, sag niemals nieDenn von der Skyline zum Bordstein zurückHab ich das Geschäft in Rekordzeit gefickt, yeah[Hook]Eine Sache könnt ihr Rapper nicht bestreitenIch bin der erfolgreichste Rapper aller ZeitenIhr geht drauf, ein Wort von mir reichtIch bin Skyline und Bordstein zugleichWelcher Typ ist so lange überlegenNein, man muss nicht lange überlegenAlle wissen es, die zeit ist jetzt reifIch bin Bordstein und Skyline zugleich</t>
+          <t>[Part 1]
+Wenn ich sag spring, fragst du nur wie hoch
+Begrab dich am Friedhof, mein Name Bushido
+Was Millionär, ihr wisst, dass ich so wär
+Wie ich bin, wären meine Taschen noch leer
+Lak khallas,früher gegenüber von Pallas
+Heute wach ich auf, übertrieben der Palast
+Jeder von euch, will ein Profi, wie ich sein
+Doch ihr holt mich leider sowieso nicht ein
+Ich dacht, sie sagen zu nem Ex-Drogendealer nein
+Doch ich schaffte es in die obere Liga rein
+Tempelhof, Neukölln, Jungs, die kein Deutsch können
+Man sieht nur Junkies, die hinter dem Zeug rennen
+Hier scheißt jeder auf deinen Videoblog
+Doch ich war immer der, immer dieser Dealer vom Block
+Und vom Horizont, bis zum Asphalt
+Ich war nie der selbe, seitdem Knastaufenthalt
+[Hook]
+Eine Sache könnt ihr Rapper nicht bestreiten
+Ich bin der erfolgreichste Rapper aller Zeiten
+Ihr geht drauf, ein Wort von mir reicht
+Ich bin Skyline und Bordstein zugleich
+Welcher Typ ist so lange überlegen
+Nein, man muss nicht lange überlegen
+Alle wissen es, die zeit ist jetzt reif
+Ich bin Bordstein und Skyline zugleich
+[Part 2]
+Ich hab einen Freund dabei, du hast keinen Freund dabeiUnd glaub mir, ich hab nicht Moritz Bleibtreu dabei
+Ich komm aus dieser einen StadtMit dem Pokerraub, Lanz macht auf oberschlau,
+Doch hängt sich mein Poster auf
+Ich bin Tunis, macht nicht auf Luniz
+King Bushido, keiner sagt mir, was zu tun ist
+Damals war ich noch der Jüngste im Park
+Tickte unbesprühtes Gras, halbes Gramm 5 Mark
+Heute nehm ich fünf Stars unter Künstlervertrag
+Kommt mir einer dumm lebt dann künftig vom Staat
+Schöneberg, Mitte, scheiß auf dein Gespitte
+Schwarzkopf im Benz, hinterher fährt die Sitte
+Ich überroll euch, ähnlich wie ein Lkw
+Sie kriegen einen Schock, wenn mich deine Eltern sehen
+Und vom Bordstein, bis zur Skyline,
+Schafft ich es vonDownstairs,
+Bis hin zur Primetime
+[Hook]
+Eine Sache könnt ihr Rapper nicht bestreiten
+Ich bin der erfolgreichste Rapper aller Zeiten
+Ihr geht drauf, ein Wort von mir reicht
+Ich bin Skyline und Bordstein zugleich
+Welcher Typ ist so lange überlegen
+Nein, man muss nicht lange überlegen
+Alle wissen es, die Zeit ist jetzt reif
+Ich bin Bordstein und Skyline zugleich
+[Part 3]
+Ich treffe deine Shit clique, beim Picknick
+Und mach Hattrick, wenn ich deine Tupperdose wegkick
+Was Bambi? ich bin nicht Ghandi
+Immer noch Kanacke, wenn du mich richtig ansiehst, yeah
+Ja mein Leben läuft jetzt voll perfekt
+Und an dieser Stelle schönen Gruß an Volker Beck
+Junger Mann, ich bin zurück wie ein Boomerang
+Laber nicht den Gangster voll, zieh dir doch ne Nummer man
+Ich fing ganz unten an, denn ich war nie ein Rapper
+Meine Welt ist grau, das ist das Berliner Wetter
+Wedding, Kreuzberg, wo keiner Deutsch lernt
+Aber trotzdem jeder nen Mercedes in neu fährt
+Alles klar, Ghetto-Star, V.I.P
+Morgen schon im Bundestag, sag niemals nie
+Denn von der Skyline zum Bordstein zurückHab ich das Geschäft in Rekordzeit gefickt, yeah
+[Hook]
+Eine Sache könnt ihr Rapper nicht bestreiten
+Ich bin der erfolgreichste Rapper aller Zeiten
+Ihr geht drauf, ein Wort von mir reicht
+Ich bin Skyline und Bordstein zugleich
+Welcher Typ ist so lange überlegen
+Nein, man muss nicht lange überlegen
+Alle wissen es, die zeit ist jetzt reif
+Ich bin Bordstein und Skyline zugleich</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1634,9 +2997,68 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[Part 1]Ihr wollt die Wahrheit hören, wissen wie es wirklich warWas ist mit Rap passiert, seit du mal 14 warstWo sind die Bunkerzeiten hin, wenn man sie brauchtOhne Internet und Handys, Kohle und ApplausIch vermisse das, hab mich dran gewöhnt, aber wisst ihr wasEs war nicht immer so Berlin war die dickste StadtHeute sind es Wahlberliner und TouristenbarsMan hat dich damals respektiert, wenn du Graffiti malstDoch in der echten Welt sind Egos nicht erwünschtIch hab 100.000 Fans, du hast weniger als 5Und trotzdem hab ich die gleichen Wunden so wie ihrMehr Geld, mehr Probleme, ersguterjunge - yeahNie wieder Stress mit Sido, Filme wie TarantinoMit Specter holten wir den Echo für das beste VideoIch beobachte genau was so passiertEs gibt ein guten Act hier und tausende kopieren[Hook]Hätte ich die Wahl, würd' ich alles nochmal wiederholenIch würd' noch mal den gleichen Weg gehen durch diesen Sturm Nochmal das Gefühl, noch einmal den ersten SchrittDenn erst am Ende weißt du wer du wirklich bistHätte ich die Wahl, würd' ich alles nochmal wiederholenIch würd noch mal den gleichen Weg gehen durch diesen Sturm Noch einmal Blitzlichtgewitter doch auf jedenSolltest du die Schattenseiten kennen, so ist das Leben
-[Part 2]Ich hab ganz unten angefangen und jeder weiß das jetztMan wird erfolgreich, wenn man sich was einfallen lässtErst war ich Untergrund, dann Major, dann IndependentIch weiß man wird belohnt, wenn man es richtig handledIch hab den Bambi nicht verdient sagt ihrBei mir sei, in der Vergangenheit so viel passiertIch hab auf Tour ganz allein einfach alle vereintBin in Arenen umgezogen, wenn die Halle nicht reichtDort standen Schwarze und Weiße, hunderte NationenAlle Hände gingen gemeinsam in die Luft, wenn ich sie hobAnstatt zu sagen, dass ich mich integriert hätteSagen sie das ich die Jugend ruiniert hätteBin ich dran Schuld, dass sie Lederjacken tragenKeine Federmappen haben und das Leben was ich sageFick auf die Regierung, ich kann nichts für eure FehlerKing Bushido, meine Politik braucht keine Wähler[Hook]Hätte ich die Wahl, würd' ich alles nochmal wiederholenIch würd' noch mal den gleichen Weg gehen durch diesen Sturm Nochmal das Gefühl, noch einmal den ersten SchrittDenn erst am Ende weißt du wer du wirklich bistHätte ich die Wahl, würd' ich alles nochmal wiederholenIch würd noch mal den gleichen Weg gehen durch diesen Sturm Noch einmal Blitzlichtgewitter doch auf jedenSolltest du die Schattenseiten kennen, so ist das Leben
-[Scratches]Stay on top of my gameYou can follow my feetTake it as a blessin'My life’s real but sometimes it seems like a dreamStay on top of my gameYou can follow my feetTake it as a blessin'My life’s real but sometimes it seems like a dream[Hook]Hätte ich die Wahl, würd' ich alles nochmal wiederholenIch würd' noch mal den gleichen Weg gehen durch diesen Sturm Nochmal das Gefühl, noch einmal den ersten SchrittDenn erst am Ende weißt du wer du wirklich bistHätte ich die Wahl, würd' ich alles nochmal wiederholenIch würd noch mal den gleichen Weg gehen durch diesen Sturm Noch einmal Blitzlichtgewitter doch auf jedenSolltest du die Schattenseiten kennen, so ist das Leben</t>
+          <t>[Part 1]
+Ihr wollt die Wahrheit hören, wissen wie es wirklich war
+Was ist mit Rap passiert, seit du mal 14 warst
+Wo sind die Bunkerzeiten hin, wenn man sie braucht
+Ohne Internet und Handys, Kohle und Applaus
+Ich vermisse das, hab mich dran gewöhnt, aber wisst ihr was
+Es war nicht immer so Berlin war die dickste Stadt
+Heute sind es Wahlberliner und Touristenbars
+Man hat dich damals respektiert, wenn du Graffiti malst
+Doch in der echten Welt sind Egos nicht erwünscht
+Ich hab 100.000 Fans, du hast weniger als 5
+Und trotzdem hab ich die gleichen Wunden so wie ihr
+Mehr Geld, mehr Probleme, ersguterjunge - yeah
+Nie wieder Stress mit Sido, Filme wie Tarantino
+Mit Specter holten wir den Echo für das beste Video
+Ich beobachte genau was so passiert
+Es gibt ein guten Act hier und tausende kopieren
+[Hook]
+Hätte ich die Wahl, würd' ich alles nochmal wiederholen
+Ich würd' noch mal den gleichen Weg gehen durch diesen Sturm Nochmal das Gefühl, noch einmal den ersten Schritt
+Denn erst am Ende weißt du wer du wirklich bist
+Hätte ich die Wahl, würd' ich alles nochmal wiederholen
+Ich würd noch mal den gleichen Weg gehen durch diesen Sturm Noch einmal Blitzlichtgewitter doch auf jeden
+Solltest du die Schattenseiten kennen, so ist das Leben
+[Part 2]
+Ich hab ganz unten angefangen und jeder weiß das jetzt
+Man wird erfolgreich, wenn man sich was einfallen lässt
+Erst war ich Untergrund, dann Major, dann Independent
+Ich weiß man wird belohnt, wenn man es richtig handled
+Ich hab den Bambi nicht verdient sagt ihr
+Bei mir sei, in der Vergangenheit so viel passiert
+Ich hab auf Tour ganz allein einfach alle vereint
+Bin in Arenen umgezogen, wenn die Halle nicht reicht
+Dort standen Schwarze und Weiße, hunderte Nationen
+Alle Hände gingen gemeinsam in die Luft, wenn ich sie hob
+Anstatt zu sagen, dass ich mich integriert hätte
+Sagen sie das ich die Jugend ruiniert hätte
+Bin ich dran Schuld, dass sie Lederjacken tragen
+Keine Federmappen haben und das Leben was ich sage
+Fick auf die Regierung, ich kann nichts für eure Fehler
+King Bushido, meine Politik braucht keine Wähler
+[Hook]
+Hätte ich die Wahl, würd' ich alles nochmal wiederholen
+Ich würd' noch mal den gleichen Weg gehen durch diesen Sturm Nochmal das Gefühl, noch einmal den ersten Schritt
+Denn erst am Ende weißt du wer du wirklich bist
+Hätte ich die Wahl, würd' ich alles nochmal wiederholen
+Ich würd noch mal den gleichen Weg gehen durch diesen Sturm Noch einmal Blitzlichtgewitter doch auf jeden
+Solltest du die Schattenseiten kennen, so ist das Leben
+[Scratches]
+Stay on top of my gameYou can follow my feet
+Take it as a blessin'
+My life’s real but sometimes it seems like a dream
+Stay on top of my gameYou can follow my feet
+Take it as a blessin'
+My life’s real but sometimes it seems like a dream
+[Hook]
+Hätte ich die Wahl, würd' ich alles nochmal wiederholen
+Ich würd' noch mal den gleichen Weg gehen durch diesen Sturm Nochmal das Gefühl, noch einmal den ersten Schritt
+Denn erst am Ende weißt du wer du wirklich bist
+Hätte ich die Wahl, würd' ich alles nochmal wiederholen
+Ich würd noch mal den gleichen Weg gehen durch diesen Sturm Noch einmal Blitzlichtgewitter doch auf jeden
+Solltest du die Schattenseiten kennen, so ist das Leben</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1690,9 +3112,83 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[Part 1]Ketten raus, Kragen hoch, Sonny Black, ich bin draufMach das Licht an im Club scheiß auf Backspin TVNewschool ist out, wer macht jetzt UmsatzDu sollst nicht reden, wenn du was im Mund hastVilla ist die neue Antwort auf HoodIch mach deinem Sohn seine Sandburg kaputtSüdberlin, du hast keine MittelDas letzte was du siehst sind paar Ärzte mit 'nem KittelKomm wir raven, die Drinks gehen auf michWenn du etwas sagen willst, sags mir ins GesichtKuss die Faust, komm Junge bounceIch bin einer der auf sein Konto nicht schautWer hat Angst? Denn ich bin der schwarze MannIch mach jetzt ernst und bring Rap wieder ins VaterlandIhr habt euch im Denkprozess vertanIch kack auf dein Magazin, Gangster Rap Titan[Hook]Ihr wollt Rockefeller-Beats, mit Sample hochgepitchtAber das war nie was für Gangster so wie michDas will ich Deutschland im Endeffekt ersparenGestatten King Bushido, Gangster Rap TitanIhr macht auf Community und gebt euch eure HändeDoch ein echter Gee sprüht mein B an die WändeDie Redakteure haben selber nicht mal PlanGestatten King Bushido, Gangster Rap Titan
-[Part 2]Ruler von Beruf, dieser Dreck ist nicht einfachIch bin der ohne Grund Stress macht im FreibadEs ist Freitag, ab in die DiscoWer fuckt mich ab? Sonny Black, Monte ChristoDu tanzt immernoch, der Club ist leerEin Anruf die Bravo Hip-Hop druckt nicht mehrGuck mal her, wieder dieser Rhythm of the NightWeil die ganze Szene einem Kindergarten gleichtIch bin tight, eng wie ein ArschlochUnd nicht der Typ der am Handy 'nen Part dropptIch mach meinen Job, dir bleibt die Luft wegBleib immer der der vom Life aus der Hood rapptJunger Mann, du kannst sehen wer ich binIch rappe ein paar Sätze und Breakdance ist inLeb wie der King, geh vom Fenster weg ich kamIn diese Szene als Gangster Rap Titan[Hook]Ihr wollt Rockefeller-Beats, mit Sample hochgepitchtAber das war nie was für Gangster so wie michDas will ich Deutschland im Endeffekt ersparenGestatten King Bushido, Gangster Rap TitanIhr macht auf Community und gebt euch eure HändeDoch ein echter Gee sprüht mein B an die WändeDie Redakteure haben selber nicht mal PlanGestatten King Bushido, Gangster Rap Titan
-[Part 3]Denkst du mich beeindruckt dein Judo-VereinLeider hab ich nichts mit dir Huso gemeinCrime-Time, ich stemm GewichteEin falsches Wort und dann bist du GeschichteKeiner ist bulletproof so wie wirWenn ich will ist dein Ruf ruiniertLak, sei leise, was für VergleicheKommt mein Album raus hängt ihr krass in der ScheißeMach die Scheine, wer braucht dein BullshitSonny Black, niemand hält mich auf, full ClipAh yeah, immer noch das AlphatierUnd dein Ego wir geknickt, so wie AltpapierDas ist der Alltag hier, Tempelhof GangsterflowHier feiert keiner Lil Wayne, 50 Cent und soHände hoch, sonst fehlt dir noch ein ZahnIch komme immer wieder, Gangster Rap Titan[Hook]Ihr wollt Rockefeller-Beats, mit Sample hochgepitchtAber das war nie was für Gangster so wie michDas will ich Deutschland im Endeffekt ersparenGestatten King Bushido, Gangster Rap TitanIhr macht auf Community und gebt euch eure HändeDoch ein echter Gee sprüht mein B an die WändeDie Redakteure haben selber nicht mal PlanGestatten King Bushido, Gangster Rap Titan</t>
+          <t>[Part 1]
+Ketten raus, Kragen hoch,Sonny Black, ich bin drauf
+Mach das Licht an im Club scheiß auf Backspin TV
+Newschool ist out, wer macht jetzt Umsatz
+Du sollst nicht reden, wenn du was im Mund hast
+Villa ist die neue Antwort auf Hood
+Ich mach deinem Sohn seine Sandburg kaputt
+Südberlin, du hast keine Mittel
+Das letzte was du siehst sind paar Ärzte mit 'nem Kittel
+Komm wir raven, die Drinks gehen auf mich
+Wenn du etwas sagen willst, sags mir ins Gesicht
+Kuss die Faust, komm Junge bounce
+Ich bin einer der auf sein Konto nicht schaut
+Wer hat Angst? Denn ich bin der schwarze Mann
+Ich mach jetzt ernst und bring Rap wieder ins Vaterland
+Ihr habt euch im Denkprozess vertan
+Ich kack auf dein Magazin, Gangster Rap Titan
+[Hook]
+Ihr wollt Rockefeller-Beats, mit Sample hochgepitcht
+Aber das war nie was für Gangster so wie mich
+Das will ich Deutschland im Endeffekt ersparen
+Gestatten King Bushido, Gangster Rap Titan
+Ihr macht auf Community und gebt euch eure Hände
+Doch ein echter Gee sprüht mein B an die Wände
+Die Redakteure haben selber nicht mal Plan
+Gestatten King Bushido, Gangster Rap Titan
+[Part 2]
+Ruler von Beruf, dieser Dreck ist nicht einfach
+Ich bin der ohne Grund Stress macht im FreibadEs ist Freitag, ab in die Disco
+Wer fuckt mich ab? Sonny Black, Monte Christo
+Du tanzt immernoch, der Club ist leer
+Ein Anruf die Bravo Hip-Hop druckt nicht mehr
+Guck mal her, wieder dieser Rhythm of the Night
+Weil die ganze Szene einem Kindergarten gleicht
+Ich bin tight, eng wie ein Arschloch
+Und nicht der Typ der am Handy 'nen Part droppt
+Ich mach meinen Job, dir bleibt die Luft weg
+Bleib immer der der vom Life aus der Hood rappt
+Junger Mann, du kannst sehen wer ich bin
+Ich rappe ein paar Sätze und Breakdance ist in
+Leb wie der King, geh vom Fenster weg ich kam
+In diese Szene als Gangster Rap Titan
+[Hook]
+Ihr wollt Rockefeller-Beats, mit Sample hochgepitcht
+Aber das war nie was für Gangster so wie mich
+Das will ich Deutschland im Endeffekt ersparen
+Gestatten King Bushido, Gangster Rap Titan
+Ihr macht auf Community und gebt euch eure Hände
+Doch ein echter Gee sprüht mein B an die Wände
+Die Redakteure haben selber nicht mal Plan
+Gestatten King Bushido, Gangster Rap Titan
+[Part 3]
+Denkst du mich beeindruckt dein Judo-Verein
+Leider hab ich nichts mit dir Huso gemein
+Crime-Time, ich stemm Gewichte
+Ein falsches Wort und dann bist du Geschichte
+Keiner ist bulletproof so wie wir
+Wenn ich will ist dein Ruf ruiniert
+Lak, sei leise, was für Vergleiche
+Kommt mein Album raus hängt ihr krass in der Scheiße
+Mach die Scheine, wer braucht dein Bullshit
+Sonny Black, niemand hält mich auf, full Clip
+Ah yeah, immer noch das Alphatier
+Und dein Ego wir geknickt, so wie Altpapier
+Das ist der Alltag hier, Tempelhof Gangsterflow
+Hier feiert keiner Lil Wayne, 50 Cent und so
+Hände hoch, sonst fehlt dir noch ein Zahn
+Ich komme immer wieder, Gangster Rap Titan
+[Hook]
+Ihr wollt Rockefeller-Beats, mit Sample hochgepitcht
+Aber das war nie was für Gangster so wie mich
+Das will ich Deutschland im Endeffekt ersparen
+Gestatten King Bushido, Gangster Rap Titan
+Ihr macht auf Community und gebt euch eure Hände
+Doch ein echter Gee sprüht mein B an die Wände
+Die Redakteure haben selber nicht mal Plan
+Gestatten King Bushido, Gangster Rap Titan</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1746,9 +3242,80 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[Part 1: Bushido]Ich bin ein Ehrenmann, fahre bis zum MehringdammRufe Orgi an, aber fuck er geht nicht ranScheiß drauf, ich hol erst was zu essenHertha spielt um 6, ich darf die Cam nicht vergessenWer weiß was in meiner Villa passiertIch hab gehört keiner dreht so Filme wie wirDa ruft er doch zurück, Orgi 69Ich sag ihm "Atze, wo bleibst du denn endlich"Ich hab uns schon das Fleisch geholtSchmeiß den Grill jetzt an und gleich geht's losDickes Konto, Imbiss BronkoHeute öffnen wir den obersten KnopfMachos in Berlin, wir lassen uns bedienenHandys erstmal aus, denn das haben wir uns verdientAtze heute wird uns alles hinterher getragenScheiß auf Frauenquote, das ist unser Männerabend[Hook: Bushido &amp; King Orgasmus One]Heute wird mal einfach entspannt, MännerabendWir zwei sind im Geiste verwandt, MännerabendSonny Black und Orgi 69 lassen heute mal die Sorgen hinter sichHau das Fleisch auf den Grill, MännerabendLass uns einfach nur chillen, MännerabendOrgi 69 und Sonny BlackSaunagang jetzt wird ordentlich relaxt
-[Part 2: King Orgasmus One]Ich sitz im Garten und schneide meine OrchideenAggro Berlin musste ich damals dankend ablehnenJetzt sitz ich hier und ich lasse mir ein' blownSchmeiß das Fleisch auf den Grill, heute gibt es wieder T-BoneBestes Fleisch, yeah, ich bin Berliner BärOrgi 69 und der MillionärSüdberlin, jetzt kommt wieder BMWSelbst im Hochsommer liegt bei mir ohne Ende SchneeDicke Autos halten vor der VillaScheiß mal auf Cordon wir tragen jetzt ChinchillaKiller, wir sind wieder hart unterwegsBushido, Orgasmus wir essen heute SteaksHeute ist ein Männerabend, yeah wir sind gut draufIch bin in Boxershorts und mach mein Bier aufLa deutsche Vita wir leben euren TraumUnd nach dem Männerabend hab ich Spaß mit vier Frauen[Hook]Heute wird mal einfach entspannt, MännerabendWir zwei sind im Geiste verwandt, MännerabendSonny Black und Orgi 69 lassen heute mal die Sorgen hinter sichHau das Fleisch auf den Grill, MännerabendLass uns einfach nur chillen, MännerabendOrgi 69 und Sonny BlackSaunagang jetzt wird ordentlich relaxt
-[Part 3: Bushido &amp; King Orgasmus One]Wir machen das was man am Männerabend machtSind so wie wir sind und hängen einfach abLass dich einfach gehen und leg die Beine hochDie Playsi reingeholt, Atze jetzt wird gezocktBack from the Block mit King Orgasmus OneWir kennen uns von früher, wir fingen zusammen anMit Musik, jetzt heißt es Südberlin für immerDie Rechnung zahlt Fler, Grüße an GodsillaMit der Yacht auf der Donau Richtung WachauHab die Longpapes dabei also erstmal ein' bauenUnd ich zieh an euch vorbei, aka der weiße HaiUnd ich lege mir zwei Nasen und bin ready to flySo high, jetzt schieben alle Rapper wieder FilmKing Orgasmus One, Sonny Black wir sind am chillenIst mir doch egal, was die Hip-Hop Szene denktIch ess Langusten und gehe dann penn[Hook]Heute wird mal einfach entspannt, MännerabendWir zwei sind im Geiste verwandt, MännerabendSonny Black und Orgi 69 lassen heute mal die Sorgen hinter sichHau das Fleisch auf den Grill, MännerabendLass uns einfach nur chillen, MännerabendOrgi 69 und Sonny BlackSaunagang jetzt wird ordentlich relaxt</t>
+          <t>[Part 1: Bushido]
+Ich bin ein Ehrenmann, fahre bis zum Mehringdamm
+Rufe Orgi an, aber fuck er geht nicht ran
+Scheiß drauf, ich hol erst was zu essen
+Hertha spielt um 6, ich darf die Cam nicht vergessen
+Wer weiß was in meiner Villa passiert
+Ich hab gehört keiner dreht so Filme wie wir
+Da ruft er doch zurück, Orgi 69
+Ich sag ihm "Atze, wo bleibst du denn endlich"
+Ich hab uns schon das Fleisch geholt
+Schmeiß den Grill jetzt an und gleich geht's los
+Dickes Konto, Imbiss Bronko
+Heute öffnen wir den obersten Knopf
+Machos in Berlin, wir lassen uns bedienen
+Handys erstmal aus, denn das haben wir uns verdient
+Atze heute wird uns alles hinterher getragen
+Scheiß auf Frauenquote, das ist unser Männerabend
+[Hook: Bushido &amp; King Orgasmus One]
+Heute wird mal einfach entspannt, Männerabend
+Wir zwei sind im Geiste verwandt, Männerabend
+Sonny Black und Orgi 69 lassen heute mal die Sorgen hinter sich
+Hau das Fleisch auf den Grill, Männerabend
+Lass uns einfach nur chillen, Männerabend
+Orgi 69 und Sonny Black
+Saunagang jetzt wird ordentlich relaxt
+[Part 2: King Orgasmus One]
+Ich sitz im Garten und schneide meine Orchideen
+Aggro Berlin musste ich damals dankend ablehnen
+Jetzt sitz ich hier und ich lasse mir ein' blown
+Schmeiß das Fleisch auf den Grill, heute gibt es wieder T-Bone
+Bestes Fleisch, yeah, ich bin Berliner Bär
+Orgi 69 und der Millionär
+Südberlin,jetzt kommt wieder BMW
+Selbst im Hochsommer liegt bei mir ohne Ende Schnee
+Dicke Autos halten vor der Villa
+Scheiß mal auf Cordon wir tragen jetzt Chinchilla
+Killer, wir sind wieder hart unterwegs
+Bushido, Orgasmus wir essen heute Steaks
+Heute ist ein Männerabend, yeah wir sind gut drauf
+Ich bin in Boxershorts und mach mein Bier auf
+La deutsche Vita wir leben euren Traum
+Und nach dem Männerabend hab ich Spaß mit vier Frauen
+[Hook]
+Heute wird mal einfach entspannt, Männerabend
+Wir zwei sind im Geiste verwandt, Männerabend
+Sonny Black und Orgi 69 lassen heute mal die Sorgen hinter sich
+Hau das Fleisch auf den Grill, Männerabend
+Lass uns einfach nur chillen, Männerabend
+Orgi 69 und Sonny Black
+Saunagang jetzt wird ordentlich relaxt
+[Part 3: Bushido &amp; King Orgasmus One]
+Wir machen das was man am Männerabend macht
+Sind so wie wir sind und hängen einfach ab
+Lass dich einfach gehen und leg die Beine hoch
+Die Playsi reingeholt, Atze jetzt wird gezockt
+Back from the Block mit King Orgasmus One
+Wir kennen uns von früher, wir fingen zusammen anMit Musik, jetzt heißt es Südberlin für immer
+Die Rechnung zahlt Fler, Grüße an Godsilla
+Mit der Yacht auf der Donau Richtung Wachau
+Hab die Longpapes dabei also erstmal ein' bauen
+Und ich zieh an euch vorbei, aka der weiße Hai
+Und ich lege mir zwei Nasen und bin ready to fly
+So high, jetzt schieben alle Rapper wieder Film
+King Orgasmus One, Sonny Black wir sind am chillen
+Ist mir doch egal, was die Hip-Hop Szene denkt
+Ich ess Langusten und gehe dann penn
+[Hook]
+Heute wird mal einfach entspannt, Männerabend
+Wir zwei sind im Geiste verwandt, Männerabend
+Sonny Black und Orgi 69 lassen heute mal die Sorgen hinter sich
+Hau das Fleisch auf den Grill, Männerabend
+Lass uns einfach nur chillen, Männerabend
+Orgi 69 und Sonny Black
+Saunagang jetzt wird ordentlich relaxt</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1802,8 +3369,36 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[Part 1: Bushido]Yeah ah, yeahIch und Frauenarzt sind SüdrapstarsMPU geschafft , deshalb gibt der Typ jetzt GasHab gewartet bis der Atze sich mal meldetGeh wohin du willst ich häng ab in LichterfeldeSchreibe was du kannst, es gibt keine ToleranzKeinem von und zwei'n ist deine Meinung relevant. YeahErsguterjunge Berlincrime, schick uns euer Demo doch wir hören nicht reinIch hab's damals selbst gemacht, frag ihn! Wir beide haben was gemeinsam, Platin! Untergrund Bassbox vor der 8-spur, Berlin bleibt hart was will dein Kaff nurSonnenbank flavour , Solariumflow heuteFüllen wir zwei ne Stadionshow. Und du fragst dich wie wir auf solche Lieder kommen?! Geh wohin du herkommst, mach das du nicht wieder kommst![Hook: Frauenarzt]Hey,hey,hey! Von Untergrund-Kassetten direkt in die Charts! Hey, hey, hey vom Bordstein zur Skyline, SüdrapstarsHey,hey,hey! Von Untergrund-Kassetten direkt in die Charts! Hey, hey, hey vom Bordstein zur Skyline, Südrapstars[Part 2: Frauenarzt]Kennst du die Bassbox-Kasetten noch?! Elektroghettoshock! Wie dem auch sei Pop?! du wirst weggekorkt, Sonny Black und der Doktor des Raps. Du hast dich überschätzt und jetzt bist du weg. Berlin bleibt hart, jeder Tag ist mein Park. Seit den neunziger Jahren sind wir am Start!Wir haben Trains gebombt, gemeinsam!Seite an Seite und wenn die Polizei kam war'n wir schon längst bei unseren Weibern, wir fahren mit BMW vorbei an deinem Leihwagen! Wann wir mal frei haben? Jeden Tag! Warum wir noch rappen? Nur so zum Spaß! Südrapstars vom Untergrund in die Charts, sie nennen mich Frauenarzt! Und der Herr mit dem Schlips? Bushido heißt er, sag HALLO zum neuen Bürgermeister![Hook: Frauenarzt]Hey,hey,hey! Von Untergrund-Kassetten direkt in die Charts! Hey, hey, hey vom Bordstein zur Skyline, SüdrapstarsHey,hey,hey! Von Untergrund-Kassetten direkt in die Charts! Hey, hey, hey vom Bordstein zur Skyline, Südrapstars
-[Part 3: Bushido &amp; Frauenarzt]Und ich komme mit dem Gynäkologen, er weiß deine Frau hat dich stündlich betrogen! Der Bass auf dem Beat das ist Atzenmusik. Das ist Berlin, die Stadt die ich lieb!Egal was du auch siehst oder über uns liest, wir lieben den Kiez die Südberlinstreets! Hiphop non-stop wir gehen ab am Block, die Szene ist geschockt sie sagen Oh mein Gott!Es ist Templehofrock wenn die Kick wieder bounct. Südberlin-sound der die Kids so versaut. Bushido produziert, Arzt präsentiert, ab jetzt werden wieder mal die Charts penetriertSie haben es probiert, doch konnten uns nie aufhalten, all ihr Hater ab jetzt Maul halten! Ein für alle mal damit dat klar is Südberlin für immer Südrapstars![Hook: Frauenarzt]Hey,hey,hey! Von Untergrund-Kassetten direkt in die Charts! Hey, hey, hey vom Bordstein zur Skyline, SüdrapstarsHey,hey,hey! Von Untergrund-Kassetten direkt in die Charts! Hey, hey, hey vom Bordstein zur Skyline, Südrapstars</t>
+          <t>[Part 1: Bushido]
+Yeah ah, yeah
+Ich und Frauenarzt sind Südrapstars
+MPU geschafft , deshalb gibt der Typ jetzt Gas
+Hab gewartet bis der Atze sich mal meldet
+Geh wohin du willst ich häng ab in Lichterfelde
+Schreibe was du kannst, es gibt keine Toleranz
+Keinem von und zwei'n ist deine Meinung relevant. Yeah
+Ersguterjunge Berlincrime, schick uns euer Demo doch wir hören nicht rein
+Ich hab's damals selbst gemacht, frag ihn! Wir beide haben was gemeinsam, Platin! Untergrund Bassbox vor der 8-spur, Berlin bleibt hart was will dein Kaff nur
+Sonnenbank flavour , Solariumflow heute
+Füllen wir zwei ne Stadionshow. Und du fragst dich wie wir auf solche Lieder kommen?!Geh wohin du herkommst, mach das du nicht wieder kommst!
+[Hook: Frauenarzt]
+Hey,hey,hey! Von Untergrund-Kassetten direkt in die Charts! Hey, hey, hey vom Bordstein zur Skyline, Südrapstars
+Hey,hey,hey! Von Untergrund-Kassetten direkt in die Charts! Hey, hey, hey vom Bordstein zur Skyline, Südrapstars
+[Part 2: Frauenarzt]
+Kennst du die Bassbox-Kasetten noch?! Elektroghettoshock!Wie dem auch sei Pop?! du wirst weggekorkt, Sonny Black und der Doktor des Raps. Du hast dich überschätzt und jetzt bist du weg. Berlin bleibt hart, jeder Tag ist mein Park. Seit den neunziger Jahren sind wir am Start!
+Wir haben Trains gebombt, gemeinsam!
+Seite an Seite und wenn die Polizei kam war'n wir schon längst bei unseren Weibern, wir fahren mit BMW vorbei an deinem Leihwagen! Wann wir mal frei haben? Jeden Tag!Warum wir noch rappen? Nur so zum Spaß!Südrapstars vom Untergrund in die Charts, sie nennen mich Frauenarzt! Und der Herr mit dem Schlips? Bushido heißt er,sag HALLO zum neuen Bürgermeister!
+[Hook: Frauenarzt]
+Hey,hey,hey! Von Untergrund-Kassetten direkt in die Charts! Hey, hey, hey vom Bordstein zur Skyline, Südrapstars
+Hey,hey,hey! Von Untergrund-Kassetten direkt in die Charts! Hey, hey, hey vom Bordstein zur Skyline, Südrapstars
+[Part 3: Bushido &amp;Frauenarzt]
+Und ich komme mit dem Gynäkologen, er weiß deine Frau hat dich stündlich betrogen! Der Bass auf dem Beat das ist Atzenmusik. Das ist Berlin, die Stadt die ich lieb!
+Egal was du auch siehst oder über uns liest, wir lieben den Kiez die Südberlinstreets! Hiphop non-stop wir gehen ab am Block, die Szene ist geschockt sie sagen Oh mein Gott!
+Es ist Templehofrock wenn die Kick wieder bounct. Südberlin-sound der die Kids so versaut. Bushido produziert, Arzt präsentiert, ab jetzt werden wieder mal die Charts penetriert
+Sie haben es probiert, doch konnten uns nie aufhalten, all ihr Hater ab jetzt Maul halten! Ein für alle mal damit dat klar is Südberlin für immer Südrapstars!
+[Hook: Frauenarzt]
+Hey,hey,hey! Von Untergrund-Kassetten direkt in die Charts! Hey, hey, hey vom Bordstein zur Skyline, Südrapstars
+Hey,hey,hey! Von Untergrund-Kassetten direkt in die Charts! Hey, hey, hey vom Bordstein zur Skyline, Südrapstars</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1857,9 +3452,83 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[Part 1]Ich nehm' euch mit in die City of DopeIn's waschechte Leben und zwar nicht wie die SoapEgal was, Berlin bleibt straightEs ist die eine Stadt, die niemals schläftDenn nur hier geben Brüder mir den HaltWenn du's hier schaffst, dann schaffst du's überallHier lebst du einfach, sorglos wie ickeUnd du gönnst dir morgens ne SchrippeIch mach's mir bequem, solang wie ich lebDas ist halt der Flavour, den Lanz nicht verstehtSonny Black, dieser Track geht ins OhrDu hörst ihn aus Autos am Schlesischen TorDort, wo die Hertha bald aufsteigtWo das Licht den Menschen aus dem Herzen heraus scheintWas ist New York, Paris und Madrid?Das hier ist Berlin, wir geben keinen Fick[Hook]Berlin Tag und Nacht, ich nehm im 7er PlatzVerdammt nochmal, ich liebe diese StadtUnd ist es kalt und grau, weiß ich ganz genauIch bleibe hier, bis die Sonne wieder lachtBerlin Tag und Nacht, hier geht so viel abDu kannst verloren gehen in dieser riesigen StadtIch stehe wie zuvor am Brandenburger TorVier Millionen, jeder sieht, was du machst
-[Part 2]B ist der Buchstabe, Berlin die TownIrgendwann ist der Flughafen fertig gebautDiese City hat die herrlichsten FrauenUnd fast jeder Mann hier ist ne ehrliche HautDie Berliner Schnauze sagt, was sie denktIn dieser Stadt: Jeder Tag ein GeschenkOb im Wedding wir Kanacken im ParkOder die Studenten dort am Hackeschen MarktDie neusten Hits hörst du auf KissGanz egal, an welchem Ort du auch bistMenschen aus der Kleinstadt können´s nicht verstehenIch lieb das dicke B da oben an der SpreeIm Sommer tust du gut und im Winter tut es wehTätowierte deinen Namen, weil ich hinter dir stehOb Osten, Westen, Süden oder NordenIch freue mich auf mein Berlin jeden Morgen[Hook]Berlin Tag und Nacht, ich nehm im 7er PlatzVerdammt nochmal, ich liebe diese StadtUnd ist es kalt und grau, weiß ich ganz genauIch bleibe hier, bis die Sonne wieder lachtBerlin Tag und Nacht, hier geht so viel abDu kannst verloren gehen in dieser riesigen StadtIch stehe wie zuvor am Brandenburger TorVier Millionen, jeder sieht, was du machst
-[Part 3]Es ist der Vibe, den die B-Stadt versprühtEin Blick aus dem Fenster und ich seh, dass sie blüht24 Stunden Action und PartyPrenzlauer Berg bis Checkpoint CharlieIn welchen StädtenGibt´s so viele NationalitätenMenschen, die sich verstehen?Die Kunst, die Musik, auch ich durfte sie formenWisst ihr was? Deutscher Hip Hop wurd hier geborenVermisste sie immer, wenn wir in die Ferne fuhrenMeine Stadt, Sony Center bis zum FernsehturmCity of Dreams, du bist Tag und Nacht wachDort, wo ich meinen Traum wahr gemacht habFahr durch die Stadt, die meinen Alltag bestimmtDie der Grund ist, warum mein Album so klingtDu bist grenzenlosUnd seit dem Mauerfall bist du Grenzen losBerlin, hebt die Hände hoch[Hook]Berlin Tag und Nacht, ich nehm im 7er PlatzVerdammt nochmal, ich liebe diese StadtUnd ist es kalt und grau, weiß ich ganz genauIch bleibe hier, bis die Sonne wieder lachtBerlin Tag und Nacht, hier geht so viel abDu kannst verloren gehen in dieser riesigen StadtIch stehe wie zuvor am Brandenburger TorVier Millionen, jeder sieht, was du machst</t>
+          <t>[Part 1]
+Ich nehm' euch mit in die City of DopeIn's waschechte Leben und zwar nicht wie die Soap
+Egal was, Berlin bleibt straight
+Es ist die eine Stadt, die niemals schläft
+Denn nur hier geben Brüder mir den Halt
+Wenn du's hier schaffst, dann schaffst du's überall
+Hier lebst du einfach, sorglos wie icke
+Und du gönnst dir morgens ne Schrippe
+Ich mach's mir bequem, solang wie ich leb
+Das ist halt der Flavour, den Lanz nicht versteht
+Sonny Black, dieser Track geht ins Ohr
+Du hörst ihn aus Autos am Schlesischen Tor
+Dort, wo die Hertha bald aufsteigt
+Wo das Licht den Menschen aus dem Herzen heraus scheint
+Was ist New York, Paris und Madrid?
+Das hier ist Berlin, wir geben keinen Fick
+[Hook]
+Berlin Tag und Nacht, ich nehm im 7er Platz
+Verdammt nochmal, ich liebe diese Stadt
+Und ist es kalt und grau, weiß ich ganz genau
+Ich bleibe hier, bis die Sonne wieder lacht
+Berlin Tag und Nacht, hier geht so viel ab
+Du kannst verloren gehen in dieser riesigen Stadt
+Ich stehe wie zuvor am Brandenburger Tor
+Vier Millionen, jeder sieht, was du machst
+[Part 2]
+B ist der Buchstabe, Berlin die Town
+Irgendwann ist der Flughafen fertig gebaut
+Diese City hat die herrlichsten Frauen
+Und fast jeder Mann hier ist ne ehrliche Haut
+Die Berliner Schnauze sagt, was sie denkt
+In dieser Stadt: Jeder Tag ein Geschenk
+Ob im Wedding wir Kanacken im Park
+Oder die Studenten dort am Hackeschen Markt
+Die neusten Hits hörst du auf Kiss
+Ganz egal, an welchem Ort du auch bist
+Menschen aus der Kleinstadt können´s nicht verstehen
+Ich lieb das dicke B da oben an der SpreeIm Sommer tust du gut und im Winter tut es weh
+Tätowierte deinen Namen, weil ich hinter dir steh
+Ob Osten, Westen, Süden oder Norden
+Ich freue mich auf mein Berlin jeden Morgen
+[Hook]
+Berlin Tag und Nacht, ich nehm im 7er Platz
+Verdammt nochmal, ich liebe diese Stadt
+Und ist es kalt und grau, weiß ich ganz genau
+Ich bleibe hier, bis die Sonne wieder lacht
+Berlin Tag und Nacht, hier geht so viel ab
+Du kannst verloren gehen in dieser riesigen Stadt
+Ich stehe wie zuvor am Brandenburger Tor
+Vier Millionen, jeder sieht, was du machst
+[Part 3]
+Es ist der Vibe, den die B-Stadt versprüht
+Ein Blick aus dem Fenster und ich seh, dass sie blüht
+24 Stunden Action und Party
+Prenzlauer Berg bis Checkpoint Charlie
+In welchen Städten
+Gibt´s so viele Nationalitäten
+Menschen, die sich verstehen?
+Die Kunst, die Musik, auch ich durfte sie formen
+Wisst ihr was? Deutscher Hip Hop wurd hier geboren
+Vermisste sie immer, wenn wir in die Ferne fuhren
+Meine Stadt, Sony Center bis zum Fernsehturm
+City of Dreams, du bist Tag und Nacht wach
+Dort, wo ich meinen Traum wahr gemacht hab
+Fahr durch die Stadt, die meinen Alltag bestimmt
+Die der Grund ist, warum mein Album so klingt
+Du bist grenzenlos
+Und seit dem Mauerfall bist du Grenzen losBerlin, hebt die Hände hoch
+[Hook]
+Berlin Tag und Nacht, ich nehm im 7er Platz
+Verdammt nochmal, ich liebe diese Stadt
+Und ist es kalt und grau, weiß ich ganz genau
+Ich bleibe hier, bis die Sonne wieder lacht
+Berlin Tag und Nacht, hier geht so viel ab
+Du kannst verloren gehen in dieser riesigen Stadt
+Ich stehe wie zuvor am Brandenburger Tor
+Vier Millionen, jeder sieht, was du machst</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1913,9 +3582,82 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[Intro: Brutos Brutaloz]Jo ihr WichserBrutos Brutaloz hier, mit Bushido am StartIch bin der den ihr früher immer belächelt habt (pfhehe)Hört euch das genau an dieses LiedIn euer'n Mund![Part 1: Bushido]Als ich nach Berlin kam hatten wir fast nichtsKennst du wenn alle sagen, dass du ein Verlierer bist?Doch ich hatte einen Traum und schrieb meine PartsHabe dran geglaubt als ich vor der Vierspur saßIch war im Heim, Status unerziehbarDie Wahl war Knast oder Maler und LackiererEs gab Tage da hatt' ich nichts zu fressenSchaffte es mich selbst aus der Lage hier zu rettenIch kenn' das noch als ich im Kinderzimmer saßWenn jeder dir erzählt, dass du immer nur versagstIch nahm Tapes auf, Bruder du weißtIch hab sie per Hand auf dem Ku'damm verteiltIch war Untergrund, heute bin ich PlatinAm Liebsten würden neidische Leute mich vom Markt zieh'nHeute sagen sie, sie kennen mich von früherAber nein, ich kenn' euch nicht von früher[Hook: Bushido]Wie war deine Meinung noch? Hab ich mich verhört ?Komm und sag mir heute doch, dass aus mir nichts wirdDer Plan war von Anfang an: Ich hole mir den ThronLichterfelde MotivationIch meinte ich komm groß raus, da waren sie am LachenKomm und sag mir heute nochmal, dass ich es nicht schaffeMama wusste bald bist du oben mein SohnLichterfelde Motivation
-[Part 2: Brutos Brutaloz]Als ich nach Deutschland gekomm' bin, war ich anfangs bettelarmIch hatte zwar keinen Hunger, doch musst' an allen Ecken sparenDoch ich hatte einen Traum und wusste ich werde es schaffenMeine erste Kohle machte ich schon mit zehn JahrenErstmal Ausländerheim, danach SozialpalastVon dort wieder weg zu ziehen hat damals keiner schnell geschafftDie Zeiten war'n damals hart, aber kein Grund zum WeinenEin echter Hustler bleibt stark, auch wenn die Sonne mal nicht scheintIch ging ehrlich arbeiten, doch die Bezahlung war magerSchwarzarbeit auf'm Bau oder Arbeit im LagerEs gab Tage da hab' ich Reklame ausgetragenDoch ich hatte immer noch zu wenig Kohle in den TaschenEs gab einen schnellen Ausweg, der hieß KriminalitätMorgens Schule geschwänzt, abends Dinger gedrehtHeute bin ich ein Hustler, der sein Handwerk versteht'Ne Uhr mit goldenem Armband, sag mir heute wie spät?[Hook: Bushido]Wie war deine Meinung noch? Hab ich mich verhört ?Komm und sag mir heute doch, dass aus mir nichts wirdDer Plan war von Anfang an: Ich hole mir den ThronLichterfelde MotivationIch meinte ich komm groß raus, da waren sie am LachenKomm und sag mir heute nochmal, dass ich es nicht schaffeMama wusste bald bist du oben mein SohnLichterfelde Motivation
-[Part 3: Brutos Brutaloz]Keine Kohle in den Taschen, trotzdem kannst du es schaffenKeine Arbeit, keinen Abschluss, trotzdem kannst du es schaffenUm dich herum sind nur Junkies, trotzdem kannst du es schaffenDu musst es nur woll'n, dann wird schon alles klappenDie Zeiten sind manchmal hart, doch du kannst es trotzdem schaffenEs bleibt einem nichts erspart, doch du kannst es trotzdem schaffenDu kannst es schaffen Atze, du musst es schaffen AtzeDu musst es nur wollen, dann wird schon alles klappen[Hook: Bushido]Wie war deine Meinung noch? Hab ich mich verhört ?Komm und sag mir heute doch, dass aus mir nichts wirdDer Plan war von Anfang an: Ich hole mir den ThronLichterfelde MotivationIch meinte ich komm groß raus, da waren sie am LachenKomm und sag mir heute nochmal, dass ich es nicht schaffeMama wusste bald bist du oben mein SohnLichterfelde Motivation[Outro: Brutos Brutaloz]Na Na Na, Na Na Na, Na Na Na Na Na NaNa Na Na, Na Na Na, Na Na Na Na Na NaNa Na Na, Na Na Na, Na Na Na Na Na NaNa Na Na, Na Na Na, Na Na Na Na Na Naah</t>
+          <t>[Intro: Brutos Brutaloz]
+Jo ihr Wichser
+Brutos Brutaloz hier, mit Bushido am Start
+Ich bin der den ihr früher immer belächelt habt (pfhehe)
+Hört euch das genau an dieses Lied
+In euer'n Mund!
+[Part 1: Bushido]
+Als ich nach Berlin kam hatten wir fast nichts
+Kennst du wenn alle sagen, dass du ein Verlierer bist?
+Doch ich hatte einen Traum und schrieb meine Parts
+Habe dran geglaubt als ich vor der Vierspur saß
+Ich war im Heim, Status unerziehbar
+Die Wahl war Knast oder Maler und Lackierer
+Es gab Tage da hatt' ich nichts zu fressen
+Schaffte es mich selbst aus der Lage hier zu retten
+Ich kenn' das noch als ich im Kinderzimmer saß
+Wenn jeder dir erzählt, dass du immer nur versagst
+Ich nahm Tapes auf, Bruder du weißtIch hab sie per Hand auf dem Ku'damm verteilt
+Ich war Untergrund, heute bin ich Platin
+Am Liebsten würden neidische Leute mich vom Markt zieh'n
+Heute sagen sie, sie kennen mich von früherAber nein, ich kenn' euch nicht von früher
+[Hook: Bushido]
+Wie war deine Meinung noch? Hab ich mich verhört ?Komm und sag mir heute doch, dass aus mir nichts wird
+Der Plan war von Anfang an: Ich hole mir den Thron
+Lichterfelde Motivation
+Ich meinte ich komm groß raus, da waren sie am Lachen
+Komm und sag mir heute nochmal, dass ich es nicht schaffe
+Mama wusste bald bist du oben mein Sohn
+Lichterfelde Motivation
+[Part 2: Brutos Brutaloz]
+Als ich nach Deutschland gekomm' bin, war ich anfangs bettelarm
+Ich hatte zwar keinen Hunger, doch musst' an allen Ecken sparen
+Doch ich hatte einen Traum und wusste ich werde es schaffen
+Meine erste Kohle machte ich schon mit zehn Jahren
+Erstmal Ausländerheim,danach Sozialpalast
+Von dort wieder weg zu ziehen hat damals keiner schnell geschafft
+Die Zeiten war'n damals hart, aber kein Grund zum Weinen
+Ein echter Hustler bleibt stark, auch wenn die Sonne mal nicht scheint
+Ich ging ehrlich arbeiten, doch die Bezahlung war mager
+Schwarzarbeit auf'm Bau oder Arbeit im Lager
+Es gab Tage da hab' ich Reklame ausgetragen
+Doch ich hatte immer noch zu wenig Kohle in den Taschen
+Es gab einen schnellen Ausweg, der hieß Kriminalität
+Morgens Schule geschwänzt, abends Dinger gedreht
+Heute bin ich ein Hustler,der sein Handwerk versteht
+'Ne Uhr mit goldenem Armband, sag mir heute wie spät?
+[Hook: Bushido]
+Wie war deine Meinung noch? Hab ich mich verhört ?Komm und sag mir heute doch, dass aus mir nichts wird
+Der Plan war von Anfang an: Ich hole mir den Thron
+Lichterfelde Motivation
+Ich meinte ich komm groß raus, da waren sie am Lachen
+Komm und sag mir heute nochmal, dass ich es nicht schaffe
+Mama wusste bald bist du oben mein Sohn
+Lichterfelde Motivation
+[Part 3: Brutos Brutaloz]
+Keine Kohle in den Taschen, trotzdem kannst du es schaffen
+Keine Arbeit, keinen Abschluss, trotzdem kannst du es schaffen
+Um dich herum sind nur Junkies, trotzdem kannst du es schaffen
+Du musst es nur woll'n, dann wird schon alles klappen
+Die Zeiten sind manchmal hart, doch du kannst es trotzdem schaffen
+Es bleibt einem nichts erspart, doch du kannst es trotzdem schaffen
+Du kannst es schaffen Atze, du musst es schaffen Atze
+Du musst es nur wollen, dann wird schon alles klappen
+[Hook: Bushido]
+Wie war deine Meinung noch? Hab ich mich verhört ?Komm und sag mir heute doch, dass aus mir nichts wird
+Der Plan war von Anfang an: Ich hole mir den Thron
+Lichterfelde Motivation
+Ich meinte ich komm groß raus, da waren sie am Lachen
+Komm und sag mir heute nochmal, dass ich es nicht schaffe
+Mama wusste bald bist du oben mein Sohn
+Lichterfelde Motivation
+[Outro: Brutos Brutaloz]
+Na Na Na, Na Na Na, Na Na Na Na Na Na
+Na Na Na, Na Na Na, Na Na Na Na Na Na
+Na Na Na, Na Na Na, Na Na Na Na Na Na
+Na Na Na, Na Na Na, Na Na Na Na Na Naah</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1969,8 +3711,61 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[Part 1]Der kleine Banti kam schon sehr jung nach DeutschlandEr liebte alles hier mehr als nur FreundschaftIn der Nachbarschaft die neuen zugezogenKein ärger mit der Polizei und gute NotenEr hat sich so wie seine Drei Geschwister IntegriertAlles schien normal eigentlich war nichts passiertSeine Eltern waren beide da und hatten arbeitDoch eines Tages kam ein Schreiben mit der nackten WarheitDa standen Gründe warum ihr wieder runter müsstetDie Aufenthaltsgenemigung nicht unbefristetDer Teufel hat wohl wieder einen ander'n PlanIch bin Zeuge du hast niemandem was getanFrüher sind wir noch gemeinsam durch die stadt gezogenUnd dann hies es du wirst abgeschobenSein großer Bruder sagte ihren Freundinen TschüssDer kleine wurd in Deutschland geborn und hatte GlückDie Leute haben heute nichts mehr übrig füreinanderDeshalb rissen sie die Brüder auseinanderDas Leben ist nicht fair hochgelebtes Land tu das denn Familien nicht an[Hook]Jeder Mensch könnte handeln wenn wir wüssten wer die Fäden ziehtDu must gehn weil sie mit deinem leben spielnSie sagen leider komst du jetzt nichtmehr wiederMorgen um 6 geht dein FliegerJeder Mensch könnte handeln wenn wir wüssten wer die Fäden ziehtDu must gehn weil sie mit deinem leben spielnSie sagen leider komst du jetzt nichtmehr wiederMorgen um 6 geht dein Flieger
-[Part 2]Auf einmal warst da in einer fremden WeltPlötzlich gefangen du erkennst dich nichtmal selbstDie Leute wollten dich in eine Schublade zwingDeine Tante wollte dich zum Flughafen bringSie hats nicht geschaft sie hat nur geweintSie kann bleiben und hat nur gesagt es tud ihr leidWas ist nun geschehn wie kann das passiernBürokratie wir machens lieber komplieziertAlles nur Papier scheiß mal auf den PassDie Wirkungen blind getroffenJa Entscheidungen sind krassDenk mal an dich selbst denk mal an dein KindWürdest du dich freun wenn man kommt und es dir nimmtSie sind angarjiert haben keinem was getanMit allem was sie mitnehm berreichern sie den StaatDas Leben ist nicht fair hochgeliebtes Land bitte tu das den Familien nicht an[Hook]Jeder Mensch könnte handeln wenn wir wüssten wer die Fäden ziehtDu must gehn weil sie mit deinem leben spielnSie sagen leider komst du jetzt nichtmehr wiederMorgen um 6 geht dein FliegerJeder Mensch könnte handeln wenn wir wüssten wer die Fäden ziehtDu must gehn weil sie mit deinem leben spielnSie sagen leider komst du jetzt nichtmehr wiederMorgen um 6 geht dein Flieger</t>
+          <t>[Part 1]
+Der kleine Banti kam schon sehr jung nach Deutschland
+Er liebte alles hier mehr als nur Freundschaft
+In der Nachbarschaft die neuen zugezogen
+Kein ärger mit der Polizei und gute Noten
+Er hat sich so wie seine Drei Geschwister Integriert
+Alles schien normal eigentlich war nichts passiert
+Seine Eltern waren beide da und hatten arbeit
+Doch eines Tages kam ein Schreiben mit der nackten Warheit
+Da standen Gründe warum ihr wieder runter müsstet
+Die Aufenthaltsgenemigung nicht unbefristet
+Der Teufel hat wohl wieder einen ander'n Plan
+Ich bin Zeuge du hast niemandem was getan
+Früher sind wir noch gemeinsam durch die stadt gezogen
+Und dann hies es du wirst abgeschoben
+Sein großer Bruder sagte ihren Freundinen Tschüss
+Der kleine wurd in Deutschland geborn und hatte Glück
+Die Leute haben heute nichts mehr übrig füreinander
+Deshalb rissen sie die Brüder auseinander
+Das Leben ist nicht fair hochgelebtes Land tu das denn Familien nicht an
+[Hook]
+Jeder Mensch könnte handeln wenn wir wüssten wer die Fäden zieht
+Du must gehn weil sie mit deinem leben spieln
+Sie sagen leider komst du jetzt nichtmehr wieder
+Morgen um 6 geht dein Flieger
+Jeder Mensch könnte handeln wenn wir wüssten wer die Fäden zieht
+Du must gehn weil sie mit deinem leben spieln
+Sie sagen leider komst du jetzt nichtmehr wieder
+Morgen um 6 geht dein Flieger
+[Part 2]
+Auf einmal warst da in einer fremden Welt
+Plötzlich gefangen du erkennst dich nichtmal selbst
+Die Leute wollten dich in eine Schublade zwing
+Deine Tante wollte dich zum Flughafen bring
+Sie hats nicht geschaft sie hat nur geweint
+Sie kann bleiben und hat nur gesagt es tud ihr leid
+Was ist nun geschehn wie kann das passiern
+Bürokratie wir machens lieber komplieziert
+Alles nur Papier scheiß mal auf den Pass
+Die Wirkungen blind getroffen
+Ja Entscheidungen sind krass
+Denk mal an dich selbst denk mal an dein Kind
+Würdest du dich freun wenn man kommt und es dir nimmt
+Sie sind angarjiert haben keinem was getan
+Mit allem was sie mitnehm berreichern sie den Staat
+Das Leben ist nicht fair hochgeliebtes Land bitte tu das den Familien nicht an
+[Hook]
+Jeder Mensch könnte handeln wenn wir wüssten wer die Fäden zieht
+Du must gehn weil sie mit deinem leben spieln
+Sie sagen leider komst du jetzt nichtmehr wieder
+Morgen um 6 geht dein Flieger
+Jeder Mensch könnte handeln wenn wir wüssten wer die Fäden zieht
+Du must gehn weil sie mit deinem leben spieln
+Sie sagen leider komst du jetzt nichtmehr wieder
+Morgen um 6 geht dein Flieger</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2024,9 +3819,67 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[Part 1]Ich glaub', ich werd verrückt, wie die Zeit vergehtIch schau' nicht mehr zurück, vor mir liegt ein weiter WegIch hab's nie eingesehen, doch musste dannViele meiner alten Weggefährten sind an diesem Schmerz kaputt gegangenHab die Kapuze an, der Wind ist am WehenIch war blind, doch kann sehen, wer hinter mir stehtNoch ein Winter vergeht, ich suche nach der SonneMan wird älter - auch die Jugend kann der Zukunft nicht entkommenMein Blut ist nicht geronnen, doch mein Herz schlägt langsamerDenk' daran zurück, als alles anders warIch war wie Du - Ich dachte, echte Liebe werd' ich nie empfindenDoch, wenn Gott es will, werd' ich meinen Frieden findenIch muss kämpfen, wenn sie gegen mich gehenIch weiß, keiner hat sich ausgesucht im Regen zu stehenAll die Dinge, die ein Mensch auf seinen Wegen erlebtDas sind Geschichten, die das Leben erzählt[Hook]Jeden Tag hör' ich Geschichten, die das Leben erzähltEin reicher Mann ist arm, wenn er keine Menschlichkeit besitztDieses Leben ist ein Geben und NehmenEs ist egal, was Du besitzt, denn am Ende bleibt Dir NichtsJeden Tag hör' ich Geschichten, die das Leben erzähltEin reicher Mann ist arm, wenn er keine Menschlichkeit besitztDieses Leben ist ein Geben und NehmenEs ist egal, was Du besitzt, denn am Ende bleibt Dir Nichts
-[Part 2]Du glaubst, Du wirst verrückt, merkst Du, wie die Zeit vergehtVom Pech verfolgt, lies das Glück Dich dann einfach stehenEs muss dunkel sein, damit Du all die Sterne siehstDu wolltest wissen, was hinter diesen Bergen liegtImmer wenn Du in die Ferne siehst und nichts erkennstSchau' ich in deine Augen und seh' die Lichter brennenDu bist noch nicht am Ziel, auch wenn Du nicht mehr rennstDu hast ein Herz aus Gold, auch wenn es nicht mehr glänztImmer wenn Du nicht dran denkst, denken wir an DichWeil tief in deinem Herz ein Feuer brennt, das nie erlischtDu bist frei, aber achte auf den GegenwindWeil es hier keinen interessiert, ob wir am Leben sindDu musst kämpfen, wenn sie gegen Dich gehenGlaub mir, keiner hat sich ausgesucht im Regen zu stehenAll die Dinge, die ein Mensch auf seinen Wegen erlebtDas sind Geschichten, die das Leben erzählt[Hook]Jeden Tag hör' ich Geschichten, die das Leben erzähltEin reicher Mann ist arm, wenn er keine Menschlichkeit besitztDieses Leben ist ein Geben und NehmenEs ist egal, was Du besitzt, denn am Ende bleibt Dir NichtsJeden Tag hör' ich Geschichten, die das Leben erzähltEin reicher Mann ist arm, wenn er keine Menschlichkeit besitztDieses Leben ist ein Geben und NehmenEs ist egal, was Du besitzt, denn am Ende bleibt Dir Nichts
-[Outro]Ich hab gehört, das hier wird alles mal vergehenDas sind Geschichten, die das Leben erzähltIch hab gehört, die Mutter hat ihr kleines Kind schon lang nicht mehr gesehenDas sind Geschichten, die das Leben erzähltIch hab gehört, er hat sie nie geliebt, deshalb betrügt er seine FrauDas sind Geschichten, die das Leben erzähltIch hab gehört, er fühlt sich stark, wenn er sie mit dem Bügeleisen hautDas sind Geschichten, die das Leben erzählt</t>
+          <t>[Part 1]
+Ich glaub', ich werd verrückt, wie die Zeit vergeht
+Ich schau' nicht mehr zurück, vor mir liegt ein weiter Weg
+Ich hab's nie eingesehen, doch musste dann
+Viele meiner alten Weggefährten sind an diesem Schmerz kaputt gegangen
+Hab die Kapuze an, der Wind ist am Wehen
+Ich war blind, doch kann sehen, wer hinter mir steht
+Noch ein Winter vergeht, ich suche nach der Sonne
+Man wird älter - auch die Jugend kann der Zukunft nicht entkommen
+Mein Blut ist nicht geronnen, doch mein Herz schlägt langsamer
+Denk' daran zurück, als alles anders war
+Ich war wie Du - Ich dachte, echte Liebe werd' ich nie empfinden
+Doch, wenn Gott es will, werd' ich meinen Frieden finden
+Ich muss kämpfen, wenn sie gegen mich gehen
+Ich weiß, keiner hat sich ausgesucht im Regen zu stehen
+All die Dinge, die ein Mensch auf seinen Wegen erlebt
+Das sind Geschichten, die das Leben erzählt
+[Hook]
+Jeden Tag hör' ich Geschichten, die das Leben erzählt
+Ein reicher Mann ist arm, wenn er keine Menschlichkeit besitzt
+Dieses Leben ist ein Geben und Nehmen
+Es ist egal, was Du besitzt, denn am Ende bleibt Dir Nichts
+Jeden Tag hör' ich Geschichten, die das Leben erzählt
+Ein reicher Mann ist arm, wenn er keine Menschlichkeit besitzt
+Dieses Leben ist ein Geben und Nehmen
+Es ist egal, was Du besitzt, denn am Ende bleibt Dir Nichts
+[Part 2]
+Du glaubst, Du wirst verrückt, merkst Du, wie die Zeit vergeht
+Vom Pech verfolgt, lies das Glück Dich dann einfach stehen
+Es muss dunkel sein, damit Du all die Sterne siehst
+Du wolltest wissen, was hinter diesen Bergen liegt
+Immer wenn Du in die Ferne siehst und nichts erkennst
+Schau' ich in deine Augen und seh' die Lichter brennen
+Du bist noch nicht am Ziel, auch wenn Du nicht mehr rennst
+Du hast ein Herz aus Gold, auch wenn es nicht mehr glänzt
+Immer wenn Du nicht dran denkst, denken wir an Dich
+Weil tief in deinem Herz ein Feuer brennt, das nie erlischt
+Du bist frei, aber achte auf den Gegenwind
+Weil es hier keinen interessiert, ob wir am Leben sind
+Du musst kämpfen, wenn sie gegen Dich gehen
+Glaub mir, keiner hat sich ausgesucht im Regen zu stehen
+All die Dinge, die ein Mensch auf seinen Wegen erlebt
+Das sind Geschichten, die das Leben erzählt
+[Hook]
+Jeden Tag hör' ich Geschichten, die das Leben erzählt
+Ein reicher Mann ist arm, wenn er keine Menschlichkeit besitzt
+Dieses Leben ist ein Geben und Nehmen
+Es ist egal, was Du besitzt, denn am Ende bleibt Dir Nichts
+Jeden Tag hör' ich Geschichten, die das Leben erzählt
+Ein reicher Mann ist arm, wenn er keine Menschlichkeit besitzt
+Dieses Leben ist ein Geben und Nehmen
+Es ist egal, was Du besitzt, denn am Ende bleibt Dir Nichts
+[Outro]
+Ich hab gehört, das hier wird alles mal vergehen
+Das sind Geschichten, die das Leben erzählt
+Ich hab gehört, die Mutter hat ihr kleines Kind schon lang nicht mehr gesehen
+Das sind Geschichten, die das Leben erzählt
+Ich hab gehört, er hat sie nie geliebt, deshalb betrügt er seine Frau
+Das sind Geschichten, die das Leben erzählt
+Ich hab gehört, er fühlt sich stark, wenn er sie mit dem Bügeleisen haut
+Das sind Geschichten, die das Leben erzählt</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2080,9 +3933,81 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[Part 1]B-U-S-H-I-D-ODu fragst wiesoMach ich diesen Track und das Blutbad geht los, yeahDer Todesstern, nenn mich nur den StormtrooperCordon Sport Massenmord in dein Ohr, SharmutaSag deiner Frau, ich steh' nicht so auf löffelnWenn ich will, kann ich ganze Planeten auslöschenIch bin King Bushido, log dich in mein Forum einDoch so 'nen Typ lässt du nicht nochmal in die Wohnung reinAll' die Opfer mit dem Promoscheiß können dissen gehenIch mache mehr Geld wenn ich pissen geh'Man nimmt diesen Jungs ihre Scheiße nicht abIch bin sowas, wie die dunkle Seite der MachtDas Leben ist halt unfair, dein Reifen ist plattUnd ich hab wieder 100.000 Scheine gemacht, yeahFür eure Szene bin ich König und HerrscherImmer wenn ich rappe, wird das Böse in euch stärker[Hook]Mein Album ist jetzt raus, wer hat Angst vom schwarzen MannIch bin euer Alptraum und komm nachts aus dem Schrank, yeahLichter aus, schick die Kinder jetzt in's BettIhr gebt freiwillig auf, das finde ich korrekt, yeahJetzt ist Ruhe im Karton, ich bin der SargträgerFür deine Hip-Hop-Welt bin ich so wie Darth VaderDu willst dich über dein Idol beschwerenFrüher Endgegner, heute kommt der Todesstern
-[Part 2]Der Typ von "Für immer jung"Führe das ImperiumVielleicht wärt ihr auch ganz oben, wärt ihr nicht zu dummDer Todesstern, die letzte InstanzScheiß auf Let's Dance, weil ein Gangster nicht tanztFrüher schob ich Hass vor dem MalermeisterHeute dreh' ich Filme und die Saga geht weiterLichterfelde, ich verticke meine AggroketteMerkt euch, ich bin die Spitze der NahrungsketteWie du meinen Cock hältstWenn ich in die Oper step'Heute gibt es Kopfgeld, nenn mich einfach Boba FettIch werde euch die Suppe endlich versalzenIhr könnt eure Freizeit nur noch ländlich gestaltenKeiner darf hier sein Handy behaltenWenn ich vorbeikomm' mit dem MillenniumfalkenIch war schon immer der Härteste hierHör' den track und das Böse, es wird stärker in dir, yeah[Hook]Mein Album ist jetzt raus, wer hat Angst vom schwarzen MannIch bin euer Alptraum und komm nachts aus dem Schrank, yeahLichter aus, schick die Kinder jetzt in's BettIhr gebt freiwillig auf, das finde ich korrekt, yeahJetzt ist Ruhe im Karton, ich bin der SargträgerFür deine Hip-Hop-Welt bin ich so wie Darth VaderDu willst dich über dein Idol beschwerenFrüher Endgegner, heute kommt der Todesstern
-[Part 3]Es ist Krieg der Sterne, immer wenn ich wiederkehreIch könnte darauf scheißen, wenn ich nicht Bushido wäreDer Todesstern lehrt den anderen das FürchtenNur mit meinen Gedanken kann ich dich erwürgenDer berliner Bär, ich komm mit dem LaserschwertGuck dich an, du bist nichtmal deine GEMA wertMc René trinkt sein Bier im WaggonTritt weiter auf umsonst, ich residiere im AdlonAuf einmal hältst du deine Fresse so wie PantomimenIch beförder deinen Arsch bis nach DantooineImmernoch der selbe, schreibe meinen Part hartVerantwortlich für die Preise auf dem SchwarzmarktDie Welt ist groß, doch ich gebe hier die Richtung anEure Rebellion richtet gegen mich nichts anUnd ich scheiß auf den Rücktritt von CurseDas Böse wird stärker, wenn du meine Stimme hörst[Hook]Mein Album ist jetzt raus, wer hat Angst vom schwarzen MannIch bin euer Alptraum und komm nachts aus dem Schrank, yeahLichter aus, schick die Kinder jetzt in's BettIhr gebt freiwillig auf, das finde ich korrekt, yeahJetzt ist Ruhe im Karton, ich bin der SargträgerFür deine Hip-Hop-Welt bin ich so wie Darth VaderDu willst dich über dein Idol beschwerenFrüher Endgegner, heute kommt der Todesstern</t>
+          <t>[Part 1]
+B-U-S-H-I-D-O
+Du fragst wiesoMach ich diesen Track und das Blutbad geht los, yeah
+Der Todesstern, nenn mich nur den Stormtrooper
+Cordon Sport Massenmord in dein Ohr, Sharmuta
+Sag deiner Frau, ich steh' nicht so auf löffeln
+Wenn ich will, kann ich ganze Planeten auslöschen
+Ich bin King Bushido, log dich in mein Forum ein
+Doch so 'nen Typ lässt du nicht nochmal in die Wohnung rein
+All' die Opfer mit dem Promoscheiß können dissen gehenIch mache mehr Geld wenn ich pissen geh'Man nimmt diesen Jungs ihre Scheiße nicht ab
+Ich bin sowas, wie die dunkle Seite der MachtDas Leben ist halt unfair, dein Reifen ist plattUnd ich hab wieder 100.000 Scheine gemacht, yeah
+Für eure Szene bin ich König und HerrscherImmer wenn ich rappe, wird das Böse in euch stärker
+[Hook]
+Mein Album ist jetzt raus, wer hat Angst vom schwarzen Mann
+Ich bin euer Alptraum und komm nachts aus dem Schrank, yeah
+Lichter aus, schick die Kinder jetzt in's Bett
+Ihr gebt freiwillig auf, das finde ich korrekt, yeah
+Jetzt ist Ruhe im Karton, ich bin der Sargträger
+Für deine Hip-Hop-Welt bin ich so wie Darth Vader
+Du willst dich über dein Idol beschweren
+Früher Endgegner, heute kommt der Todesstern
+[Part 2]
+Der Typ von "Für immer jung"
+Führe das Imperium
+Vielleicht wärt ihr auch ganz oben, wärt ihr nicht zu dumm
+Der Todesstern, die letzte Instanz
+Scheiß auf Let's Dance, weil ein Gangster nicht tanzt
+Früher schob ich Hass vor dem Malermeister
+Heute dreh' ich Filmeund die Saga geht weiter
+Lichterfelde, ich verticke meine Aggrokette
+Merkt euch, ich bin die Spitze der Nahrungskette
+Wie du meinen Cock hältst
+Wenn ich in die Oper step'
+Heute gibt es Kopfgeld, nenn mich einfach Boba Fett
+Ich werde euch die Suppe endlich versalzen
+Ihr könnt eure Freizeit nur noch ländlich gestalten
+Keiner darf hier sein Handy behalten
+Wenn ich vorbeikomm' mit dem Millenniumfalken
+Ich war schon immer der Härteste hier
+Hör' den track und das Böse, es wird stärker in dir, yeah
+[Hook]
+Mein Album ist jetzt raus, wer hat Angst vom schwarzen Mann
+Ich bin euer Alptraum und komm nachts aus dem Schrank, yeah
+Lichter aus, schick die Kinder jetzt in's Bett
+Ihr gebt freiwillig auf, das finde ich korrekt, yeah
+Jetzt ist Ruhe im Karton, ich bin der Sargträger
+Für deine Hip-Hop-Welt bin ich so wie Darth Vader
+Du willst dich über dein Idol beschweren
+Früher Endgegner, heute kommt der Todesstern
+[Part 3]
+Es ist Krieg der Sterne, immer wenn ich wiederkehre
+Ich könnte darauf scheißen, wenn ich nicht Bushido wäre
+Der Todesstern lehrt den anderen das Fürchten
+Nur mit meinen Gedanken kann ich dich erwürgen
+Der berliner Bär, ich komm mit dem Laserschwert
+Guck dich an, du bist nichtmal deine GEMA wert
+Mc René trinkt sein Bier im Waggon
+Tritt weiter auf umsonst, ich residiere im Adlon
+Auf einmal hältst du deine Fresse so wie Pantomimen
+Ich beförder deinen Arsch bis nach Dantooine
+Immernoch der selbe, schreibe meinen Part hart
+Verantwortlich für die Preise auf dem Schwarzmarkt
+Die Welt ist groß, doch ich gebe hier die Richtung an
+Eure Rebellion richtet gegen mich nichts an
+Und ich scheiß auf den Rücktritt von Curse
+Das Böse wird stärker, wenn du meine Stimme hörst
+[Hook]
+Mein Album ist jetzt raus, wer hat Angst vom schwarzen Mann
+Ich bin euer Alptraum und komm nachts aus dem Schrank, yeah
+Lichter aus, schick die Kinder jetzt in's Bett
+Ihr gebt freiwillig auf, das finde ich korrekt, yeah
+Jetzt ist Ruhe im Karton, ich bin der Sargträger
+Für deine Hip-Hop-Welt bin ich so wie Darth Vader
+Du willst dich über dein Idol beschweren
+Früher Endgegner, heute kommt der Todesstern</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
